--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Binch.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Binch.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\kjova\Short&amp;Side_projects\SEAwise Task4_1\SEAwise\Systematic Reviews\Analysis Task 4.1\Data_Extraction_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/esther_beukhof_wur_nl/Documents/Projects/SEAwise/SEAwise GitHub/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{364C45A6-2E05-4AC3-8A64-FC7E53566F10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5E6BA9B5-45FC-444A-801C-D2951C0D5FF1}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -17,6 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$CI$77</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -51,13 +53,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Elliot John Brown</author>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AE4D4629-4B98-42A0-A83B-85E822F32046}">
       <text>
         <r>
           <rPr>
@@ -81,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{868DC95B-33B0-4A52-9F9F-F5AF4AA516E4}">
       <text>
         <r>
           <rPr>
@@ -126,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{2C0574D1-6AF2-4E37-91F9-2D4CAEFAD2FC}">
       <text>
         <r>
           <rPr>
@@ -150,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{BDDE73CA-72D9-4FF3-8FC8-97A987B9ADF7}">
       <text>
         <r>
           <rPr>
@@ -175,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{44C69B76-9A35-4F8C-A330-6F84393F81BA}">
       <text>
         <r>
           <rPr>
@@ -221,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{549C99F7-840E-48A1-9020-57ABEB28D4A7}">
       <text>
         <r>
           <rPr>
@@ -246,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{82C75BD4-0C1E-4FF0-BDF2-882E7E7734F8}">
       <text>
         <r>
           <rPr>
@@ -270,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{70D8D143-248C-4B7C-9CCB-58772ABCC668}">
       <text>
         <r>
           <rPr>
@@ -314,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="1" shapeId="0">
+    <comment ref="Y2" authorId="1" shapeId="0" xr:uid="{7AA15D49-9B98-4E73-9AF3-91FC68351B1A}">
       <text>
         <r>
           <rPr>
@@ -338,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{4AC2D2B2-F0E3-4954-8910-5F4626AF3B18}">
       <text>
         <r>
           <rPr>
@@ -363,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{66D33C9D-63DE-4D2A-A334-A9594BB82771}">
       <text>
         <r>
           <rPr>
@@ -390,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{D4B7E4A3-7776-401D-840C-562B5EF22607}">
       <text>
         <r>
           <rPr>
@@ -417,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{A7DE4991-19A3-422E-8B40-8C0C999E9E2E}">
       <text>
         <r>
           <rPr>
@@ -444,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{5B9EBD19-C6E1-4962-8B51-E21223BFEBFB}">
       <text>
         <r>
           <rPr>
@@ -468,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0">
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{23E63EB2-3AC4-4440-9BC0-D4AB2865C38E}">
       <text>
         <r>
           <rPr>
@@ -492,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="1" shapeId="0">
+    <comment ref="AF2" authorId="1" shapeId="0" xr:uid="{6E2C16F4-CD4B-4E22-9A79-93590F56B3FA}">
       <text>
         <r>
           <rPr>
@@ -599,7 +601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="1" shapeId="0">
+    <comment ref="AH2" authorId="1" shapeId="0" xr:uid="{179A70A2-7216-401D-9F59-473DBEF54A19}">
       <text>
         <r>
           <rPr>
@@ -626,7 +628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="1" shapeId="0">
+    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{2CC6C44C-9261-4504-8961-9AEAC2238553}">
       <text>
         <r>
           <rPr>
@@ -650,7 +652,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="1" shapeId="0">
+    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{684D62F4-94C5-4DDE-A541-AD1AE93EA7FE}">
       <text>
         <r>
           <rPr>
@@ -674,7 +676,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="1" shapeId="0">
+    <comment ref="AK2" authorId="1" shapeId="0" xr:uid="{48837F3F-4122-401A-973E-17157C7A6960}">
       <text>
         <r>
           <rPr>
@@ -700,7 +702,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="1" shapeId="0">
+    <comment ref="AL2" authorId="1" shapeId="0" xr:uid="{CC3EF887-18E6-44CE-8364-722818BE4EEF}">
       <text>
         <r>
           <rPr>
@@ -732,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="1" shapeId="0">
+    <comment ref="AM2" authorId="1" shapeId="0" xr:uid="{7EE6BD4C-9CBE-405F-BC2C-C60C3D6ED9B0}">
       <text>
         <r>
           <rPr>
@@ -913,7 +915,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="1" shapeId="0">
+    <comment ref="AN2" authorId="1" shapeId="0" xr:uid="{E42FF9CC-0D90-4038-8340-D3439DAA2033}">
       <text>
         <r>
           <rPr>
@@ -946,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="1" shapeId="0">
+    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{BE4BA73F-0BFB-454A-9EA1-63796940398D}">
       <text>
         <r>
           <rPr>
@@ -971,7 +973,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="1" shapeId="0">
+    <comment ref="AP2" authorId="1" shapeId="0" xr:uid="{0378510C-7C07-4B91-8D17-7E6274C6DDC2}">
       <text>
         <r>
           <rPr>
@@ -997,7 +999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="1" shapeId="0">
+    <comment ref="AQ2" authorId="1" shapeId="0" xr:uid="{60CC59FF-B40B-49CC-87C2-1132FE3D4512}">
       <text>
         <r>
           <rPr>
@@ -1024,7 +1026,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="1" shapeId="0">
+    <comment ref="AR2" authorId="1" shapeId="0" xr:uid="{774EE1DC-F5F8-4067-9715-A606D59E075E}">
       <text>
         <r>
           <rPr>
@@ -1048,7 +1050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="1" shapeId="0">
+    <comment ref="AS2" authorId="1" shapeId="0" xr:uid="{E0F6453B-EE02-4649-B84E-16B149D6EE06}">
       <text>
         <r>
           <rPr>
@@ -1072,7 +1074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="1" shapeId="0">
+    <comment ref="AT2" authorId="1" shapeId="0" xr:uid="{4F099052-EEDF-4441-BEE1-C0990D4C7C1C}">
       <text>
         <r>
           <rPr>
@@ -1097,7 +1099,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="1" shapeId="0">
+    <comment ref="AU2" authorId="1" shapeId="0" xr:uid="{85FBBF06-0459-4380-93F4-3B11C2C258BD}">
       <text>
         <r>
           <rPr>
@@ -1122,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="1" shapeId="0">
+    <comment ref="AV2" authorId="1" shapeId="0" xr:uid="{749E069D-2826-42E9-9B7D-A76C5D394C3A}">
       <text>
         <r>
           <rPr>
@@ -1147,7 +1149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="1" shapeId="0">
+    <comment ref="AW2" authorId="1" shapeId="0" xr:uid="{A9932CE1-11A4-47AF-A447-B17BFA8F83C2}">
       <text>
         <r>
           <rPr>
@@ -1171,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="1" shapeId="0">
+    <comment ref="AX2" authorId="1" shapeId="0" xr:uid="{6FE7173F-38BF-42E2-A285-244A99B0329F}">
       <text>
         <r>
           <rPr>
@@ -1201,13 +1203,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Elliot John Brown</author>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A04F1C66-A2DA-41A8-8E0B-DC2E7BD56E43}">
       <text>
         <r>
           <rPr>
@@ -1231,7 +1233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{5EE53AFA-8E6F-4510-81C5-3679440EE3C0}">
       <text>
         <r>
           <rPr>
@@ -1276,7 +1278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{C9B55058-DA27-4E1F-BF9B-1A7BBCC9F440}">
       <text>
         <r>
           <rPr>
@@ -1300,7 +1302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{43D1B87B-FAD5-4AFA-B6DE-8BEFBEB74BCE}">
       <text>
         <r>
           <rPr>
@@ -1325,7 +1327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{5FEE6925-F715-469B-B00A-CC1C5A30E5E6}">
       <text>
         <r>
           <rPr>
@@ -1371,7 +1373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{1F5A2B86-BD32-49A2-BB11-D8300AA48418}">
       <text>
         <r>
           <rPr>
@@ -1396,7 +1398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{9F8E3641-E7BF-475A-9D45-D52927615404}">
       <text>
         <r>
           <rPr>
@@ -1420,7 +1422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{9B47C341-4A78-4D3F-B534-7EA18652E50B}">
       <text>
         <r>
           <rPr>
@@ -1464,7 +1466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="1" shapeId="0">
+    <comment ref="Y2" authorId="1" shapeId="0" xr:uid="{3CD93006-396D-43B0-8826-B7E9E0A8FBD2}">
       <text>
         <r>
           <rPr>
@@ -1488,7 +1490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{141A0549-2EE8-41CB-B4CA-AF66064D325A}">
       <text>
         <r>
           <rPr>
@@ -1513,7 +1515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{7DB36731-80BE-4D89-8087-BB244ABC3CB2}">
       <text>
         <r>
           <rPr>
@@ -1540,7 +1542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{A6B6E28B-3395-4366-8B9E-28905DAC9DD1}">
       <text>
         <r>
           <rPr>
@@ -1567,7 +1569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{2C225D18-8AE1-4F96-BE0E-09EFE1BF4890}">
       <text>
         <r>
           <rPr>
@@ -1594,7 +1596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{3EA23ADA-6F9D-48B0-950B-9C024F5FEF92}">
       <text>
         <r>
           <rPr>
@@ -1618,7 +1620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0">
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{22BD489D-C832-4CBF-87C0-08B143252FE8}">
       <text>
         <r>
           <rPr>
@@ -1642,7 +1644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="1" shapeId="0">
+    <comment ref="AF2" authorId="1" shapeId="0" xr:uid="{DC8322AC-EB40-4544-A981-E2646EEA4489}">
       <text>
         <r>
           <rPr>
@@ -1749,7 +1751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="1" shapeId="0">
+    <comment ref="AH2" authorId="1" shapeId="0" xr:uid="{049DAEC8-C557-4212-A638-57A2A4E0E679}">
       <text>
         <r>
           <rPr>
@@ -1776,7 +1778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="1" shapeId="0">
+    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{79D03DFD-5E62-4E3D-879E-2B7C21A62C11}">
       <text>
         <r>
           <rPr>
@@ -1800,7 +1802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="1" shapeId="0">
+    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{ABCAA501-1FE5-4D81-869F-D6049CF48AA3}">
       <text>
         <r>
           <rPr>
@@ -1824,7 +1826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="1" shapeId="0">
+    <comment ref="AK2" authorId="1" shapeId="0" xr:uid="{4D796F07-D282-4F23-BDA6-DCB32EBCF37C}">
       <text>
         <r>
           <rPr>
@@ -1850,7 +1852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="1" shapeId="0">
+    <comment ref="AL2" authorId="1" shapeId="0" xr:uid="{BCF7BA90-B46B-456D-AA19-5EFFAC633F72}">
       <text>
         <r>
           <rPr>
@@ -1882,7 +1884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="1" shapeId="0">
+    <comment ref="AM2" authorId="1" shapeId="0" xr:uid="{FC832F00-95F4-4B92-9D1C-7C2457C09DFD}">
       <text>
         <r>
           <rPr>
@@ -2063,7 +2065,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="1" shapeId="0">
+    <comment ref="AN2" authorId="1" shapeId="0" xr:uid="{F6462ECB-A423-4782-A666-80FD99D0CFD8}">
       <text>
         <r>
           <rPr>
@@ -2096,7 +2098,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="1" shapeId="0">
+    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{18EFAE9B-A4BA-4126-B761-1120A9F875A6}">
       <text>
         <r>
           <rPr>
@@ -2121,7 +2123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="1" shapeId="0">
+    <comment ref="AP2" authorId="1" shapeId="0" xr:uid="{7F498B6E-6631-4061-86F5-19EA120D1934}">
       <text>
         <r>
           <rPr>
@@ -2147,7 +2149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="1" shapeId="0">
+    <comment ref="AQ2" authorId="1" shapeId="0" xr:uid="{4DF7E720-09C3-443E-9CC5-4F504B8398B5}">
       <text>
         <r>
           <rPr>
@@ -2174,7 +2176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="1" shapeId="0">
+    <comment ref="AR2" authorId="1" shapeId="0" xr:uid="{CE004C4B-340E-4376-A641-3D7FAB0003D0}">
       <text>
         <r>
           <rPr>
@@ -2198,7 +2200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="1" shapeId="0">
+    <comment ref="AS2" authorId="1" shapeId="0" xr:uid="{EA39B2B2-BFAA-4963-AEF9-3C1248C97EBC}">
       <text>
         <r>
           <rPr>
@@ -2222,7 +2224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="1" shapeId="0">
+    <comment ref="AT2" authorId="1" shapeId="0" xr:uid="{5F84EAAC-3110-43A4-8EDF-FC4872283555}">
       <text>
         <r>
           <rPr>
@@ -2247,7 +2249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="1" shapeId="0">
+    <comment ref="AU2" authorId="1" shapeId="0" xr:uid="{DE359B79-13B1-409C-B516-FEC2D75BCFDD}">
       <text>
         <r>
           <rPr>
@@ -2272,7 +2274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="1" shapeId="0">
+    <comment ref="AV2" authorId="1" shapeId="0" xr:uid="{C4A57A74-CC57-40FF-B1EF-BB316DE61193}">
       <text>
         <r>
           <rPr>
@@ -2297,7 +2299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="1" shapeId="0">
+    <comment ref="AW2" authorId="1" shapeId="0" xr:uid="{C212CD71-4B4E-448D-93A2-2150A3909249}">
       <text>
         <r>
           <rPr>
@@ -2321,7 +2323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="1" shapeId="0">
+    <comment ref="AX2" authorId="1" shapeId="0" xr:uid="{D78FC6E7-27A1-4F8C-91C8-E57ABA3B62DF}">
       <text>
         <r>
           <rPr>
@@ -2351,12 +2353,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{AB84CB92-A227-4BB6-B4F8-9A6291342501}">
       <text>
         <r>
           <rPr>
@@ -2386,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="724">
   <si>
     <t>SearchID</t>
   </si>
@@ -3738,15 +3740,6 @@
     <t>Doesn't really show any impact of fishing, just describes species composition of different fishing methods in the Adriatic Sea Small Scale Fisheries.</t>
   </si>
   <si>
-    <t>Litter density km^-2</t>
-  </si>
-  <si>
-    <t>Human population _ industrial parks _ river flow _ ports/ harbours and their activities</t>
-  </si>
-  <si>
-    <t>GAM _ quasipoisson GAM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Doesn't describe the impact of fishing on benthic habitats, is just a classification of the litter types, distribution, and composition. Aims to identify drivers of observed litter distribution (may still be useful) </t>
   </si>
   <si>
@@ -3797,12 +3790,6 @@
     <t>Benthic Terrain Modelling (BTM)</t>
   </si>
   <si>
-    <t>ANCOVA _ MDS _ GLM _ SIMPER _ ANOSIM</t>
-  </si>
-  <si>
-    <t>Chondrichthyes</t>
-  </si>
-  <si>
     <t>Depth _ Sediment composition</t>
   </si>
   <si>
@@ -4002,9 +3989,6 @@
   </si>
   <si>
     <t>Although these findings still substantiate a tentatively but cautiously positive attitude towards electrical fishing in terms of sustainability, various major gaps of knowledge still remain and hence need to be investigated to identify and possibly mitigate potentially harmful effects of electric stimuli on marine biota.</t>
-  </si>
-  <si>
-    <t>Abundance _ biodiversity _ community composition</t>
   </si>
   <si>
     <t xml:space="preserve">Survey of different chondrichthyes in the Western Mediterranean Sea. Doesn't study any impacts to their abundance/ diversity but mentions that fishing intensity can explin differences in observed community composition. </t>
@@ -4756,12 +4740,6 @@
   </si>
   <si>
     <t>Trawling vs. Trawler Moratorium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clutch size _ Egg size _ Hatching success _ Chick growth </t>
-  </si>
-  <si>
-    <t>growth rates were not significantly different between years (in all cases p &gt; 0.05). _ In 1993, chick survival decreased after the start of the moratorium, though chicks died significantly younger in 1992 than in 1993 . Fledging success in 1993 was significantly lower than that recorded in 1992, but when clutch size and hatching success were taken into account, there were no significant differences in breeding success between the 2 years.</t>
   </si>
   <si>
     <t xml:space="preserve">Turbot Gillnet Fishery </t>
@@ -5054,11 +5032,23 @@
   <si>
     <t>In addition to direct impact by trawling, frequent bottom trawl activity alters the hydrodynamic and sedimentary conditions, particularly increasing suspension of sediment. _  increased sediment loads and trawling marks.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Chick growth </t>
+  </si>
+  <si>
+    <t>growth rates were not significantly different between years (in all cases p &gt; 0.05).</t>
+  </si>
+  <si>
+    <t>In 1993, chick survival decreased after the start of the moratorium, though chicks died significantly younger in 1992 than in 1993 . Fledging success in 1993 was significantly lower than that recorded in 1992, but when clutch size and hatching success were taken into account, there were no significant differences in breeding success between the 2 years.</t>
+  </si>
+  <si>
+    <t>Clutch size _ Egg size _ Hatching success</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5600,36 +5590,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="13" style="14"/>
-    <col min="19" max="19" width="18.140625" style="14" customWidth="1"/>
+    <col min="1" max="17" width="13" style="14"/>
+    <col min="18" max="18" width="13" style="22"/>
+    <col min="19" max="19" width="18.109375" style="14" customWidth="1"/>
     <col min="20" max="23" width="13" style="14"/>
-    <col min="24" max="25" width="32.7109375" style="14" customWidth="1"/>
+    <col min="24" max="25" width="32.6640625" style="14" customWidth="1"/>
     <col min="26" max="33" width="13" style="14"/>
-    <col min="34" max="35" width="17.7109375" style="14" customWidth="1"/>
-    <col min="36" max="36" width="18.7109375" style="14" customWidth="1"/>
-    <col min="37" max="37" width="19.140625" style="14" customWidth="1"/>
-    <col min="38" max="38" width="17.7109375" style="14" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" style="14" customWidth="1"/>
-    <col min="40" max="41" width="15.85546875" style="14" customWidth="1"/>
-    <col min="42" max="42" width="15.42578125" style="14" customWidth="1"/>
+    <col min="34" max="35" width="17.6640625" style="14" customWidth="1"/>
+    <col min="36" max="36" width="18.6640625" style="14" customWidth="1"/>
+    <col min="37" max="37" width="19.109375" style="14" customWidth="1"/>
+    <col min="38" max="38" width="17.6640625" style="14" customWidth="1"/>
+    <col min="39" max="39" width="14.33203125" style="14" customWidth="1"/>
+    <col min="40" max="41" width="15.88671875" style="14" customWidth="1"/>
+    <col min="42" max="42" width="15.44140625" style="14" customWidth="1"/>
     <col min="43" max="45" width="13" style="14"/>
-    <col min="46" max="46" width="15.140625" style="14" customWidth="1"/>
-    <col min="47" max="47" width="18.7109375" style="14" customWidth="1"/>
+    <col min="46" max="46" width="15.109375" style="14" customWidth="1"/>
+    <col min="47" max="47" width="18.6640625" style="14" customWidth="1"/>
     <col min="48" max="48" width="18" style="14" customWidth="1"/>
     <col min="49" max="16384" width="13" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>11</v>
       </c>
@@ -5732,7 +5723,7 @@
       <c r="CH1" s="13"/>
       <c r="CI1" s="13"/>
     </row>
-    <row r="2" spans="1:87" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:87" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>68</v>
       </c>
@@ -5921,7 +5912,7 @@
       <c r="CH2" s="11"/>
       <c r="CI2" s="11"/>
     </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>242</v>
       </c>
@@ -5971,7 +5962,7 @@
       <c r="Q3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="13"/>
+      <c r="R3" s="20"/>
       <c r="S3" s="13" t="s">
         <v>24</v>
       </c>
@@ -5992,7 +5983,7 @@
       </c>
       <c r="Y3" s="13"/>
       <c r="Z3" s="13" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="AA3" s="13">
         <v>2</v>
@@ -6005,7 +5996,7 @@
       </c>
       <c r="AD3" s="13"/>
       <c r="AE3" s="13" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="AF3" s="13">
         <v>4.3</v>
@@ -6027,7 +6018,7 @@
       </c>
       <c r="AN3" s="13"/>
       <c r="AO3" s="13" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="AP3" s="13" t="s">
         <v>374</v>
@@ -6043,7 +6034,7 @@
       </c>
       <c r="AT3" s="13"/>
       <c r="AU3" s="13" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="AV3" s="13" t="s">
         <v>113</v>
@@ -6052,7 +6043,7 @@
         <v>209</v>
       </c>
       <c r="AX3" s="13" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="AY3" s="13"/>
       <c r="AZ3" s="13"/>
@@ -6092,7 +6083,7 @@
       <c r="CH3" s="13"/>
       <c r="CI3" s="13"/>
     </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>252</v>
       </c>
@@ -6138,7 +6129,7 @@
       <c r="Q4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="13"/>
+      <c r="R4" s="20"/>
       <c r="S4" s="13" t="s">
         <v>31</v>
       </c>
@@ -6265,7 +6256,7 @@
       <c r="CH4" s="13"/>
       <c r="CI4" s="13"/>
     </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>252</v>
       </c>
@@ -6311,7 +6302,7 @@
       <c r="Q5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="13"/>
+      <c r="R5" s="20"/>
       <c r="S5" s="13" t="s">
         <v>31</v>
       </c>
@@ -6438,7 +6429,7 @@
       <c r="CH5" s="13"/>
       <c r="CI5" s="13"/>
     </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>259</v>
       </c>
@@ -6486,7 +6477,7 @@
       <c r="Q6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="13"/>
+      <c r="R6" s="20"/>
       <c r="S6" s="13" t="s">
         <v>24</v>
       </c>
@@ -6611,7 +6602,7 @@
       <c r="CH6" s="13"/>
       <c r="CI6" s="13"/>
     </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>259</v>
       </c>
@@ -6659,7 +6650,7 @@
       <c r="Q7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="13"/>
+      <c r="R7" s="20"/>
       <c r="S7" s="13" t="s">
         <v>24</v>
       </c>
@@ -6784,7 +6775,7 @@
       <c r="CH7" s="13"/>
       <c r="CI7" s="13"/>
     </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>265</v>
       </c>
@@ -6830,7 +6821,7 @@
       <c r="Q8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="13"/>
+      <c r="R8" s="20"/>
       <c r="S8" s="13" t="s">
         <v>31</v>
       </c>
@@ -6853,7 +6844,7 @@
         <v>375</v>
       </c>
       <c r="Z8" s="13" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AA8" s="13">
         <v>2</v>
@@ -6866,10 +6857,10 @@
       </c>
       <c r="AD8" s="13"/>
       <c r="AE8" s="13" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="AF8" s="13" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AG8" s="13" t="s">
         <v>110</v>
@@ -6887,7 +6878,7 @@
         <v>148</v>
       </c>
       <c r="AL8" s="13" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AM8" s="13" t="s">
         <v>232</v>
@@ -6896,10 +6887,10 @@
         <v>160</v>
       </c>
       <c r="AO8" s="13" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AP8" s="13" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AQ8" s="13" t="s">
         <v>164</v>
@@ -6912,7 +6903,7 @@
       </c>
       <c r="AT8" s="13"/>
       <c r="AU8" s="13" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AV8" s="13" t="s">
         <v>206</v>
@@ -6921,7 +6912,7 @@
         <v>209</v>
       </c>
       <c r="AX8" s="13" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="AY8" s="13"/>
       <c r="AZ8" s="13"/>
@@ -6961,7 +6952,7 @@
       <c r="CH8" s="13"/>
       <c r="CI8" s="13"/>
     </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>265</v>
       </c>
@@ -7007,7 +6998,7 @@
       <c r="Q9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="13"/>
+      <c r="R9" s="20"/>
       <c r="S9" s="13" t="s">
         <v>31</v>
       </c>
@@ -7028,7 +7019,7 @@
       </c>
       <c r="Y9" s="13"/>
       <c r="Z9" s="13" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="AA9" s="13">
         <v>2</v>
@@ -7041,10 +7032,10 @@
       </c>
       <c r="AD9" s="13"/>
       <c r="AE9" s="13" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="AF9" s="13" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AG9" s="13" t="s">
         <v>110</v>
@@ -7062,7 +7053,7 @@
         <v>148</v>
       </c>
       <c r="AL9" s="13" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AM9" s="13" t="s">
         <v>232</v>
@@ -7071,10 +7062,10 @@
         <v>160</v>
       </c>
       <c r="AO9" s="13" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AP9" s="13" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AQ9" s="13" t="s">
         <v>164</v>
@@ -7087,7 +7078,7 @@
       </c>
       <c r="AT9" s="13"/>
       <c r="AU9" s="13" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AV9" s="13" t="s">
         <v>206</v>
@@ -7096,7 +7087,7 @@
         <v>209</v>
       </c>
       <c r="AX9" s="13" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="AY9" s="13"/>
       <c r="AZ9" s="13"/>
@@ -7136,7 +7127,7 @@
       <c r="CH9" s="13"/>
       <c r="CI9" s="13"/>
     </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>271</v>
       </c>
@@ -7182,7 +7173,7 @@
       <c r="Q10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="13"/>
+      <c r="R10" s="20"/>
       <c r="S10" s="13" t="s">
         <v>30</v>
       </c>
@@ -7203,7 +7194,7 @@
       </c>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="AA10" s="13">
         <v>2</v>
@@ -7233,7 +7224,7 @@
       </c>
       <c r="AK10" s="13"/>
       <c r="AL10" s="18" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AM10" s="13" t="s">
         <v>232</v>
@@ -7242,10 +7233,10 @@
         <v>162</v>
       </c>
       <c r="AO10" s="13" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AP10" s="13" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AQ10" s="13" t="s">
         <v>164</v>
@@ -7258,7 +7249,7 @@
       </c>
       <c r="AT10" s="13"/>
       <c r="AU10" s="13" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AV10" s="13" t="s">
         <v>199</v>
@@ -7267,7 +7258,7 @@
         <v>208</v>
       </c>
       <c r="AX10" s="13" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AY10" s="13"/>
       <c r="AZ10" s="13"/>
@@ -7307,7 +7298,7 @@
       <c r="CH10" s="13"/>
       <c r="CI10" s="13"/>
     </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>271</v>
       </c>
@@ -7353,7 +7344,7 @@
       <c r="Q11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R11" s="13"/>
+      <c r="R11" s="20"/>
       <c r="S11" s="13" t="s">
         <v>30</v>
       </c>
@@ -7374,7 +7365,7 @@
       </c>
       <c r="Y11" s="13"/>
       <c r="Z11" s="13" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="AA11" s="13">
         <v>2</v>
@@ -7404,7 +7395,7 @@
       </c>
       <c r="AK11" s="13"/>
       <c r="AL11" s="18" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AM11" s="13" t="s">
         <v>232</v>
@@ -7413,10 +7404,10 @@
         <v>162</v>
       </c>
       <c r="AO11" s="13" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AP11" s="13" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AQ11" s="13" t="s">
         <v>164</v>
@@ -7429,7 +7420,7 @@
       </c>
       <c r="AT11" s="13"/>
       <c r="AU11" s="13" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AV11" s="13" t="s">
         <v>199</v>
@@ -7438,7 +7429,7 @@
         <v>207</v>
       </c>
       <c r="AX11" s="13" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="AY11" s="13"/>
       <c r="AZ11" s="13"/>
@@ -7478,7 +7469,7 @@
       <c r="CH11" s="13"/>
       <c r="CI11" s="13"/>
     </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>277</v>
       </c>
@@ -7524,7 +7515,7 @@
       <c r="Q12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="13"/>
+      <c r="R12" s="20"/>
       <c r="S12" s="13" t="s">
         <v>31</v>
       </c>
@@ -7544,10 +7535,10 @@
         <v>113</v>
       </c>
       <c r="Y12" s="13" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Z12" s="13" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AA12" s="13">
         <v>2</v>
@@ -7577,7 +7568,7 @@
       </c>
       <c r="AK12" s="13"/>
       <c r="AL12" s="18" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AM12" s="13" t="s">
         <v>232</v>
@@ -7586,7 +7577,7 @@
         <v>162</v>
       </c>
       <c r="AO12" s="13" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="AP12" s="13" t="s">
         <v>374</v>
@@ -7602,7 +7593,7 @@
       </c>
       <c r="AT12" s="13"/>
       <c r="AU12" s="13" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="AV12" s="13" t="s">
         <v>199</v>
@@ -7611,7 +7602,7 @@
         <v>209</v>
       </c>
       <c r="AX12" s="13" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AY12" s="13"/>
       <c r="AZ12" s="13"/>
@@ -7651,7 +7642,7 @@
       <c r="CH12" s="13"/>
       <c r="CI12" s="13"/>
     </row>
-    <row r="13" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>284</v>
       </c>
@@ -7722,7 +7713,7 @@
       </c>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AA13" s="20">
         <v>2</v>
@@ -7735,7 +7726,7 @@
       </c>
       <c r="AD13" s="20"/>
       <c r="AE13" s="20" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="AF13" s="20">
         <v>4.2</v>
@@ -7756,7 +7747,7 @@
         <v>148</v>
       </c>
       <c r="AL13" s="26" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="AM13" s="20" t="s">
         <v>232</v>
@@ -7765,7 +7756,7 @@
         <v>162</v>
       </c>
       <c r="AO13" s="20" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="AP13" s="20" t="s">
         <v>374</v>
@@ -7780,10 +7771,10 @@
         <v>189</v>
       </c>
       <c r="AT13" s="20" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AU13" s="20" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="AV13" s="20" t="s">
         <v>238</v>
@@ -7792,7 +7783,7 @@
         <v>207</v>
       </c>
       <c r="AX13" s="20" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="AY13" s="20"/>
       <c r="AZ13" s="20"/>
@@ -7832,7 +7823,7 @@
       <c r="CH13" s="20"/>
       <c r="CI13" s="20"/>
     </row>
-    <row r="14" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>284</v>
       </c>
@@ -7903,7 +7894,7 @@
       </c>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AA14" s="20">
         <v>2</v>
@@ -7916,7 +7907,7 @@
       </c>
       <c r="AD14" s="20"/>
       <c r="AE14" s="20" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="AF14" s="20">
         <v>4.2</v>
@@ -7931,7 +7922,7 @@
       <c r="AJ14" s="20"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="26" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="AM14" s="20" t="s">
         <v>232</v>
@@ -7940,7 +7931,7 @@
         <v>162</v>
       </c>
       <c r="AO14" s="20" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="AP14" s="20" t="s">
         <v>374</v>
@@ -7955,10 +7946,10 @@
         <v>189</v>
       </c>
       <c r="AT14" s="20" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AU14" s="20" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="AV14" s="20" t="s">
         <v>238</v>
@@ -7967,7 +7958,7 @@
         <v>208</v>
       </c>
       <c r="AX14" s="20" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="AY14" s="20"/>
       <c r="AZ14" s="20"/>
@@ -8007,7 +7998,7 @@
       <c r="CH14" s="20"/>
       <c r="CI14" s="20"/>
     </row>
-    <row r="15" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>284</v>
       </c>
@@ -8078,7 +8069,7 @@
       </c>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AA15" s="20">
         <v>2</v>
@@ -8091,7 +8082,7 @@
       </c>
       <c r="AD15" s="20"/>
       <c r="AE15" s="20" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="AF15" s="20">
         <v>4.2</v>
@@ -8115,7 +8106,7 @@
         <v>162</v>
       </c>
       <c r="AO15" s="20" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="AP15" s="20" t="s">
         <v>374</v>
@@ -8130,10 +8121,10 @@
         <v>189</v>
       </c>
       <c r="AT15" s="20" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AU15" s="20" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="AV15" s="20" t="s">
         <v>238</v>
@@ -8142,7 +8133,7 @@
         <v>209</v>
       </c>
       <c r="AX15" s="22" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="AY15" s="20"/>
       <c r="AZ15" s="20"/>
@@ -8182,7 +8173,7 @@
       <c r="CH15" s="20"/>
       <c r="CI15" s="20"/>
     </row>
-    <row r="16" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>291</v>
       </c>
@@ -8247,7 +8238,7 @@
       </c>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20">
@@ -8258,7 +8249,7 @@
       </c>
       <c r="AD16" s="20"/>
       <c r="AE16" s="20" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AF16" s="20" t="s">
         <v>374</v>
@@ -8275,14 +8266,14 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="21" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AM16" s="20" t="s">
         <v>234</v>
       </c>
       <c r="AN16" s="20"/>
       <c r="AO16" s="20" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="AP16" s="20" t="s">
         <v>374</v>
@@ -8293,10 +8284,10 @@
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
       <c r="AT16" s="20" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="AU16" s="20" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AV16" s="20" t="s">
         <v>238</v>
@@ -8305,7 +8296,7 @@
         <v>210</v>
       </c>
       <c r="AX16" s="20" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AY16" s="20"/>
       <c r="AZ16" s="20"/>
@@ -8345,7 +8336,7 @@
       <c r="CH16" s="20"/>
       <c r="CI16" s="20"/>
     </row>
-    <row r="17" spans="1:87" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:87" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>297</v>
       </c>
@@ -8393,7 +8384,7 @@
       <c r="Q17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R17" s="13"/>
+      <c r="R17" s="20"/>
       <c r="S17" s="13" t="s">
         <v>24</v>
       </c>
@@ -8478,7 +8469,7 @@
         <v>209</v>
       </c>
       <c r="AX17" s="13" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="AY17" s="13"/>
       <c r="AZ17" s="13"/>
@@ -8518,7 +8509,7 @@
       <c r="CH17" s="13"/>
       <c r="CI17" s="13"/>
     </row>
-    <row r="18" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>304</v>
       </c>
@@ -8645,7 +8636,7 @@
       <c r="CH18" s="20"/>
       <c r="CI18" s="20"/>
     </row>
-    <row r="19" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>310</v>
       </c>
@@ -8696,59 +8687,35 @@
       <c r="R19" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="S19" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="T19" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="U19" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="V19" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="W19" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="X19" s="20" t="s">
-        <v>215</v>
-      </c>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
-      <c r="Z19" s="20" t="s">
-        <v>398</v>
-      </c>
+      <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
       <c r="AC19" s="20"/>
       <c r="AD19" s="20"/>
       <c r="AE19" s="20" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AF19" s="20">
         <v>4.5</v>
       </c>
-      <c r="AG19" s="20" t="s">
-        <v>110</v>
-      </c>
+      <c r="AG19" s="20"/>
       <c r="AH19" s="20"/>
       <c r="AI19" s="20"/>
       <c r="AJ19" s="20"/>
       <c r="AK19" s="20"/>
       <c r="AL19" s="20"/>
-      <c r="AM19" s="20" t="s">
-        <v>231</v>
-      </c>
+      <c r="AM19" s="20"/>
       <c r="AN19" s="20"/>
-      <c r="AO19" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="AP19" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="AQ19" s="20" t="s">
-        <v>150</v>
-      </c>
+      <c r="AO19" s="20"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="20"/>
       <c r="AR19" s="20"/>
       <c r="AS19" s="20"/>
       <c r="AT19" s="20"/>
@@ -8794,7 +8761,7 @@
       <c r="CH19" s="20"/>
       <c r="CI19" s="20"/>
     </row>
-    <row r="20" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>316</v>
       </c>
@@ -8864,10 +8831,10 @@
         <v>113</v>
       </c>
       <c r="Y20" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Z20" s="20" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AA20" s="20">
         <v>2</v>
@@ -8880,7 +8847,7 @@
       </c>
       <c r="AD20" s="20"/>
       <c r="AE20" s="20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AF20" s="20">
         <v>4.3</v>
@@ -8901,17 +8868,17 @@
         <v>148</v>
       </c>
       <c r="AL20" s="21" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="AM20" s="20" t="s">
         <v>233</v>
       </c>
       <c r="AN20" s="20"/>
       <c r="AO20" s="20" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="AP20" s="20" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AQ20" s="20" t="s">
         <v>164</v>
@@ -8922,7 +8889,7 @@
       <c r="AS20" s="20"/>
       <c r="AT20" s="20"/>
       <c r="AU20" s="20" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AV20" s="20" t="s">
         <v>199</v>
@@ -8931,7 +8898,7 @@
         <v>207</v>
       </c>
       <c r="AX20" s="22" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="AY20" s="20"/>
       <c r="AZ20" s="20"/>
@@ -8971,7 +8938,7 @@
       <c r="CH20" s="20"/>
       <c r="CI20" s="20"/>
     </row>
-    <row r="21" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>316</v>
       </c>
@@ -9041,10 +9008,10 @@
         <v>113</v>
       </c>
       <c r="Y21" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Z21" s="20" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AA21" s="20">
         <v>2</v>
@@ -9057,7 +9024,7 @@
       </c>
       <c r="AD21" s="20"/>
       <c r="AE21" s="20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AF21" s="20">
         <v>4.3</v>
@@ -9078,17 +9045,17 @@
         <v>148</v>
       </c>
       <c r="AL21" s="21" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="AM21" s="20" t="s">
         <v>233</v>
       </c>
       <c r="AN21" s="20"/>
       <c r="AO21" s="20" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="AP21" s="20" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AQ21" s="20" t="s">
         <v>164</v>
@@ -9099,7 +9066,7 @@
       <c r="AS21" s="20"/>
       <c r="AT21" s="20"/>
       <c r="AU21" s="20" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AV21" s="20" t="s">
         <v>199</v>
@@ -9108,7 +9075,7 @@
         <v>207</v>
       </c>
       <c r="AX21" s="22" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="AY21" s="20"/>
       <c r="AZ21" s="20"/>
@@ -9148,7 +9115,7 @@
       <c r="CH21" s="20"/>
       <c r="CI21" s="20"/>
     </row>
-    <row r="22" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>322</v>
       </c>
@@ -9199,18 +9166,10 @@
       <c r="R22" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="S22" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T22" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="U22" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="V22" s="20" t="s">
-        <v>41</v>
-      </c>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
       <c r="W22" s="20"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
@@ -9220,7 +9179,7 @@
       <c r="AC22" s="20"/>
       <c r="AD22" s="20"/>
       <c r="AE22" s="20" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AF22" s="20">
         <v>4.3</v>
@@ -9281,7 +9240,7 @@
       <c r="CH22" s="20"/>
       <c r="CI22" s="20"/>
     </row>
-    <row r="23" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>328</v>
       </c>
@@ -9344,7 +9303,7 @@
       </c>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20">
@@ -9354,10 +9313,10 @@
         <v>3</v>
       </c>
       <c r="AD23" s="13" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="AE23" s="20" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AF23" s="20" t="s">
         <v>374</v>
@@ -9374,14 +9333,14 @@
       <c r="AJ23" s="20"/>
       <c r="AK23" s="20"/>
       <c r="AL23" s="21" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AM23" s="20" t="s">
         <v>234</v>
       </c>
       <c r="AN23" s="20"/>
       <c r="AO23" s="20" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="AP23" s="20" t="s">
         <v>374</v>
@@ -9392,10 +9351,10 @@
       <c r="AR23" s="20"/>
       <c r="AS23" s="20"/>
       <c r="AT23" s="20" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AU23" s="20" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AV23" s="20" t="s">
         <v>212</v>
@@ -9404,7 +9363,7 @@
         <v>210</v>
       </c>
       <c r="AX23" s="20" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AY23" s="20"/>
       <c r="AZ23" s="20"/>
@@ -9444,7 +9403,7 @@
       <c r="CH23" s="20"/>
       <c r="CI23" s="20"/>
     </row>
-    <row r="24" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>328</v>
       </c>
@@ -9507,7 +9466,7 @@
       </c>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20">
@@ -9517,10 +9476,10 @@
         <v>3</v>
       </c>
       <c r="AD24" s="20" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="AE24" s="20" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AF24" s="20" t="s">
         <v>374</v>
@@ -9537,14 +9496,14 @@
       <c r="AJ24" s="20"/>
       <c r="AK24" s="20"/>
       <c r="AL24" s="21" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AM24" s="20" t="s">
         <v>234</v>
       </c>
       <c r="AN24" s="20"/>
       <c r="AO24" s="20" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="AP24" s="20" t="s">
         <v>374</v>
@@ -9555,10 +9514,10 @@
       <c r="AR24" s="20"/>
       <c r="AS24" s="20"/>
       <c r="AT24" s="20" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AU24" s="20" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AV24" s="20" t="s">
         <v>212</v>
@@ -9567,7 +9526,7 @@
         <v>210</v>
       </c>
       <c r="AX24" s="20" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AY24" s="20"/>
       <c r="AZ24" s="20"/>
@@ -9607,7 +9566,7 @@
       <c r="CH24" s="20"/>
       <c r="CI24" s="20"/>
     </row>
-    <row r="25" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>328</v>
       </c>
@@ -9670,7 +9629,7 @@
       </c>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AA25" s="20"/>
       <c r="AB25" s="20">
@@ -9680,10 +9639,10 @@
         <v>3</v>
       </c>
       <c r="AD25" s="20" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="AE25" s="20" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AF25" s="20" t="s">
         <v>374</v>
@@ -9700,14 +9659,14 @@
       <c r="AJ25" s="20"/>
       <c r="AK25" s="20"/>
       <c r="AL25" s="21" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="AM25" s="20" t="s">
         <v>234</v>
       </c>
       <c r="AN25" s="20"/>
       <c r="AO25" s="20" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="AP25" s="20" t="s">
         <v>374</v>
@@ -9718,10 +9677,10 @@
       <c r="AR25" s="20"/>
       <c r="AS25" s="20"/>
       <c r="AT25" s="20" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AU25" s="20" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AV25" s="20" t="s">
         <v>212</v>
@@ -9730,7 +9689,7 @@
         <v>210</v>
       </c>
       <c r="AX25" s="20" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AY25" s="20"/>
       <c r="AZ25" s="20"/>
@@ -9770,7 +9729,7 @@
       <c r="CH25" s="20"/>
       <c r="CI25" s="20"/>
     </row>
-    <row r="26" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>334</v>
       </c>
@@ -9836,10 +9795,10 @@
         <v>113</v>
       </c>
       <c r="Y26" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Z26" s="20" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AA26" s="20">
         <v>2</v>
@@ -9852,7 +9811,7 @@
       </c>
       <c r="AD26" s="20"/>
       <c r="AE26" s="20" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="AF26" s="20">
         <v>4.3</v>
@@ -9878,7 +9837,7 @@
       </c>
       <c r="AN26" s="20"/>
       <c r="AO26" s="20" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="AP26" s="20" t="s">
         <v>374</v>
@@ -9890,7 +9849,7 @@
       <c r="AS26" s="20"/>
       <c r="AT26" s="20"/>
       <c r="AU26" s="20" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="AV26" s="20" t="s">
         <v>113</v>
@@ -9899,7 +9858,7 @@
         <v>208</v>
       </c>
       <c r="AX26" s="20" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="AY26" s="20"/>
       <c r="AZ26" s="20"/>
@@ -9939,7 +9898,7 @@
       <c r="CH26" s="20"/>
       <c r="CI26" s="20"/>
     </row>
-    <row r="27" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>334</v>
       </c>
@@ -10005,10 +9964,10 @@
         <v>113</v>
       </c>
       <c r="Y27" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Z27" s="20" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AA27" s="20">
         <v>2</v>
@@ -10021,7 +9980,7 @@
       </c>
       <c r="AD27" s="20"/>
       <c r="AE27" s="20" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="AF27" s="20">
         <v>4.3</v>
@@ -10047,7 +10006,7 @@
       </c>
       <c r="AN27" s="20"/>
       <c r="AO27" s="20" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="AP27" s="20" t="s">
         <v>374</v>
@@ -10059,7 +10018,7 @@
       <c r="AS27" s="20"/>
       <c r="AT27" s="20"/>
       <c r="AU27" s="20" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="AV27" s="20" t="s">
         <v>113</v>
@@ -10068,7 +10027,7 @@
         <v>207</v>
       </c>
       <c r="AX27" s="22" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="AY27" s="20"/>
       <c r="AZ27" s="20"/>
@@ -10108,7 +10067,7 @@
       <c r="CH27" s="20"/>
       <c r="CI27" s="20"/>
     </row>
-    <row r="28" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>334</v>
       </c>
@@ -10174,10 +10133,10 @@
         <v>113</v>
       </c>
       <c r="Y28" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Z28" s="20" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AA28" s="20">
         <v>2</v>
@@ -10190,7 +10149,7 @@
       </c>
       <c r="AD28" s="20"/>
       <c r="AE28" s="20" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="AF28" s="20">
         <v>4.3</v>
@@ -10216,7 +10175,7 @@
       </c>
       <c r="AN28" s="20"/>
       <c r="AO28" s="20" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="AP28" s="20" t="s">
         <v>374</v>
@@ -10230,7 +10189,7 @@
       <c r="AS28" s="20"/>
       <c r="AT28" s="20"/>
       <c r="AU28" s="20" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="AV28" s="20" t="s">
         <v>113</v>
@@ -10239,7 +10198,7 @@
         <v>208</v>
       </c>
       <c r="AX28" s="22" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="AY28" s="20"/>
       <c r="AZ28" s="20"/>
@@ -10279,7 +10238,7 @@
       <c r="CH28" s="20"/>
       <c r="CI28" s="20"/>
     </row>
-    <row r="29" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>334</v>
       </c>
@@ -10345,10 +10304,10 @@
         <v>113</v>
       </c>
       <c r="Y29" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Z29" s="20" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AA29" s="20">
         <v>2</v>
@@ -10361,7 +10320,7 @@
       </c>
       <c r="AD29" s="20"/>
       <c r="AE29" s="20" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="AF29" s="20">
         <v>4.3</v>
@@ -10383,7 +10342,7 @@
       </c>
       <c r="AN29" s="20"/>
       <c r="AO29" s="20" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="AP29" s="20" t="s">
         <v>374</v>
@@ -10397,7 +10356,7 @@
       <c r="AS29" s="20"/>
       <c r="AT29" s="20"/>
       <c r="AU29" s="20" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="AV29" s="20" t="s">
         <v>113</v>
@@ -10406,7 +10365,7 @@
         <v>208</v>
       </c>
       <c r="AX29" s="22" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="AY29" s="20"/>
       <c r="AZ29" s="20"/>
@@ -10446,7 +10405,7 @@
       <c r="CH29" s="20"/>
       <c r="CI29" s="20"/>
     </row>
-    <row r="30" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>339</v>
       </c>
@@ -10497,74 +10456,40 @@
       <c r="R30" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="S30" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T30" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="U30" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="V30" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="W30" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="X30" s="20" t="s">
-        <v>215</v>
-      </c>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
-      <c r="Z30" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="AA30" s="20">
-        <v>2</v>
-      </c>
-      <c r="AB30" s="20">
-        <v>2</v>
-      </c>
-      <c r="AC30" s="20">
-        <v>3</v>
-      </c>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
       <c r="AD30" s="20"/>
       <c r="AE30" s="20" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AF30" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG30" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH30" s="20" t="s">
-        <v>220</v>
-      </c>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="20"/>
       <c r="AI30" s="20"/>
       <c r="AJ30" s="20"/>
       <c r="AK30" s="20"/>
-      <c r="AL30" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="AM30" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN30" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="AL30" s="20"/>
+      <c r="AM30" s="20"/>
+      <c r="AN30" s="20"/>
       <c r="AO30" s="20"/>
       <c r="AP30" s="20"/>
       <c r="AQ30" s="20"/>
       <c r="AR30" s="20"/>
       <c r="AS30" s="20"/>
       <c r="AT30" s="20"/>
-      <c r="AU30" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="AV30" s="20" t="s">
-        <v>206</v>
-      </c>
+      <c r="AU30" s="20"/>
+      <c r="AV30" s="20"/>
       <c r="AW30" s="20"/>
       <c r="AX30" s="20"/>
       <c r="AY30" s="20"/>
@@ -10605,7 +10530,7 @@
       <c r="CH30" s="20"/>
       <c r="CI30" s="20"/>
     </row>
-    <row r="31" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>345</v>
       </c>
@@ -10658,16 +10583,12 @@
       <c r="R31" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="S31" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="S31" s="20"/>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
       <c r="V31" s="20"/>
       <c r="W31" s="20"/>
-      <c r="X31" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
@@ -10675,7 +10596,7 @@
       <c r="AC31" s="20"/>
       <c r="AD31" s="20"/>
       <c r="AE31" s="20" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AF31" s="20" t="s">
         <v>374</v>
@@ -10736,7 +10657,7 @@
       <c r="CH31" s="20"/>
       <c r="CI31" s="20"/>
     </row>
-    <row r="32" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>350</v>
       </c>
@@ -10804,10 +10725,10 @@
         <v>113</v>
       </c>
       <c r="Y32" s="20" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Z32" s="20" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AA32" s="20">
         <v>2</v>
@@ -10820,7 +10741,7 @@
       </c>
       <c r="AD32" s="20"/>
       <c r="AE32" s="20" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AF32" s="20" t="s">
         <v>374</v>
@@ -10837,7 +10758,7 @@
       <c r="AJ32" s="20"/>
       <c r="AK32" s="20"/>
       <c r="AL32" s="21" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AM32" s="20" t="s">
         <v>232</v>
@@ -10846,10 +10767,10 @@
         <v>160</v>
       </c>
       <c r="AO32" s="20" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AP32" s="20" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="AQ32" s="20" t="s">
         <v>165</v>
@@ -10862,7 +10783,7 @@
       </c>
       <c r="AT32" s="20"/>
       <c r="AU32" s="20" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="AV32" s="20" t="s">
         <v>212</v>
@@ -10871,7 +10792,7 @@
         <v>209</v>
       </c>
       <c r="AX32" s="20" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="AY32" s="20"/>
       <c r="AZ32" s="20"/>
@@ -10911,7 +10832,7 @@
       <c r="CH32" s="20"/>
       <c r="CI32" s="20"/>
     </row>
-    <row r="33" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>356</v>
       </c>
@@ -10977,10 +10898,10 @@
         <v>113</v>
       </c>
       <c r="Y33" s="20" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="Z33" s="20" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AA33" s="20">
         <v>2</v>
@@ -10993,7 +10914,7 @@
       </c>
       <c r="AD33" s="20"/>
       <c r="AE33" s="20" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AF33" s="20">
         <v>4.3</v>
@@ -11015,10 +10936,10 @@
       </c>
       <c r="AN33" s="20"/>
       <c r="AO33" s="20" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AP33" s="20" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AQ33" s="20" t="s">
         <v>164</v>
@@ -11031,7 +10952,7 @@
       </c>
       <c r="AT33" s="20"/>
       <c r="AU33" s="20" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AV33" s="20" t="s">
         <v>113</v>
@@ -11040,7 +10961,7 @@
         <v>210</v>
       </c>
       <c r="AX33" s="20" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AY33" s="20"/>
       <c r="AZ33" s="20"/>
@@ -11080,7 +11001,7 @@
       <c r="CH33" s="20"/>
       <c r="CI33" s="20"/>
     </row>
-    <row r="34" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>356</v>
       </c>
@@ -11126,7 +11047,7 @@
       <c r="Q34" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R34" s="13"/>
+      <c r="R34" s="20"/>
       <c r="S34" s="13" t="s">
         <v>25</v>
       </c>
@@ -11146,10 +11067,10 @@
         <v>113</v>
       </c>
       <c r="Y34" s="13" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="Z34" s="13" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AA34" s="13">
         <v>2</v>
@@ -11162,7 +11083,7 @@
       </c>
       <c r="AD34" s="13"/>
       <c r="AE34" s="13" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AF34" s="13">
         <v>4.3</v>
@@ -11184,10 +11105,10 @@
       </c>
       <c r="AN34" s="13"/>
       <c r="AO34" s="13" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AP34" s="13" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AQ34" s="13" t="s">
         <v>164</v>
@@ -11200,7 +11121,7 @@
       </c>
       <c r="AT34" s="13"/>
       <c r="AU34" s="13" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AV34" s="13" t="s">
         <v>113</v>
@@ -11209,7 +11130,7 @@
         <v>210</v>
       </c>
       <c r="AX34" s="13" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AY34" s="13"/>
       <c r="AZ34" s="13"/>
@@ -11249,7 +11170,7 @@
       <c r="CH34" s="13"/>
       <c r="CI34" s="13"/>
     </row>
-    <row r="35" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>361</v>
       </c>
@@ -11315,10 +11236,10 @@
         <v>113</v>
       </c>
       <c r="Y35" s="20" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="Z35" s="20" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AA35" s="20">
         <v>2</v>
@@ -11330,7 +11251,7 @@
         <v>3</v>
       </c>
       <c r="AD35" s="20" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="AE35" s="20"/>
       <c r="AF35" s="20">
@@ -11346,14 +11267,14 @@
       <c r="AJ35" s="20"/>
       <c r="AK35" s="20"/>
       <c r="AL35" s="21" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AM35" s="20" t="s">
         <v>159</v>
       </c>
       <c r="AN35" s="20"/>
       <c r="AO35" s="20" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AP35" s="20" t="s">
         <v>374</v>
@@ -11367,7 +11288,7 @@
       <c r="AS35" s="20"/>
       <c r="AT35" s="20"/>
       <c r="AU35" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AV35" s="20" t="s">
         <v>199</v>
@@ -11376,7 +11297,7 @@
         <v>207</v>
       </c>
       <c r="AX35" s="20" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="AY35" s="20"/>
       <c r="AZ35" s="20"/>
@@ -11416,7 +11337,7 @@
       <c r="CH35" s="20"/>
       <c r="CI35" s="20"/>
     </row>
-    <row r="36" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>361</v>
       </c>
@@ -11462,7 +11383,7 @@
       <c r="Q36" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R36" s="13"/>
+      <c r="R36" s="20"/>
       <c r="S36" s="13" t="s">
         <v>31</v>
       </c>
@@ -11482,10 +11403,10 @@
         <v>113</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AA36" s="13">
         <v>2</v>
@@ -11497,7 +11418,7 @@
         <v>3</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="AE36" s="13"/>
       <c r="AF36" s="13">
@@ -11513,14 +11434,14 @@
       <c r="AJ36" s="13"/>
       <c r="AK36" s="13"/>
       <c r="AL36" s="18" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AM36" s="13" t="s">
         <v>159</v>
       </c>
       <c r="AN36" s="13"/>
       <c r="AO36" s="13" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AP36" s="13" t="s">
         <v>374</v>
@@ -11534,7 +11455,7 @@
       <c r="AS36" s="13"/>
       <c r="AT36" s="13"/>
       <c r="AU36" s="13" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AV36" s="13" t="s">
         <v>199</v>
@@ -11543,7 +11464,7 @@
         <v>207</v>
       </c>
       <c r="AX36" s="13" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="AY36" s="13"/>
       <c r="AZ36" s="13"/>
@@ -11583,7 +11504,7 @@
       <c r="CH36" s="13"/>
       <c r="CI36" s="13"/>
     </row>
-    <row r="37" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>366</v>
       </c>
@@ -11645,7 +11566,7 @@
       <c r="AC37" s="20"/>
       <c r="AD37" s="20"/>
       <c r="AE37" s="20" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="AF37" s="20">
         <v>4.2</v>
@@ -11706,24 +11627,24 @@
       <c r="CH37" s="20"/>
       <c r="CI37" s="20"/>
     </row>
-    <row r="38" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E38" s="20">
         <v>2012</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
@@ -11734,17 +11655,17 @@
         <v>829</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="L38" s="20"/>
       <c r="M38" s="20" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="N38" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="P38" s="20"/>
       <c r="Q38" s="20" t="s">
@@ -11753,9 +11674,7 @@
       <c r="R38" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="S38" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="S38" s="20"/>
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
       <c r="V38" s="20"/>
@@ -11768,7 +11687,7 @@
       <c r="AC38" s="20"/>
       <c r="AD38" s="20"/>
       <c r="AE38" s="20" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="AF38" s="20" t="s">
         <v>373</v>
@@ -11829,18 +11748,18 @@
       <c r="CH38" s="20"/>
       <c r="CI38" s="20"/>
     </row>
-    <row r="39" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="E39" s="20">
         <v>2010</v>
@@ -11861,11 +11780,11 @@
         <v>2440</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="L39" s="20"/>
       <c r="M39" s="20" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="N39" s="20" t="s">
         <v>249</v>
@@ -11898,7 +11817,7 @@
       </c>
       <c r="Y39" s="20"/>
       <c r="Z39" s="20" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="AA39" s="20">
         <v>2</v>
@@ -11924,7 +11843,7 @@
       <c r="AJ39" s="20"/>
       <c r="AK39" s="20"/>
       <c r="AL39" s="20" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="AM39" s="20" t="s">
         <v>232</v>
@@ -11933,7 +11852,7 @@
         <v>160</v>
       </c>
       <c r="AO39" s="20" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="AP39" s="20" t="s">
         <v>374</v>
@@ -11949,7 +11868,7 @@
       </c>
       <c r="AT39" s="20"/>
       <c r="AU39" s="20" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="AV39" s="20" t="s">
         <v>203</v>
@@ -11958,7 +11877,7 @@
         <v>209</v>
       </c>
       <c r="AX39" s="22" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="AY39" s="20"/>
       <c r="AZ39" s="20"/>
@@ -11998,24 +11917,24 @@
       <c r="CH39" s="20"/>
       <c r="CI39" s="20"/>
     </row>
-    <row r="40" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="E40" s="20">
         <v>2010</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="G40" s="20">
         <v>157</v>
@@ -12030,11 +11949,11 @@
         <v>2381</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L40" s="20"/>
       <c r="M40" s="20" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="N40" s="20" t="s">
         <v>249</v>
@@ -12067,7 +11986,7 @@
       </c>
       <c r="Y40" s="20"/>
       <c r="Z40" s="20" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="AA40" s="20">
         <v>2</v>
@@ -12079,7 +11998,7 @@
         <v>3</v>
       </c>
       <c r="AD40" s="22" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="AE40" s="20"/>
       <c r="AF40" s="20">
@@ -12097,17 +12016,17 @@
       <c r="AJ40" s="20"/>
       <c r="AK40" s="20"/>
       <c r="AL40" s="24" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AM40" s="20" t="s">
         <v>233</v>
       </c>
       <c r="AN40" s="20"/>
       <c r="AO40" s="20" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="AP40" s="20" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="AQ40" s="20" t="s">
         <v>164</v>
@@ -12120,7 +12039,7 @@
       </c>
       <c r="AT40" s="20"/>
       <c r="AU40" s="20" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="AV40" s="20" t="s">
         <v>200</v>
@@ -12129,7 +12048,7 @@
         <v>209</v>
       </c>
       <c r="AX40" s="22" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="AY40" s="20"/>
       <c r="AZ40" s="20"/>
@@ -12169,24 +12088,24 @@
       <c r="CH40" s="20"/>
       <c r="CI40" s="20"/>
     </row>
-    <row r="41" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="E41" s="20">
         <v>2010</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="G41" s="20">
         <v>157</v>
@@ -12201,11 +12120,11 @@
         <v>2381</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L41" s="20"/>
       <c r="M41" s="20" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="N41" s="20" t="s">
         <v>249</v>
@@ -12238,7 +12157,7 @@
       </c>
       <c r="Y41" s="20"/>
       <c r="Z41" s="20" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="AA41" s="20">
         <v>2</v>
@@ -12250,7 +12169,7 @@
         <v>3</v>
       </c>
       <c r="AD41" s="22" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="AE41" s="20"/>
       <c r="AF41" s="20">
@@ -12268,17 +12187,17 @@
       <c r="AJ41" s="20"/>
       <c r="AK41" s="20"/>
       <c r="AL41" s="24" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AM41" s="20" t="s">
         <v>233</v>
       </c>
       <c r="AN41" s="20"/>
       <c r="AO41" s="20" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="AP41" s="20" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="AQ41" s="20" t="s">
         <v>164</v>
@@ -12291,7 +12210,7 @@
       </c>
       <c r="AT41" s="20"/>
       <c r="AU41" s="20" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="AV41" s="20" t="s">
         <v>200</v>
@@ -12300,7 +12219,7 @@
         <v>209</v>
       </c>
       <c r="AX41" s="22" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="AY41" s="20"/>
       <c r="AZ41" s="20"/>
@@ -12340,18 +12259,18 @@
       <c r="CH41" s="20"/>
       <c r="CI41" s="20"/>
     </row>
-    <row r="42" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E42" s="20">
         <v>2010</v>
@@ -12372,11 +12291,11 @@
         <v>417</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="L42" s="20"/>
       <c r="M42" s="20" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="N42" s="20" t="s">
         <v>249</v>
@@ -12408,10 +12327,10 @@
         <v>75</v>
       </c>
       <c r="Y42" s="20" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="Z42" s="20" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="AA42" s="20">
         <v>2</v>
@@ -12437,14 +12356,14 @@
       <c r="AJ42" s="20"/>
       <c r="AK42" s="20"/>
       <c r="AL42" s="21" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AM42" s="20" t="s">
         <v>233</v>
       </c>
       <c r="AN42" s="20"/>
       <c r="AO42" s="20" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="AP42" s="20" t="s">
         <v>374</v>
@@ -12458,7 +12377,7 @@
       <c r="AS42" s="20"/>
       <c r="AT42" s="20"/>
       <c r="AU42" s="20" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="AV42" s="20" t="s">
         <v>203</v>
@@ -12467,7 +12386,7 @@
         <v>209</v>
       </c>
       <c r="AX42" s="22" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="AY42" s="20"/>
       <c r="AZ42" s="20"/>
@@ -12507,18 +12426,18 @@
       <c r="CH42" s="20"/>
       <c r="CI42" s="20"/>
     </row>
-    <row r="43" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E43" s="20">
         <v>2010</v>
@@ -12539,11 +12458,11 @@
         <v>417</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="L43" s="20"/>
       <c r="M43" s="20" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="N43" s="20" t="s">
         <v>249</v>
@@ -12575,10 +12494,10 @@
         <v>75</v>
       </c>
       <c r="Y43" s="20" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="Z43" s="20" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="AA43" s="20">
         <v>2</v>
@@ -12606,14 +12525,14 @@
       <c r="AJ43" s="20"/>
       <c r="AK43" s="20"/>
       <c r="AL43" s="21" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AM43" s="20" t="s">
         <v>233</v>
       </c>
       <c r="AN43" s="20"/>
       <c r="AO43" s="20" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="AP43" s="20" t="s">
         <v>374</v>
@@ -12627,7 +12546,7 @@
       <c r="AS43" s="20"/>
       <c r="AT43" s="20"/>
       <c r="AU43" s="20" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="AV43" s="20" t="s">
         <v>203</v>
@@ -12636,7 +12555,7 @@
         <v>209</v>
       </c>
       <c r="AX43" s="22" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="AY43" s="20"/>
       <c r="AZ43" s="20"/>
@@ -12676,18 +12595,18 @@
       <c r="CH43" s="20"/>
       <c r="CI43" s="20"/>
     </row>
-    <row r="44" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E44" s="20">
         <v>2008</v>
@@ -12708,11 +12627,11 @@
         <v>1183</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="L44" s="20"/>
       <c r="M44" s="20" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="N44" s="20" t="s">
         <v>249</v>
@@ -12721,7 +12640,7 @@
         <v>250</v>
       </c>
       <c r="P44" s="20" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="Q44" s="20" t="s">
         <v>21</v>
@@ -12747,7 +12666,7 @@
       </c>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="AA44" s="20">
         <v>2</v>
@@ -12775,7 +12694,7 @@
       <c r="AJ44" s="20"/>
       <c r="AK44" s="20"/>
       <c r="AL44" s="24" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AM44" s="20" t="s">
         <v>232</v>
@@ -12784,10 +12703,10 @@
         <v>160</v>
       </c>
       <c r="AO44" s="20" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="AP44" s="20" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AQ44" s="20" t="s">
         <v>164</v>
@@ -12798,7 +12717,7 @@
       <c r="AS44" s="20"/>
       <c r="AT44" s="20"/>
       <c r="AU44" s="20" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="AV44" s="20" t="s">
         <v>199</v>
@@ -12807,7 +12726,7 @@
         <v>208</v>
       </c>
       <c r="AX44" s="22" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="AY44" s="20"/>
       <c r="AZ44" s="20"/>
@@ -12847,24 +12766,24 @@
       <c r="CH44" s="20"/>
       <c r="CI44" s="20"/>
     </row>
-    <row r="45" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E45" s="20">
         <v>2008</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G45" s="20">
         <v>72</v>
@@ -12879,11 +12798,11 @@
         <v>16</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="20" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N45" s="20" t="s">
         <v>249</v>
@@ -12915,7 +12834,7 @@
         <v>215</v>
       </c>
       <c r="Z45" s="20" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="AA45" s="20">
         <v>1</v>
@@ -12928,7 +12847,7 @@
       </c>
       <c r="AD45" s="20"/>
       <c r="AE45" s="20" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="AF45" s="20">
         <v>4.3</v>
@@ -12947,14 +12866,14 @@
         <v>148</v>
       </c>
       <c r="AL45" s="20" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="AM45" s="20" t="s">
         <v>233</v>
       </c>
       <c r="AN45" s="20"/>
       <c r="AO45" s="20" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="AP45" s="20" t="s">
         <v>374</v>
@@ -12970,7 +12889,7 @@
       </c>
       <c r="AT45" s="20"/>
       <c r="AU45" s="20" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="AV45" s="20" t="s">
         <v>199</v>
@@ -12979,7 +12898,7 @@
         <v>209</v>
       </c>
       <c r="AX45" s="22" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="AY45" s="20"/>
       <c r="AZ45" s="20"/>
@@ -13019,18 +12938,18 @@
       <c r="CH45" s="20"/>
       <c r="CI45" s="20"/>
     </row>
-    <row r="46" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="E46" s="20">
         <v>2008</v>
@@ -13051,11 +12970,11 @@
         <v>611</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="L46" s="20"/>
       <c r="M46" s="20" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="N46" s="20" t="s">
         <v>249</v>
@@ -13064,7 +12983,7 @@
         <v>250</v>
       </c>
       <c r="P46" s="20" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="Q46" s="20" t="s">
         <v>21</v>
@@ -13085,7 +13004,7 @@
       <c r="AC46" s="20"/>
       <c r="AD46" s="20"/>
       <c r="AE46" s="20" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="AF46" s="20" t="s">
         <v>374</v>
@@ -13146,18 +13065,18 @@
       <c r="CH46" s="20"/>
       <c r="CI46" s="20"/>
     </row>
-    <row r="47" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E47" s="20">
         <v>2008</v>
@@ -13176,11 +13095,11 @@
         <v>147</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="L47" s="20"/>
       <c r="M47" s="20" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="N47" s="20" t="s">
         <v>249</v>
@@ -13189,7 +13108,7 @@
         <v>250</v>
       </c>
       <c r="P47" s="20" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="Q47" s="20" t="s">
         <v>21</v>
@@ -13215,7 +13134,7 @@
       </c>
       <c r="Y47" s="20"/>
       <c r="Z47" s="22" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="AA47" s="20">
         <v>2</v>
@@ -13241,7 +13160,7 @@
       <c r="AJ47" s="20"/>
       <c r="AK47" s="20"/>
       <c r="AL47" s="20" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="AM47" s="20" t="s">
         <v>232</v>
@@ -13250,7 +13169,7 @@
         <v>160</v>
       </c>
       <c r="AO47" s="20" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="AP47" s="20" t="s">
         <v>374</v>
@@ -13263,10 +13182,10 @@
       </c>
       <c r="AS47" s="20"/>
       <c r="AT47" s="20" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="AU47" s="20" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="AV47" s="20" t="s">
         <v>199</v>
@@ -13275,7 +13194,7 @@
         <v>209</v>
       </c>
       <c r="AX47" s="22" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="AY47" s="20"/>
       <c r="AZ47" s="20"/>
@@ -13315,24 +13234,24 @@
       <c r="CH47" s="20"/>
       <c r="CI47" s="20"/>
     </row>
-    <row r="48" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E48" s="20">
         <v>2005</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G48" s="20">
         <v>93</v>
@@ -13349,7 +13268,7 @@
       <c r="K48" s="20"/>
       <c r="L48" s="20"/>
       <c r="M48" s="20" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="N48" s="20" t="s">
         <v>249</v>
@@ -13382,7 +13301,7 @@
       </c>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="AA48" s="20">
         <v>2</v>
@@ -13408,7 +13327,7 @@
       <c r="AJ48" s="20"/>
       <c r="AK48" s="20"/>
       <c r="AL48" s="21" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="AM48" s="20" t="s">
         <v>232</v>
@@ -13417,10 +13336,10 @@
         <v>160</v>
       </c>
       <c r="AO48" s="20" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="AP48" s="20" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="AQ48" s="20" t="s">
         <v>164</v>
@@ -13432,10 +13351,10 @@
         <v>179</v>
       </c>
       <c r="AT48" s="20" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="AU48" s="20" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="AV48" s="20" t="s">
         <v>237</v>
@@ -13444,7 +13363,7 @@
         <v>210</v>
       </c>
       <c r="AX48" s="20" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="AY48" s="20"/>
       <c r="AZ48" s="20"/>
@@ -13484,24 +13403,24 @@
       <c r="CH48" s="20"/>
       <c r="CI48" s="20"/>
     </row>
-    <row r="49" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E49" s="20">
         <v>2005</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G49" s="20">
         <v>93</v>
@@ -13518,7 +13437,7 @@
       <c r="K49" s="20"/>
       <c r="L49" s="20"/>
       <c r="M49" s="20" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="N49" s="20" t="s">
         <v>249</v>
@@ -13551,7 +13470,7 @@
       </c>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="AA49" s="20">
         <v>2</v>
@@ -13577,7 +13496,7 @@
       <c r="AJ49" s="20"/>
       <c r="AK49" s="20"/>
       <c r="AL49" s="21" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="AM49" s="20" t="s">
         <v>232</v>
@@ -13586,10 +13505,10 @@
         <v>160</v>
       </c>
       <c r="AO49" s="20" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="AP49" s="20" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="AQ49" s="20" t="s">
         <v>164</v>
@@ -13601,10 +13520,10 @@
         <v>179</v>
       </c>
       <c r="AT49" s="20" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="AU49" s="20" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="AV49" s="20" t="s">
         <v>199</v>
@@ -13613,7 +13532,7 @@
         <v>207</v>
       </c>
       <c r="AX49" s="20" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="AY49" s="20"/>
       <c r="AZ49" s="20"/>
@@ -13653,24 +13572,24 @@
       <c r="CH49" s="20"/>
       <c r="CI49" s="20"/>
     </row>
-    <row r="50" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E50" s="20">
         <v>2005</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="G50" s="20">
         <v>85</v>
@@ -13685,11 +13604,11 @@
         <v>1150</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="L50" s="20"/>
       <c r="M50" s="20" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="N50" s="20" t="s">
         <v>249</v>
@@ -13722,7 +13641,7 @@
       </c>
       <c r="Y50" s="20"/>
       <c r="Z50" s="22" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="AA50" s="20">
         <v>2</v>
@@ -13750,14 +13669,14 @@
       <c r="AJ50" s="20"/>
       <c r="AK50" s="20"/>
       <c r="AL50" s="24" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="AM50" s="20" t="s">
         <v>232</v>
       </c>
       <c r="AN50" s="20"/>
       <c r="AO50" s="20" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="AP50" s="20" t="s">
         <v>374</v>
@@ -13773,7 +13692,7 @@
       </c>
       <c r="AT50" s="20"/>
       <c r="AU50" s="20" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="AV50" s="20" t="s">
         <v>237</v>
@@ -13782,7 +13701,7 @@
         <v>209</v>
       </c>
       <c r="AX50" s="22" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="AY50" s="20"/>
       <c r="AZ50" s="20"/>
@@ -13822,24 +13741,24 @@
       <c r="CH50" s="20"/>
       <c r="CI50" s="20"/>
     </row>
-    <row r="51" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E51" s="20">
         <v>2005</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="G51" s="20">
         <v>85</v>
@@ -13854,11 +13773,11 @@
         <v>1150</v>
       </c>
       <c r="K51" s="20" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="L51" s="20"/>
       <c r="M51" s="20" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="N51" s="20" t="s">
         <v>249</v>
@@ -13891,7 +13810,7 @@
       </c>
       <c r="Y51" s="20"/>
       <c r="Z51" s="22" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="AA51" s="20">
         <v>2</v>
@@ -13919,14 +13838,14 @@
       <c r="AJ51" s="20"/>
       <c r="AK51" s="20"/>
       <c r="AL51" s="24" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="AM51" s="20" t="s">
         <v>232</v>
       </c>
       <c r="AN51" s="20"/>
       <c r="AO51" s="20" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="AP51" s="20" t="s">
         <v>374</v>
@@ -13942,7 +13861,7 @@
       </c>
       <c r="AT51" s="20"/>
       <c r="AU51" s="20" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="AV51" s="20" t="s">
         <v>237</v>
@@ -13951,7 +13870,7 @@
         <v>210</v>
       </c>
       <c r="AX51" s="22" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="AY51" s="20"/>
       <c r="AZ51" s="20"/>
@@ -13991,18 +13910,18 @@
       <c r="CH51" s="20"/>
       <c r="CI51" s="20"/>
     </row>
-    <row r="52" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E52" s="20">
         <v>2005</v>
@@ -14023,11 +13942,11 @@
         <v>38</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="L52" s="20"/>
       <c r="M52" s="20" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="N52" s="20" t="s">
         <v>249</v>
@@ -14060,7 +13979,7 @@
       </c>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="AA52" s="20">
         <v>2</v>
@@ -14090,7 +14009,7 @@
       </c>
       <c r="AK52" s="20"/>
       <c r="AL52" s="24" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="AM52" s="20" t="s">
         <v>232</v>
@@ -14099,10 +14018,10 @@
         <v>160</v>
       </c>
       <c r="AO52" s="20" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="AP52" s="20" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="AQ52" s="20" t="s">
         <v>164</v>
@@ -14115,7 +14034,7 @@
       </c>
       <c r="AT52" s="20"/>
       <c r="AU52" s="20" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="AV52" s="20" t="s">
         <v>199</v>
@@ -14124,7 +14043,7 @@
         <v>209</v>
       </c>
       <c r="AX52" s="22" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="AY52" s="20"/>
       <c r="AZ52" s="20"/>
@@ -14164,18 +14083,18 @@
       <c r="CH52" s="20"/>
       <c r="CI52" s="20"/>
     </row>
-    <row r="53" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E53" s="20">
         <v>2005</v>
@@ -14196,11 +14115,11 @@
         <v>38</v>
       </c>
       <c r="K53" s="20" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="L53" s="20"/>
       <c r="M53" s="20" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="N53" s="20" t="s">
         <v>249</v>
@@ -14233,7 +14152,7 @@
       </c>
       <c r="Y53" s="20"/>
       <c r="Z53" s="20" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="AA53" s="20">
         <v>2</v>
@@ -14263,7 +14182,7 @@
       </c>
       <c r="AK53" s="20"/>
       <c r="AL53" s="24" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="AM53" s="20" t="s">
         <v>232</v>
@@ -14272,10 +14191,10 @@
         <v>160</v>
       </c>
       <c r="AO53" s="20" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="AP53" s="20" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="AQ53" s="20" t="s">
         <v>164</v>
@@ -14288,7 +14207,7 @@
       </c>
       <c r="AT53" s="20"/>
       <c r="AU53" s="20" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="AV53" s="20" t="s">
         <v>200</v>
@@ -14297,7 +14216,7 @@
         <v>209</v>
       </c>
       <c r="AX53" s="22" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="AY53" s="20"/>
       <c r="AZ53" s="20"/>
@@ -14337,18 +14256,18 @@
       <c r="CH53" s="20"/>
       <c r="CI53" s="20"/>
     </row>
-    <row r="54" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E54" s="20">
         <v>2005</v>
@@ -14369,11 +14288,11 @@
         <v>38</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="L54" s="20"/>
       <c r="M54" s="20" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="N54" s="20" t="s">
         <v>249</v>
@@ -14406,7 +14325,7 @@
       </c>
       <c r="Y54" s="20"/>
       <c r="Z54" s="20" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="AA54" s="20">
         <v>2</v>
@@ -14436,7 +14355,7 @@
       </c>
       <c r="AK54" s="20"/>
       <c r="AL54" s="24" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="AM54" s="20" t="s">
         <v>232</v>
@@ -14445,10 +14364,10 @@
         <v>160</v>
       </c>
       <c r="AO54" s="20" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="AP54" s="20" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="AQ54" s="20" t="s">
         <v>164</v>
@@ -14461,7 +14380,7 @@
       </c>
       <c r="AT54" s="20"/>
       <c r="AU54" s="20" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="AV54" s="20" t="s">
         <v>202</v>
@@ -14470,7 +14389,7 @@
         <v>209</v>
       </c>
       <c r="AX54" s="22" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="AY54" s="20"/>
       <c r="AZ54" s="20"/>
@@ -14510,24 +14429,24 @@
       <c r="CH54" s="20"/>
       <c r="CI54" s="20"/>
     </row>
-    <row r="55" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E55" s="20">
         <v>2005</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G55" s="20">
         <v>135</v>
@@ -14544,7 +14463,7 @@
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
       <c r="M55" s="20" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="N55" s="20" t="s">
         <v>249</v>
@@ -14577,7 +14496,7 @@
       </c>
       <c r="Y55" s="20"/>
       <c r="Z55" s="20" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="AA55" s="20">
         <v>2</v>
@@ -14605,14 +14524,14 @@
       <c r="AJ55" s="20"/>
       <c r="AK55" s="20"/>
       <c r="AL55" s="20" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="AM55" s="20" t="s">
         <v>232</v>
       </c>
       <c r="AN55" s="20"/>
       <c r="AO55" s="20" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="AP55" s="20" t="s">
         <v>374</v>
@@ -14628,7 +14547,7 @@
       </c>
       <c r="AT55" s="20"/>
       <c r="AU55" s="20" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="AV55" s="20" t="s">
         <v>199</v>
@@ -14637,7 +14556,7 @@
         <v>208</v>
       </c>
       <c r="AX55" s="22" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="AY55" s="20"/>
       <c r="AZ55" s="20"/>
@@ -14677,24 +14596,24 @@
       <c r="CH55" s="20"/>
       <c r="CI55" s="20"/>
     </row>
-    <row r="56" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E56" s="20">
         <v>2005</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G56" s="20">
         <v>135</v>
@@ -14711,7 +14630,7 @@
       <c r="K56" s="20"/>
       <c r="L56" s="20"/>
       <c r="M56" s="20" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="N56" s="20" t="s">
         <v>249</v>
@@ -14744,7 +14663,7 @@
       </c>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="AA56" s="20">
         <v>2</v>
@@ -14777,7 +14696,7 @@
       </c>
       <c r="AN56" s="20"/>
       <c r="AO56" s="20" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="AP56" s="20" t="s">
         <v>374</v>
@@ -14793,7 +14712,7 @@
       </c>
       <c r="AT56" s="20"/>
       <c r="AU56" s="20" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="AV56" s="20" t="s">
         <v>199</v>
@@ -14802,7 +14721,7 @@
         <v>208</v>
       </c>
       <c r="AX56" s="22" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="AY56" s="20"/>
       <c r="AZ56" s="20"/>
@@ -14842,24 +14761,24 @@
       <c r="CH56" s="20"/>
       <c r="CI56" s="20"/>
     </row>
-    <row r="57" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="20" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E57" s="20">
         <v>2005</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G57" s="20">
         <v>135</v>
@@ -14876,7 +14795,7 @@
       <c r="K57" s="20"/>
       <c r="L57" s="20"/>
       <c r="M57" s="20" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="N57" s="20" t="s">
         <v>249</v>
@@ -14909,7 +14828,7 @@
       </c>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="AA57" s="20">
         <v>2</v>
@@ -14942,7 +14861,7 @@
       </c>
       <c r="AN57" s="20"/>
       <c r="AO57" s="20" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="AP57" s="20" t="s">
         <v>374</v>
@@ -14958,7 +14877,7 @@
       </c>
       <c r="AT57" s="20"/>
       <c r="AU57" s="20" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="AV57" s="20" t="s">
         <v>199</v>
@@ -14967,7 +14886,7 @@
         <v>208</v>
       </c>
       <c r="AX57" s="22" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="AY57" s="20"/>
       <c r="AZ57" s="20"/>
@@ -15007,24 +14926,24 @@
       <c r="CH57" s="20"/>
       <c r="CI57" s="20"/>
     </row>
-    <row r="58" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E58" s="20">
         <v>2002</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="G58" s="20">
         <v>141</v>
@@ -15039,11 +14958,11 @@
         <v>1000</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="L58" s="20"/>
       <c r="M58" s="20" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="N58" s="20" t="s">
         <v>249</v>
@@ -15076,7 +14995,7 @@
       </c>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="AA58" s="20">
         <v>2</v>
@@ -15106,17 +15025,17 @@
         <v>148</v>
       </c>
       <c r="AL58" s="20" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="AM58" s="20" t="s">
         <v>233</v>
       </c>
       <c r="AN58" s="20"/>
       <c r="AO58" s="20" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="AP58" s="20" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="AQ58" s="20" t="s">
         <v>164</v>
@@ -15129,7 +15048,7 @@
       </c>
       <c r="AT58" s="20"/>
       <c r="AU58" s="20" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="AV58" s="20" t="s">
         <v>205</v>
@@ -15138,7 +15057,7 @@
         <v>208</v>
       </c>
       <c r="AX58" s="22" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="AY58" s="20"/>
       <c r="AZ58" s="20"/>
@@ -15178,24 +15097,24 @@
       <c r="CH58" s="20"/>
       <c r="CI58" s="20"/>
     </row>
-    <row r="59" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E59" s="20">
         <v>2002</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="G59" s="20">
         <v>141</v>
@@ -15210,11 +15129,11 @@
         <v>1000</v>
       </c>
       <c r="K59" s="20" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="L59" s="20"/>
       <c r="M59" s="20" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="N59" s="20" t="s">
         <v>249</v>
@@ -15247,7 +15166,7 @@
       </c>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="AA59" s="20">
         <v>2</v>
@@ -15277,17 +15196,17 @@
         <v>148</v>
       </c>
       <c r="AL59" s="20" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="AM59" s="20" t="s">
         <v>233</v>
       </c>
       <c r="AN59" s="20"/>
       <c r="AO59" s="20" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="AP59" s="20" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="AQ59" s="20" t="s">
         <v>164</v>
@@ -15300,7 +15219,7 @@
       </c>
       <c r="AT59" s="20"/>
       <c r="AU59" s="20" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AV59" s="20" t="s">
         <v>199</v>
@@ -15309,7 +15228,7 @@
         <v>210</v>
       </c>
       <c r="AX59" s="22" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="AY59" s="20"/>
       <c r="AZ59" s="20"/>
@@ -15349,18 +15268,18 @@
       <c r="CH59" s="20"/>
       <c r="CI59" s="20"/>
     </row>
-    <row r="60" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E60" s="20">
         <v>2001</v>
@@ -15379,11 +15298,11 @@
         <v>301</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="L60" s="20"/>
       <c r="M60" s="20" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="N60" s="20" t="s">
         <v>249</v>
@@ -15392,7 +15311,7 @@
         <v>250</v>
       </c>
       <c r="P60" s="20" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="Q60" s="20" t="s">
         <v>21</v>
@@ -15418,7 +15337,7 @@
       </c>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="AA60" s="20">
         <v>1</v>
@@ -15450,14 +15369,14 @@
         <v>148</v>
       </c>
       <c r="AL60" s="20" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="AM60" s="20" t="s">
         <v>233</v>
       </c>
       <c r="AN60" s="20"/>
       <c r="AO60" s="20" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="AP60" s="20" t="s">
         <v>374</v>
@@ -15472,10 +15391,10 @@
         <v>178</v>
       </c>
       <c r="AT60" s="21" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="AU60" s="20" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="AV60" s="20" t="s">
         <v>213</v>
@@ -15484,7 +15403,7 @@
         <v>209</v>
       </c>
       <c r="AX60" s="22" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="AY60" s="20"/>
       <c r="AZ60" s="20"/>
@@ -15524,18 +15443,18 @@
       <c r="CH60" s="20"/>
       <c r="CI60" s="20"/>
     </row>
-    <row r="61" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E61" s="20">
         <v>2001</v>
@@ -15554,11 +15473,11 @@
         <v>301</v>
       </c>
       <c r="K61" s="20" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="L61" s="20"/>
       <c r="M61" s="20" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="N61" s="20" t="s">
         <v>249</v>
@@ -15567,7 +15486,7 @@
         <v>250</v>
       </c>
       <c r="P61" s="20" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="Q61" s="20" t="s">
         <v>21</v>
@@ -15593,7 +15512,7 @@
       </c>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="AA61" s="20">
         <v>1</v>
@@ -15625,14 +15544,14 @@
         <v>148</v>
       </c>
       <c r="AL61" s="20" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="AM61" s="20" t="s">
         <v>232</v>
       </c>
       <c r="AN61" s="20"/>
       <c r="AO61" s="20" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="AP61" s="20" t="s">
         <v>374</v>
@@ -15647,10 +15566,10 @@
         <v>178</v>
       </c>
       <c r="AT61" s="21" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="AU61" s="20" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="AV61" s="20" t="s">
         <v>213</v>
@@ -15659,7 +15578,7 @@
         <v>209</v>
       </c>
       <c r="AX61" s="22" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="AY61" s="20"/>
       <c r="AZ61" s="20"/>
@@ -15699,18 +15618,18 @@
       <c r="CH61" s="20"/>
       <c r="CI61" s="20"/>
     </row>
-    <row r="62" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B62" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E62" s="20">
         <v>2000</v>
@@ -15731,11 +15650,11 @@
         <v>30</v>
       </c>
       <c r="K62" s="20" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="L62" s="20"/>
       <c r="M62" s="20" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="N62" s="20" t="s">
         <v>249</v>
@@ -15768,7 +15687,7 @@
       </c>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AA62" s="20">
         <v>2</v>
@@ -15796,7 +15715,7 @@
       <c r="AJ62" s="20"/>
       <c r="AK62" s="20"/>
       <c r="AL62" s="24" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="AM62" s="20" t="s">
         <v>232</v>
@@ -15805,7 +15724,7 @@
         <v>160</v>
       </c>
       <c r="AO62" s="20" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="AP62" s="20" t="s">
         <v>374</v>
@@ -15819,7 +15738,7 @@
       <c r="AS62" s="20"/>
       <c r="AT62" s="20"/>
       <c r="AU62" s="20" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="AV62" s="20" t="s">
         <v>199</v>
@@ -15828,7 +15747,7 @@
         <v>209</v>
       </c>
       <c r="AX62" s="22" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="AY62" s="20"/>
       <c r="AZ62" s="20"/>
@@ -15868,18 +15787,18 @@
       <c r="CH62" s="20"/>
       <c r="CI62" s="20"/>
     </row>
-    <row r="63" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B63" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E63" s="20">
         <v>2000</v>
@@ -15900,11 +15819,11 @@
         <v>30</v>
       </c>
       <c r="K63" s="20" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="L63" s="20"/>
       <c r="M63" s="20" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="N63" s="20" t="s">
         <v>249</v>
@@ -15937,7 +15856,7 @@
       </c>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AA63" s="20">
         <v>2</v>
@@ -15963,7 +15882,7 @@
       <c r="AJ63" s="20"/>
       <c r="AK63" s="20"/>
       <c r="AL63" s="24" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="AM63" s="20" t="s">
         <v>232</v>
@@ -15972,7 +15891,7 @@
         <v>160</v>
       </c>
       <c r="AO63" s="20" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="AP63" s="20" t="s">
         <v>374</v>
@@ -15986,7 +15905,7 @@
       <c r="AS63" s="20"/>
       <c r="AT63" s="20"/>
       <c r="AU63" s="20" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="AV63" s="20" t="s">
         <v>199</v>
@@ -15995,7 +15914,7 @@
         <v>209</v>
       </c>
       <c r="AX63" s="22" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="AY63" s="20"/>
       <c r="AZ63" s="20"/>
@@ -16035,18 +15954,18 @@
       <c r="CH63" s="20"/>
       <c r="CI63" s="20"/>
     </row>
-    <row r="64" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B64" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E64" s="20">
         <v>1999</v>
@@ -16067,17 +15986,17 @@
         <v>106</v>
       </c>
       <c r="K64" s="20" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="L64" s="20"/>
       <c r="M64" s="20" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="N64" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O64" s="20" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="P64" s="20"/>
       <c r="Q64" s="20" t="s">
@@ -16099,7 +16018,7 @@
       <c r="AC64" s="20"/>
       <c r="AD64" s="20"/>
       <c r="AE64" s="20" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="AF64" s="20">
         <v>4.4000000000000004</v>
@@ -16160,18 +16079,18 @@
       <c r="CH64" s="20"/>
       <c r="CI64" s="20"/>
     </row>
-    <row r="65" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="20" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E65" s="20">
         <v>1998</v>
@@ -16192,20 +16111,20 @@
         <v>352</v>
       </c>
       <c r="K65" s="20" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="L65" s="20"/>
       <c r="M65" s="20" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="N65" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O65" s="20" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="P65" s="20" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="Q65" s="20" t="s">
         <v>21</v>
@@ -16231,7 +16150,7 @@
       </c>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="AA65" s="20">
         <v>2</v>
@@ -16257,7 +16176,7 @@
       <c r="AJ65" s="20"/>
       <c r="AK65" s="20"/>
       <c r="AL65" s="20" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="AM65" s="20" t="s">
         <v>232</v>
@@ -16266,7 +16185,7 @@
         <v>162</v>
       </c>
       <c r="AO65" s="20" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="AP65" s="20" t="s">
         <v>374</v>
@@ -16282,7 +16201,7 @@
       </c>
       <c r="AT65" s="20"/>
       <c r="AU65" s="20" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="AV65" s="20" t="s">
         <v>199</v>
@@ -16291,7 +16210,7 @@
         <v>208</v>
       </c>
       <c r="AX65" s="22" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="AY65" s="20"/>
       <c r="AZ65" s="20"/>
@@ -16331,18 +16250,18 @@
       <c r="CH65" s="20"/>
       <c r="CI65" s="20"/>
     </row>
-    <row r="66" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="20" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E66" s="20">
         <v>1998</v>
@@ -16363,20 +16282,20 @@
         <v>352</v>
       </c>
       <c r="K66" s="20" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="L66" s="20"/>
       <c r="M66" s="20" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="N66" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O66" s="20" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="P66" s="20" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="Q66" s="20" t="s">
         <v>21</v>
@@ -16402,7 +16321,7 @@
       </c>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="AA66" s="20">
         <v>2</v>
@@ -16428,7 +16347,7 @@
       <c r="AJ66" s="20"/>
       <c r="AK66" s="20"/>
       <c r="AL66" s="22" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="AM66" s="20" t="s">
         <v>232</v>
@@ -16437,7 +16356,7 @@
         <v>162</v>
       </c>
       <c r="AO66" s="20" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="AP66" s="20" t="s">
         <v>374</v>
@@ -16453,7 +16372,7 @@
       </c>
       <c r="AT66" s="20"/>
       <c r="AU66" s="20" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="AV66" s="20" t="s">
         <v>199</v>
@@ -16462,7 +16381,7 @@
         <v>208</v>
       </c>
       <c r="AX66" s="22" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="AY66" s="20"/>
       <c r="AZ66" s="20"/>
@@ -16502,18 +16421,18 @@
       <c r="CH66" s="20"/>
       <c r="CI66" s="20"/>
     </row>
-    <row r="67" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B67" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E67" s="20">
         <v>1998</v>
@@ -16534,20 +16453,20 @@
         <v>352</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="L67" s="20"/>
       <c r="M67" s="20" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="N67" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O67" s="20" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="P67" s="20" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="Q67" s="20" t="s">
         <v>21</v>
@@ -16573,7 +16492,7 @@
       </c>
       <c r="Y67" s="20"/>
       <c r="Z67" s="20" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="AA67" s="20">
         <v>2</v>
@@ -16599,7 +16518,7 @@
       <c r="AJ67" s="20"/>
       <c r="AK67" s="20"/>
       <c r="AL67" s="22" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="AM67" s="20" t="s">
         <v>232</v>
@@ -16608,7 +16527,7 @@
         <v>162</v>
       </c>
       <c r="AO67" s="20" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="AP67" s="20" t="s">
         <v>374</v>
@@ -16624,7 +16543,7 @@
       </c>
       <c r="AT67" s="20"/>
       <c r="AU67" s="20" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="AV67" s="20" t="s">
         <v>199</v>
@@ -16633,7 +16552,7 @@
         <v>208</v>
       </c>
       <c r="AX67" s="22" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="AY67" s="20"/>
       <c r="AZ67" s="20"/>
@@ -16673,18 +16592,18 @@
       <c r="CH67" s="20"/>
       <c r="CI67" s="20"/>
     </row>
-    <row r="68" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B68" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E68" s="20">
         <v>1998</v>
@@ -16705,20 +16624,20 @@
         <v>352</v>
       </c>
       <c r="K68" s="20" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="L68" s="20"/>
       <c r="M68" s="20" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="N68" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O68" s="20" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="P68" s="20" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="Q68" s="20" t="s">
         <v>21</v>
@@ -16744,7 +16663,7 @@
       </c>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="AA68" s="20">
         <v>2</v>
@@ -16770,7 +16689,7 @@
       <c r="AJ68" s="20"/>
       <c r="AK68" s="20"/>
       <c r="AL68" s="22" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="AM68" s="20" t="s">
         <v>232</v>
@@ -16779,7 +16698,7 @@
         <v>162</v>
       </c>
       <c r="AO68" s="20" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="AP68" s="20" t="s">
         <v>374</v>
@@ -16795,7 +16714,7 @@
       </c>
       <c r="AT68" s="20"/>
       <c r="AU68" s="20" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="AV68" s="20" t="s">
         <v>199</v>
@@ -16804,7 +16723,7 @@
         <v>208</v>
       </c>
       <c r="AX68" s="22" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="AY68" s="20"/>
       <c r="AZ68" s="20"/>
@@ -16844,18 +16763,18 @@
       <c r="CH68" s="20"/>
       <c r="CI68" s="20"/>
     </row>
-    <row r="69" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E69" s="20">
         <v>1998</v>
@@ -16876,20 +16795,20 @@
         <v>352</v>
       </c>
       <c r="K69" s="20" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="L69" s="20"/>
       <c r="M69" s="20" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="N69" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O69" s="20" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="P69" s="20" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="Q69" s="20" t="s">
         <v>21</v>
@@ -16915,7 +16834,7 @@
       </c>
       <c r="Y69" s="20"/>
       <c r="Z69" s="20" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="AA69" s="20">
         <v>2</v>
@@ -16945,7 +16864,7 @@
       </c>
       <c r="AK69" s="20"/>
       <c r="AL69" s="22" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="AM69" s="20" t="s">
         <v>232</v>
@@ -16954,7 +16873,7 @@
         <v>162</v>
       </c>
       <c r="AO69" s="20" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="AP69" s="20" t="s">
         <v>374</v>
@@ -16970,7 +16889,7 @@
       </c>
       <c r="AT69" s="20"/>
       <c r="AU69" s="20" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="AV69" s="20" t="s">
         <v>199</v>
@@ -16979,7 +16898,7 @@
         <v>208</v>
       </c>
       <c r="AX69" s="22" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="AY69" s="20"/>
       <c r="AZ69" s="20"/>
@@ -17019,18 +16938,18 @@
       <c r="CH69" s="20"/>
       <c r="CI69" s="20"/>
     </row>
-    <row r="70" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E70" s="20">
         <v>1998</v>
@@ -17051,20 +16970,20 @@
         <v>352</v>
       </c>
       <c r="K70" s="20" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="L70" s="20"/>
       <c r="M70" s="20" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="N70" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O70" s="20" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="P70" s="20" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="Q70" s="20" t="s">
         <v>21</v>
@@ -17090,7 +17009,7 @@
       </c>
       <c r="Y70" s="20"/>
       <c r="Z70" s="20" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="AA70" s="20">
         <v>2</v>
@@ -17120,7 +17039,7 @@
       </c>
       <c r="AK70" s="20"/>
       <c r="AL70" s="22" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="AM70" s="20" t="s">
         <v>232</v>
@@ -17129,7 +17048,7 @@
         <v>162</v>
       </c>
       <c r="AO70" s="20" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="AP70" s="20" t="s">
         <v>374</v>
@@ -17145,7 +17064,7 @@
       </c>
       <c r="AT70" s="20"/>
       <c r="AU70" s="20" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="AV70" s="20" t="s">
         <v>199</v>
@@ -17154,7 +17073,7 @@
         <v>208</v>
       </c>
       <c r="AX70" s="22" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="AY70" s="20"/>
       <c r="AZ70" s="20"/>
@@ -17194,24 +17113,24 @@
       <c r="CH70" s="20"/>
       <c r="CI70" s="20"/>
     </row>
-    <row r="71" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B71" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E71" s="20">
         <v>1997</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="G71" s="20">
         <v>22</v>
@@ -17224,11 +17143,11 @@
         <v>123</v>
       </c>
       <c r="K71" s="20" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="L71" s="20"/>
       <c r="M71" s="20" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="N71" s="20" t="s">
         <v>249</v>
@@ -17237,7 +17156,7 @@
         <v>250</v>
       </c>
       <c r="P71" s="20" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="Q71" s="20" t="s">
         <v>21</v>
@@ -17258,7 +17177,7 @@
       <c r="AC71" s="20"/>
       <c r="AD71" s="20"/>
       <c r="AE71" s="20" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="AF71" s="20">
         <v>4.2</v>
@@ -17319,18 +17238,18 @@
       <c r="CH71" s="20"/>
       <c r="CI71" s="20"/>
     </row>
-    <row r="72" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E72" s="20">
         <v>1996</v>
@@ -17351,11 +17270,11 @@
         <v>29</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="L72" s="20"/>
       <c r="M72" s="20" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="N72" s="20" t="s">
         <v>249</v>
@@ -17364,7 +17283,7 @@
         <v>250</v>
       </c>
       <c r="P72" s="20" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="Q72" s="20" t="s">
         <v>21</v>
@@ -17390,7 +17309,7 @@
       </c>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="AA72" s="20">
         <v>2</v>
@@ -17416,14 +17335,14 @@
       <c r="AJ72" s="20"/>
       <c r="AK72" s="20"/>
       <c r="AL72" s="24" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AM72" s="20" t="s">
         <v>159</v>
       </c>
       <c r="AN72" s="20"/>
       <c r="AO72" s="20" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="AP72" s="20" t="s">
         <v>374</v>
@@ -17437,16 +17356,16 @@
       <c r="AS72" s="20"/>
       <c r="AT72" s="20"/>
       <c r="AU72" s="20" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="AV72" s="20" t="s">
         <v>202</v>
       </c>
       <c r="AW72" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX72" s="22" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="AY72" s="20"/>
       <c r="AZ72" s="20"/>
@@ -17486,18 +17405,18 @@
       <c r="CH72" s="20"/>
       <c r="CI72" s="20"/>
     </row>
-    <row r="73" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E73" s="20">
         <v>1996</v>
@@ -17518,11 +17437,11 @@
         <v>29</v>
       </c>
       <c r="K73" s="20" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="L73" s="20"/>
       <c r="M73" s="20" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="N73" s="20" t="s">
         <v>249</v>
@@ -17531,7 +17450,7 @@
         <v>250</v>
       </c>
       <c r="P73" s="20" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="Q73" s="20" t="s">
         <v>21</v>
@@ -17557,7 +17476,7 @@
       </c>
       <c r="Y73" s="20"/>
       <c r="Z73" s="20" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="AA73" s="20">
         <v>2</v>
@@ -17583,14 +17502,14 @@
       <c r="AJ73" s="20"/>
       <c r="AK73" s="20"/>
       <c r="AL73" s="24" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AM73" s="20" t="s">
         <v>159</v>
       </c>
       <c r="AN73" s="20"/>
       <c r="AO73" s="20" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="AP73" s="20" t="s">
         <v>374</v>
@@ -17604,7 +17523,7 @@
       <c r="AS73" s="20"/>
       <c r="AT73" s="20"/>
       <c r="AU73" s="20" t="s">
-        <v>692</v>
+        <v>723</v>
       </c>
       <c r="AV73" s="20" t="s">
         <v>237</v>
@@ -17613,7 +17532,7 @@
         <v>209</v>
       </c>
       <c r="AX73" s="22" t="s">
-        <v>693</v>
+        <v>722</v>
       </c>
       <c r="AY73" s="20"/>
       <c r="AZ73" s="20"/>
@@ -17653,24 +17572,24 @@
       <c r="CH73" s="20"/>
       <c r="CI73" s="20"/>
     </row>
-    <row r="74" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E74" s="20">
         <v>2018</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G74" s="20">
         <v>59</v>
@@ -17685,11 +17604,11 @@
         <v>577</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="L74" s="20"/>
       <c r="M74" s="20" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="N74" s="20" t="s">
         <v>249</v>
@@ -17699,7 +17618,7 @@
       </c>
       <c r="P74" s="20"/>
       <c r="Q74" s="20" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="R74" s="20"/>
       <c r="S74" s="20" t="s">
@@ -17722,7 +17641,7 @@
       </c>
       <c r="Y74" s="20"/>
       <c r="Z74" s="20" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="AA74" s="20">
         <v>2</v>
@@ -17752,7 +17671,7 @@
       </c>
       <c r="AK74" s="20"/>
       <c r="AL74" s="22" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="AM74" s="20" t="s">
         <v>232</v>
@@ -17761,7 +17680,7 @@
         <v>162</v>
       </c>
       <c r="AO74" s="20" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="AP74" s="20" t="s">
         <v>374</v>
@@ -17776,10 +17695,10 @@
         <v>188</v>
       </c>
       <c r="AT74" s="20" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="AU74" s="20" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="AV74" s="20" t="s">
         <v>206</v>
@@ -17788,7 +17707,7 @@
         <v>210</v>
       </c>
       <c r="AX74" s="22" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="AY74" s="20"/>
       <c r="AZ74" s="20"/>
@@ -17828,24 +17747,24 @@
       <c r="CH74" s="20"/>
       <c r="CI74" s="20"/>
     </row>
-    <row r="75" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E75" s="20">
         <v>2018</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G75" s="20">
         <v>59</v>
@@ -17860,11 +17779,11 @@
         <v>577</v>
       </c>
       <c r="K75" s="20" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="L75" s="20"/>
       <c r="M75" s="20" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="N75" s="20" t="s">
         <v>249</v>
@@ -17874,7 +17793,7 @@
       </c>
       <c r="P75" s="20"/>
       <c r="Q75" s="20" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="R75" s="20"/>
       <c r="S75" s="20" t="s">
@@ -17897,7 +17816,7 @@
       </c>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="AA75" s="20">
         <v>2</v>
@@ -17925,7 +17844,7 @@
       <c r="AJ75" s="20"/>
       <c r="AK75" s="20"/>
       <c r="AL75" s="22" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="AM75" s="20" t="s">
         <v>232</v>
@@ -17934,7 +17853,7 @@
         <v>162</v>
       </c>
       <c r="AO75" s="20" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="AP75" s="20" t="s">
         <v>374</v>
@@ -17949,10 +17868,10 @@
         <v>188</v>
       </c>
       <c r="AT75" s="20" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="AU75" s="20" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="AV75" s="20" t="s">
         <v>206</v>
@@ -17961,7 +17880,7 @@
         <v>210</v>
       </c>
       <c r="AX75" s="22" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="AY75" s="20"/>
       <c r="AZ75" s="20"/>
@@ -18001,24 +17920,24 @@
       <c r="CH75" s="20"/>
       <c r="CI75" s="20"/>
     </row>
-    <row r="76" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B76" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E76" s="20">
         <v>2018</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G76" s="20">
         <v>59</v>
@@ -18033,11 +17952,11 @@
         <v>577</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="L76" s="20"/>
       <c r="M76" s="20" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="N76" s="20" t="s">
         <v>249</v>
@@ -18047,7 +17966,7 @@
       </c>
       <c r="P76" s="20"/>
       <c r="Q76" s="20" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="R76" s="20"/>
       <c r="S76" s="20" t="s">
@@ -18070,7 +17989,7 @@
       </c>
       <c r="Y76" s="20"/>
       <c r="Z76" s="20" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="AA76" s="20">
         <v>2</v>
@@ -18098,7 +18017,7 @@
       <c r="AJ76" s="20"/>
       <c r="AK76" s="20"/>
       <c r="AL76" s="22" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="AM76" s="20" t="s">
         <v>232</v>
@@ -18107,7 +18026,7 @@
         <v>162</v>
       </c>
       <c r="AO76" s="20" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="AP76" s="20" t="s">
         <v>374</v>
@@ -18122,10 +18041,10 @@
         <v>188</v>
       </c>
       <c r="AT76" s="20" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="AU76" s="20" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="AV76" s="20" t="s">
         <v>206</v>
@@ -18134,7 +18053,7 @@
         <v>210</v>
       </c>
       <c r="AX76" s="22" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="AY76" s="20"/>
       <c r="AZ76" s="20"/>
@@ -18174,24 +18093,24 @@
       <c r="CH76" s="20"/>
       <c r="CI76" s="20"/>
     </row>
-    <row r="77" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="20" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B77" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E77" s="20">
         <v>2018</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G77" s="20">
         <v>59</v>
@@ -18206,11 +18125,11 @@
         <v>577</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="L77" s="20"/>
       <c r="M77" s="20" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="N77" s="20" t="s">
         <v>249</v>
@@ -18220,7 +18139,7 @@
       </c>
       <c r="P77" s="20"/>
       <c r="Q77" s="20" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="R77" s="20"/>
       <c r="S77" s="20" t="s">
@@ -18243,7 +18162,7 @@
       </c>
       <c r="Y77" s="20"/>
       <c r="Z77" s="20" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="AA77" s="20">
         <v>2</v>
@@ -18271,7 +18190,7 @@
       <c r="AJ77" s="20"/>
       <c r="AK77" s="20"/>
       <c r="AL77" s="22" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="AM77" s="20" t="s">
         <v>232</v>
@@ -18280,7 +18199,7 @@
         <v>160</v>
       </c>
       <c r="AO77" s="20" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="AP77" s="20" t="s">
         <v>374</v>
@@ -18295,10 +18214,10 @@
         <v>188</v>
       </c>
       <c r="AT77" s="20" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="AU77" s="20" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="AV77" s="20" t="s">
         <v>206</v>
@@ -18307,7 +18226,7 @@
         <v>210</v>
       </c>
       <c r="AX77" s="22" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="AY77" s="20"/>
       <c r="AZ77" s="20"/>
@@ -18358,17 +18277,17 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI17 AI3:AJ16 P3:Q37 AI18:AJ1048576 AN3:AN1048576 AR3:AS1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI17 AI3:AJ16 P3:Q37 AI18:AJ1048576 AN3:AN1048576 AR3:AS1048576" xr:uid="{147CE50E-8A31-47FF-849B-125EEE18B3C2}">
       <formula1>INDIRECT(O3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK17" xr:uid="{97164204-0BAF-4351-AC4A-2A40314A5C36}">
       <formula1>INDIRECT(AI17)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O37 AH3:AH1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O37 AH3:AH1048576" xr:uid="{CE75DE51-C821-414A-909B-2FB1CD63ED75}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P38:P1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P38:P1048576" xr:uid="{8D11C394-D6E7-4EA6-9EE9-367CD2582115}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{2362C9E6-081E-4489-B44A-C9707D2FAACA}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
   </dataValidations>
@@ -18378,91 +18297,91 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{900AB000-C0BB-4F2B-9D6C-1BDEBE645FD9}">
           <x14:formula1>
             <xm:f>Validation!$AM$5:$AM$11</xm:f>
           </x14:formula1>
           <xm:sqref>AM3:AM1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD8400FA-6437-4A0D-B4A9-B109B8A250C5}">
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
           <xm:sqref>R3:R1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{49E68ACB-BA28-4B9A-BFF8-5FD0760275BF}">
           <x14:formula1>
             <xm:f>Validation!$S$3:$S$16</xm:f>
           </x14:formula1>
           <xm:sqref>S3:S1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5ABE3B97-9B9A-4694-BE86-0506826E2726}">
           <x14:formula1>
             <xm:f>Validation!$T$3:$T$13</xm:f>
           </x14:formula1>
           <xm:sqref>T3:T1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FC3BA96F-0098-4FDB-918F-26DAD4AE6D11}">
           <x14:formula1>
             <xm:f>Validation!$U$3:$U$15</xm:f>
           </x14:formula1>
           <xm:sqref>U3:U1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E362B428-F7A5-4C02-9F75-62250A8DF299}">
           <x14:formula1>
             <xm:f>Validation!$V$3:$V$13</xm:f>
           </x14:formula1>
           <xm:sqref>V3:V1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E197360C-6A34-45B7-AB2E-5E7C551702F6}">
           <x14:formula1>
             <xm:f>Validation!$W$3:$W$16</xm:f>
           </x14:formula1>
           <xm:sqref>W3:W1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E73BE79-2A54-4EEA-A798-290B3BA3FFCD}">
           <x14:formula1>
             <xm:f>Validation!$AA$3:$AA$5</xm:f>
           </x14:formula1>
           <xm:sqref>AA3:AA1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C27E93D-809B-41BF-ABAB-69FBE626D94A}">
           <x14:formula1>
             <xm:f>Validation!$AB$3:$AB$5</xm:f>
           </x14:formula1>
           <xm:sqref>AB3:AB1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A33CCD69-F8EA-4552-BD92-7EB0BE111981}">
           <x14:formula1>
             <xm:f>Validation!$AC$3:$AC$5</xm:f>
           </x14:formula1>
           <xm:sqref>AC3:AC1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5D99282E-558D-45A5-8C89-4FD37CA63F5F}">
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$9</xm:f>
           </x14:formula1>
           <xm:sqref>AG3:AG1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F099050-B506-4B35-9FDA-62FA7D6598B6}">
           <x14:formula1>
             <xm:f>Validation!$AK$3:$AK$7</xm:f>
           </x14:formula1>
           <xm:sqref>AK3:AK1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7FAE5D68-3840-401D-9EC0-DBC94BAA3B1F}">
           <x14:formula1>
             <xm:f>Validation!$X$3:$X$16</xm:f>
           </x14:formula1>
           <xm:sqref>X3:X1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E8B5B474-0749-40C7-A28F-5E27B8E5CF90}">
           <x14:formula1>
             <xm:f>Validation!$AW$3:$AW$6</xm:f>
           </x14:formula1>
           <xm:sqref>AW3:AW1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E1E0E1AB-7440-4037-B63A-36A09D5E640E}">
           <x14:formula1>
             <xm:f>Validation!$AV$3:$AV$15</xm:f>
           </x14:formula1>
@@ -18475,24 +18394,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY38"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
       <selection activeCell="AT37" sqref="AT37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="32.140625" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.109375" customWidth="1"/>
+    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="26.28515625" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" customWidth="1"/>
+    <col min="33" max="33" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>11</v>
       </c>
@@ -18558,7 +18477,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -18710,7 +18629,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -18767,7 +18686,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -18824,7 +18743,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -18880,7 +18799,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -18925,7 +18844,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -18967,7 +18886,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -19005,7 +18924,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -19040,7 +18959,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -19072,7 +18991,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -19107,7 +19026,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -19139,7 +19058,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -19174,7 +19093,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -19203,7 +19122,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -19232,7 +19151,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -19252,7 +19171,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -19260,22 +19179,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -19310,7 +19229,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -19336,7 +19255,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -19359,7 +19278,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -19370,7 +19289,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -19381,7 +19300,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -19389,12 +19308,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -19417,7 +19336,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -19443,7 +19362,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -19469,7 +19388,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -19489,7 +19408,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -19504,7 +19423,7 @@
       </c>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -19518,7 +19437,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -19526,10 +19445,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -19550,45 +19469,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32E20A0-5442-4F4A-9FB6-CCAA682CC611}">
   <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5546875" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" customWidth="1"/>
+    <col min="19" max="19" width="17.77734375" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" customWidth="1"/>
+    <col min="21" max="21" width="17.77734375" customWidth="1"/>
+    <col min="22" max="22" width="18.6640625" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" customWidth="1"/>
-    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="12.5703125" customWidth="1"/>
+    <col min="28" max="28" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.44140625" customWidth="1"/>
+    <col min="30" max="30" width="15.21875" customWidth="1"/>
+    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.77734375" customWidth="1"/>
+    <col min="33" max="33" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>12</v>
       </c>
@@ -19635,7 +19554,7 @@
       <c r="AF1" s="39"/>
       <c r="AG1" s="39"/>
     </row>
-    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -19736,7 +19655,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -19802,7 +19721,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -19853,7 +19772,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -19907,7 +19826,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -19949,7 +19868,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -19994,7 +19913,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -20032,7 +19951,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -20070,7 +19989,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -20105,7 +20024,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -20137,7 +20056,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -20169,7 +20088,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -20198,7 +20117,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -20221,7 +20140,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -20247,7 +20166,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -20264,7 +20183,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -20275,7 +20194,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -20289,7 +20208,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -20303,7 +20222,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -20314,7 +20233,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -20328,7 +20247,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -20339,7 +20258,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -20350,7 +20269,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -20358,7 +20277,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -20366,7 +20285,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -20374,7 +20293,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -20388,7 +20307,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -20399,7 +20318,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -20410,7 +20329,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -20421,7 +20340,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -20429,7 +20348,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -20437,12 +20356,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -20462,6 +20381,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -20575,22 +20509,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20604,27 +20546,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Binch.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Binch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/esther_beukhof_wur_nl/Documents/Projects/SEAwise/SEAwise GitHub/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{364C45A6-2E05-4AC3-8A64-FC7E53566F10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5E6BA9B5-45FC-444A-801C-D2951C0D5FF1}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4025E7B6-130C-49E7-B057-CC7B29E6FA5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{924119D6-8177-4577-8AC1-A24C7F8588DE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="724">
   <si>
     <t>SearchID</t>
   </si>
@@ -5593,9 +5593,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5723,7 +5723,7 @@
       <c r="CH1" s="13"/>
       <c r="CI1" s="13"/>
     </row>
-    <row r="2" spans="1:87" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:87" s="12" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>68</v>
       </c>
@@ -16163,8 +16163,8 @@
       </c>
       <c r="AD65" s="20"/>
       <c r="AE65" s="20"/>
-      <c r="AF65" s="20" t="s">
-        <v>374</v>
+      <c r="AF65" s="20">
+        <v>4.2</v>
       </c>
       <c r="AG65" s="20" t="s">
         <v>111</v>
@@ -16334,8 +16334,8 @@
       </c>
       <c r="AD66" s="20"/>
       <c r="AE66" s="20"/>
-      <c r="AF66" s="20" t="s">
-        <v>374</v>
+      <c r="AF66" s="20">
+        <v>4.2</v>
       </c>
       <c r="AG66" s="20" t="s">
         <v>111</v>
@@ -20381,21 +20381,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -20509,17 +20494,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20533,17 +20534,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Binch.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Binch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/esther_beukhof_wur_nl/Documents/Projects/SEAwise/SEAwise GitHub/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4025E7B6-130C-49E7-B057-CC7B29E6FA5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{924119D6-8177-4577-8AC1-A24C7F8588DE}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{55AAF37A-66B8-4EE0-B65A-BD216287DE1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FAC6D289-B042-4DE5-A972-B546C4F6EFCE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3495" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="725">
   <si>
     <t>SearchID</t>
   </si>
@@ -5043,6 +5043,9 @@
   </si>
   <si>
     <t>Clutch size _ Egg size _ Hatching success</t>
+  </si>
+  <si>
+    <t>Observations of attachment</t>
   </si>
 </sst>
 </file>
@@ -5593,9 +5596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC8" sqref="AC8"/>
+      <selection pane="bottomLeft" activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10018,7 +10021,7 @@
       <c r="AS27" s="20"/>
       <c r="AT27" s="20"/>
       <c r="AU27" s="20" t="s">
-        <v>707</v>
+        <v>724</v>
       </c>
       <c r="AV27" s="20" t="s">
         <v>113</v>
@@ -18277,7 +18280,7 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI17 AI3:AJ16 P3:Q37 AI18:AJ1048576 AN3:AN1048576 AR3:AS1048576" xr:uid="{147CE50E-8A31-47FF-849B-125EEE18B3C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI17 AI3:AJ16 P3:Q37 AR3:AS1048576 AN3:AN1048576 AI18:AJ1048576" xr:uid="{147CE50E-8A31-47FF-849B-125EEE18B3C2}">
       <formula1>INDIRECT(O3)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK17" xr:uid="{97164204-0BAF-4351-AC4A-2A40314A5C36}">
@@ -20381,6 +20384,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -20494,15 +20506,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -20510,6 +20513,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20525,25 +20536,17 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Binch.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Binch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F927A82-A232-4CA5-87F7-A9BE3939D8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DC48CC-946E-4EE6-A903-5AFE1F4997B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$CI$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$CI$91</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2402,7 +2402,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3112" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3310" uniqueCount="741">
   <si>
     <t>SearchID</t>
   </si>
@@ -3876,9 +3876,6 @@
     <t>Sediment mobilisation</t>
   </si>
   <si>
-    <t>Hydrodynamic drag of gear components</t>
-  </si>
-  <si>
     <t>one-way ANOVA</t>
   </si>
   <si>
@@ -4448,31 +4445,13 @@
     <t>Mullus barbatus</t>
   </si>
   <si>
-    <t>Trawling Presence _ pre and post fishing ban</t>
-  </si>
-  <si>
-    <t>SSB _ recruitment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There was a significant increase in SSB after the ban, over the whole area _ It is clear that recruitment increased after the ban on trawling </t>
-  </si>
-  <si>
     <t>Hard to determine the exact time-scale and location of the experiment</t>
   </si>
   <si>
     <t>one-way ANOVA _  Kolmogorov–Smirnov tests _ Bray–Curtis _ Multidimensional scaling ordination _ ANOSIM</t>
   </si>
   <si>
-    <t>Gear type _ Otter trawl normal vs. modified</t>
-  </si>
-  <si>
     <t>Benthic Epifauna</t>
-  </si>
-  <si>
-    <t>Richness _ Biomass _ Composition</t>
-  </si>
-  <si>
-    <t>ANOVA test showed no significant difference between the samples. _ Cluster analysis and subsequent multidimensional scaling (MDS) of all samples indicated three main groups of points (Fig. 7A). The ANOSIM procedure revealed significant differences to gear test.</t>
   </si>
   <si>
     <t>Not looking at the impact of fishing on ecosystem component. Describes the composition of discards in the Dutch pelagic freezer-trawl fleet (Not including any PET species)</t>
@@ -4697,9 +4676,6 @@
   </si>
   <si>
     <t xml:space="preserve">Catch Efficiency model </t>
-  </si>
-  <si>
-    <t>Gear change (Otter vs. Beam trawl)</t>
   </si>
   <si>
     <t xml:space="preserve">Catch Efficiency </t>
@@ -5075,6 +5051,63 @@
   </si>
   <si>
     <t xml:space="preserve">The biomass and abundance curves are close together, crossing each other at depths between 30 and 190 m, where fishing pressure is the highest. Together with the negative values of W statistics obtained, these results indicate moderate disturbance of demersal fish communities. </t>
+  </si>
+  <si>
+    <t>SSB</t>
+  </si>
+  <si>
+    <t>Recruitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is clear that recruitment increased after the ban on trawling </t>
+  </si>
+  <si>
+    <t>There was a significant increase in SSB after the ban, over the whole area</t>
+  </si>
+  <si>
+    <t>pre and post fishing ban</t>
+  </si>
+  <si>
+    <t>Median length</t>
+  </si>
+  <si>
+    <t>Comparison of median lengths by stratum before and after the trawl ban revealed a significant difference between strata B and C because of an increase in the number of large fish. No significant difference in the shallow depth stratum.</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>No differences were significant for crustaceans and echinoderms, and macrofauna, significant difference for megafauna.</t>
+  </si>
+  <si>
+    <t>Both significant differences and no differences found, depending on species and organism group.</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Composition</t>
+  </si>
+  <si>
+    <t>Richness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANOVA test showed no significant difference between the samples. </t>
+  </si>
+  <si>
+    <t>ANOVA test showed no significant difference between the samples.</t>
+  </si>
+  <si>
+    <t>The MDS (Fig. 3) shows no discrimination for community structure in function of the type of trawl legs. The ANOSIM procedure revealed no significant differences. The composition of discarded catch fraction is no different among the two types of trawl leg (Fig. 5).</t>
+  </si>
+  <si>
+    <t>Modified otter trawl vs. normal otter trawl</t>
+  </si>
+  <si>
+    <t>Hydrodynamic drag of pulse trawl vs. beam trawl</t>
+  </si>
+  <si>
+    <t>Fishing effort</t>
   </si>
 </sst>
 </file>
@@ -5696,11 +5729,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CI86"/>
+  <dimension ref="A1:CI92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC89" sqref="AC89"/>
+      <selection pane="bottomLeft" activeCell="AO94" sqref="AO94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6088,7 +6121,7 @@
       </c>
       <c r="Y3" s="13"/>
       <c r="Z3" s="13" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="AA3" s="13">
         <v>2</v>
@@ -6101,7 +6134,7 @@
       </c>
       <c r="AD3" s="13"/>
       <c r="AE3" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF3" s="13">
         <v>4.3</v>
@@ -6123,7 +6156,7 @@
       </c>
       <c r="AN3" s="13"/>
       <c r="AO3" s="13" t="s">
-        <v>429</v>
+        <v>739</v>
       </c>
       <c r="AP3" s="13" t="s">
         <v>374</v>
@@ -6148,7 +6181,7 @@
         <v>209</v>
       </c>
       <c r="AX3" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AY3" s="13"/>
       <c r="AZ3" s="13"/>
@@ -6949,7 +6982,7 @@
         <v>375</v>
       </c>
       <c r="Z8" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA8" s="13">
         <v>2</v>
@@ -6962,10 +6995,10 @@
       </c>
       <c r="AD8" s="13"/>
       <c r="AE8" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF8" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG8" s="13" t="s">
         <v>110</v>
@@ -6983,7 +7016,7 @@
         <v>148</v>
       </c>
       <c r="AL8" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM8" s="13" t="s">
         <v>232</v>
@@ -6992,10 +7025,10 @@
         <v>160</v>
       </c>
       <c r="AO8" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AP8" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AQ8" s="13" t="s">
         <v>164</v>
@@ -7008,7 +7041,7 @@
       </c>
       <c r="AT8" s="13"/>
       <c r="AU8" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AV8" s="13" t="s">
         <v>206</v>
@@ -7017,7 +7050,7 @@
         <v>209</v>
       </c>
       <c r="AX8" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AY8" s="13"/>
       <c r="AZ8" s="13"/>
@@ -7124,7 +7157,7 @@
       </c>
       <c r="Y9" s="13"/>
       <c r="Z9" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AA9" s="13">
         <v>2</v>
@@ -7137,10 +7170,10 @@
       </c>
       <c r="AD9" s="13"/>
       <c r="AE9" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF9" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG9" s="13" t="s">
         <v>110</v>
@@ -7158,7 +7191,7 @@
         <v>148</v>
       </c>
       <c r="AL9" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM9" s="13" t="s">
         <v>232</v>
@@ -7167,10 +7200,10 @@
         <v>160</v>
       </c>
       <c r="AO9" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AP9" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AQ9" s="13" t="s">
         <v>164</v>
@@ -7183,7 +7216,7 @@
       </c>
       <c r="AT9" s="13"/>
       <c r="AU9" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AV9" s="13" t="s">
         <v>206</v>
@@ -7192,7 +7225,7 @@
         <v>209</v>
       </c>
       <c r="AX9" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AY9" s="13"/>
       <c r="AZ9" s="13"/>
@@ -7299,7 +7332,7 @@
       </c>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AA10" s="13">
         <v>2</v>
@@ -7329,7 +7362,7 @@
       </c>
       <c r="AK10" s="13"/>
       <c r="AL10" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AM10" s="13" t="s">
         <v>232</v>
@@ -7338,10 +7371,10 @@
         <v>162</v>
       </c>
       <c r="AO10" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AP10" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AQ10" s="13" t="s">
         <v>164</v>
@@ -7354,7 +7387,7 @@
       </c>
       <c r="AT10" s="13"/>
       <c r="AU10" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AV10" s="13" t="s">
         <v>199</v>
@@ -7363,7 +7396,7 @@
         <v>208</v>
       </c>
       <c r="AX10" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AY10" s="13"/>
       <c r="AZ10" s="13"/>
@@ -7470,7 +7503,7 @@
       </c>
       <c r="Y11" s="13"/>
       <c r="Z11" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AA11" s="13">
         <v>2</v>
@@ -7500,7 +7533,7 @@
       </c>
       <c r="AK11" s="13"/>
       <c r="AL11" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AM11" s="13" t="s">
         <v>232</v>
@@ -7509,10 +7542,10 @@
         <v>162</v>
       </c>
       <c r="AO11" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AP11" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AQ11" s="13" t="s">
         <v>164</v>
@@ -7525,7 +7558,7 @@
       </c>
       <c r="AT11" s="13"/>
       <c r="AU11" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AV11" s="13" t="s">
         <v>199</v>
@@ -7534,7 +7567,7 @@
         <v>207</v>
       </c>
       <c r="AX11" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AY11" s="13"/>
       <c r="AZ11" s="13"/>
@@ -7640,10 +7673,10 @@
         <v>113</v>
       </c>
       <c r="Y12" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z12" s="13" t="s">
         <v>448</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>449</v>
       </c>
       <c r="AA12" s="13">
         <v>2</v>
@@ -7673,7 +7706,7 @@
       </c>
       <c r="AK12" s="13"/>
       <c r="AL12" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AM12" s="13" t="s">
         <v>232</v>
@@ -7682,7 +7715,7 @@
         <v>162</v>
       </c>
       <c r="AO12" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AP12" s="13" t="s">
         <v>374</v>
@@ -7698,7 +7731,7 @@
       </c>
       <c r="AT12" s="13"/>
       <c r="AU12" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AV12" s="13" t="s">
         <v>199</v>
@@ -7707,7 +7740,7 @@
         <v>209</v>
       </c>
       <c r="AX12" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AY12" s="13"/>
       <c r="AZ12" s="13"/>
@@ -7818,7 +7851,7 @@
       </c>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AA13" s="20">
         <v>2</v>
@@ -7831,7 +7864,7 @@
       </c>
       <c r="AD13" s="20"/>
       <c r="AE13" s="20" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="AF13" s="20">
         <v>4.2</v>
@@ -7852,7 +7885,7 @@
         <v>148</v>
       </c>
       <c r="AL13" s="26" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="AM13" s="20" t="s">
         <v>232</v>
@@ -7861,7 +7894,7 @@
         <v>162</v>
       </c>
       <c r="AO13" s="20" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="AP13" s="20" t="s">
         <v>374</v>
@@ -7876,10 +7909,10 @@
         <v>189</v>
       </c>
       <c r="AT13" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AU13" s="20" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="AV13" s="20" t="s">
         <v>237</v>
@@ -7888,7 +7921,7 @@
         <v>210</v>
       </c>
       <c r="AX13" s="20" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="AY13" s="20"/>
       <c r="AZ13" s="20"/>
@@ -7999,7 +8032,7 @@
       </c>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AA14" s="20">
         <v>2</v>
@@ -8012,7 +8045,7 @@
       </c>
       <c r="AD14" s="20"/>
       <c r="AE14" s="20" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="AF14" s="20">
         <v>4.2</v>
@@ -8027,7 +8060,7 @@
       <c r="AJ14" s="20"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="26" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="AM14" s="20" t="s">
         <v>232</v>
@@ -8036,7 +8069,7 @@
         <v>162</v>
       </c>
       <c r="AO14" s="20" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="AP14" s="20" t="s">
         <v>374</v>
@@ -8051,10 +8084,10 @@
         <v>189</v>
       </c>
       <c r="AT14" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AU14" s="20" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="AV14" s="20" t="s">
         <v>237</v>
@@ -8063,7 +8096,7 @@
         <v>208</v>
       </c>
       <c r="AX14" s="20" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="AY14" s="20"/>
       <c r="AZ14" s="20"/>
@@ -8174,7 +8207,7 @@
       </c>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AA15" s="20">
         <v>2</v>
@@ -8187,7 +8220,7 @@
       </c>
       <c r="AD15" s="20"/>
       <c r="AE15" s="20" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="AF15" s="20">
         <v>4.2</v>
@@ -8211,7 +8244,7 @@
         <v>162</v>
       </c>
       <c r="AO15" s="20" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="AP15" s="20" t="s">
         <v>374</v>
@@ -8226,10 +8259,10 @@
         <v>189</v>
       </c>
       <c r="AT15" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AU15" s="20" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="AV15" s="20" t="s">
         <v>237</v>
@@ -8238,7 +8271,7 @@
         <v>208</v>
       </c>
       <c r="AX15" s="22" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="AY15" s="20"/>
       <c r="AZ15" s="20"/>
@@ -8343,7 +8376,7 @@
       </c>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20">
@@ -8371,14 +8404,14 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AM16" s="20" t="s">
         <v>234</v>
       </c>
       <c r="AN16" s="20"/>
       <c r="AO16" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AP16" s="20" t="s">
         <v>374</v>
@@ -8389,10 +8422,10 @@
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
       <c r="AT16" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU16" s="20" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="AV16" s="20" t="s">
         <v>237</v>
@@ -8401,7 +8434,7 @@
         <v>210</v>
       </c>
       <c r="AX16" s="20" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="AY16" s="20"/>
       <c r="AZ16" s="20"/>
@@ -8506,7 +8539,7 @@
       </c>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20">
@@ -8534,14 +8567,14 @@
       <c r="AJ17" s="20"/>
       <c r="AK17" s="20"/>
       <c r="AL17" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AM17" s="20" t="s">
         <v>234</v>
       </c>
       <c r="AN17" s="20"/>
       <c r="AO17" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AP17" s="20" t="s">
         <v>374</v>
@@ -8552,10 +8585,10 @@
       <c r="AR17" s="20"/>
       <c r="AS17" s="20"/>
       <c r="AT17" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU17" s="20" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="AV17" s="20" t="s">
         <v>213</v>
@@ -8564,7 +8597,7 @@
         <v>210</v>
       </c>
       <c r="AX17" s="20" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="AY17" s="20"/>
       <c r="AZ17" s="20"/>
@@ -8710,7 +8743,7 @@
       </c>
       <c r="AN18" s="13"/>
       <c r="AO18" s="13" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="AP18" s="13" t="s">
         <v>393</v>
@@ -9136,14 +9169,14 @@
         <v>148</v>
       </c>
       <c r="AL21" s="21" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="AM21" s="20" t="s">
         <v>233</v>
       </c>
       <c r="AN21" s="20"/>
       <c r="AO21" s="20" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="AP21" s="20" t="s">
         <v>404</v>
@@ -9166,7 +9199,7 @@
         <v>207</v>
       </c>
       <c r="AX21" s="22" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="AY21" s="20"/>
       <c r="AZ21" s="20"/>
@@ -9313,14 +9346,14 @@
         <v>148</v>
       </c>
       <c r="AL22" s="21" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="AM22" s="20" t="s">
         <v>233</v>
       </c>
       <c r="AN22" s="20"/>
       <c r="AO22" s="20" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="AP22" s="20" t="s">
         <v>404</v>
@@ -9343,7 +9376,7 @@
         <v>207</v>
       </c>
       <c r="AX22" s="22" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="AY22" s="20"/>
       <c r="AZ22" s="20"/>
@@ -9571,7 +9604,7 @@
       </c>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20">
@@ -9581,10 +9614,10 @@
         <v>3</v>
       </c>
       <c r="AD24" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AE24" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF24" s="20" t="s">
         <v>374</v>
@@ -9601,14 +9634,14 @@
       <c r="AJ24" s="20"/>
       <c r="AK24" s="20"/>
       <c r="AL24" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AM24" s="20" t="s">
         <v>234</v>
       </c>
       <c r="AN24" s="20"/>
       <c r="AO24" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AP24" s="20" t="s">
         <v>374</v>
@@ -9619,10 +9652,10 @@
       <c r="AR24" s="20"/>
       <c r="AS24" s="20"/>
       <c r="AT24" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="AU24" s="20" t="s">
         <v>462</v>
-      </c>
-      <c r="AU24" s="20" t="s">
-        <v>463</v>
       </c>
       <c r="AV24" s="20" t="s">
         <v>212</v>
@@ -9631,7 +9664,7 @@
         <v>210</v>
       </c>
       <c r="AX24" s="20" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="AY24" s="20"/>
       <c r="AZ24" s="20"/>
@@ -9734,7 +9767,7 @@
       </c>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AA25" s="20"/>
       <c r="AB25" s="20">
@@ -9744,10 +9777,10 @@
         <v>3</v>
       </c>
       <c r="AD25" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AE25" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF25" s="20" t="s">
         <v>374</v>
@@ -9764,14 +9797,14 @@
       <c r="AJ25" s="20"/>
       <c r="AK25" s="20"/>
       <c r="AL25" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AM25" s="20" t="s">
         <v>234</v>
       </c>
       <c r="AN25" s="20"/>
       <c r="AO25" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AP25" s="20" t="s">
         <v>374</v>
@@ -9782,10 +9815,10 @@
       <c r="AR25" s="20"/>
       <c r="AS25" s="20"/>
       <c r="AT25" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="AU25" s="20" t="s">
         <v>462</v>
-      </c>
-      <c r="AU25" s="20" t="s">
-        <v>463</v>
       </c>
       <c r="AV25" s="20" t="s">
         <v>212</v>
@@ -9794,7 +9827,7 @@
         <v>210</v>
       </c>
       <c r="AX25" s="20" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="AY25" s="20"/>
       <c r="AZ25" s="20"/>
@@ -9897,7 +9930,7 @@
       </c>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20">
@@ -9907,10 +9940,10 @@
         <v>3</v>
       </c>
       <c r="AD26" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AE26" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF26" s="20" t="s">
         <v>374</v>
@@ -9927,14 +9960,14 @@
       <c r="AJ26" s="20"/>
       <c r="AK26" s="20"/>
       <c r="AL26" s="21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AM26" s="20" t="s">
         <v>234</v>
       </c>
       <c r="AN26" s="20"/>
       <c r="AO26" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AP26" s="20" t="s">
         <v>374</v>
@@ -9945,10 +9978,10 @@
       <c r="AR26" s="20"/>
       <c r="AS26" s="20"/>
       <c r="AT26" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="AU26" s="20" t="s">
         <v>462</v>
-      </c>
-      <c r="AU26" s="20" t="s">
-        <v>463</v>
       </c>
       <c r="AV26" s="20" t="s">
         <v>212</v>
@@ -9957,7 +9990,7 @@
         <v>210</v>
       </c>
       <c r="AX26" s="20" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="AY26" s="20"/>
       <c r="AZ26" s="20"/>
@@ -10060,7 +10093,7 @@
       </c>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20">
@@ -10070,10 +10103,10 @@
         <v>3</v>
       </c>
       <c r="AD27" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AE27" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF27" s="20" t="s">
         <v>374</v>
@@ -10090,14 +10123,14 @@
       <c r="AJ27" s="20"/>
       <c r="AK27" s="20"/>
       <c r="AL27" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AM27" s="20" t="s">
         <v>234</v>
       </c>
       <c r="AN27" s="20"/>
       <c r="AO27" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AP27" s="20" t="s">
         <v>374</v>
@@ -10108,10 +10141,10 @@
       <c r="AR27" s="20"/>
       <c r="AS27" s="20"/>
       <c r="AT27" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="AU27" s="20" t="s">
         <v>462</v>
-      </c>
-      <c r="AU27" s="20" t="s">
-        <v>463</v>
       </c>
       <c r="AV27" s="20" t="s">
         <v>238</v>
@@ -10120,7 +10153,7 @@
         <v>210</v>
       </c>
       <c r="AX27" s="20" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="AY27" s="20"/>
       <c r="AZ27" s="20"/>
@@ -10223,7 +10256,7 @@
       </c>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20">
@@ -10233,10 +10266,10 @@
         <v>3</v>
       </c>
       <c r="AD28" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AE28" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF28" s="20" t="s">
         <v>374</v>
@@ -10253,14 +10286,14 @@
       <c r="AJ28" s="20"/>
       <c r="AK28" s="20"/>
       <c r="AL28" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AM28" s="20" t="s">
         <v>234</v>
       </c>
       <c r="AN28" s="20"/>
       <c r="AO28" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AP28" s="20" t="s">
         <v>374</v>
@@ -10271,10 +10304,10 @@
       <c r="AR28" s="20"/>
       <c r="AS28" s="20"/>
       <c r="AT28" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="AU28" s="20" t="s">
         <v>462</v>
-      </c>
-      <c r="AU28" s="20" t="s">
-        <v>463</v>
       </c>
       <c r="AV28" s="20" t="s">
         <v>238</v>
@@ -10283,7 +10316,7 @@
         <v>210</v>
       </c>
       <c r="AX28" s="20" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="AY28" s="20"/>
       <c r="AZ28" s="20"/>
@@ -10386,7 +10419,7 @@
       </c>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20">
@@ -10396,10 +10429,10 @@
         <v>3</v>
       </c>
       <c r="AD29" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AE29" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF29" s="20" t="s">
         <v>374</v>
@@ -10416,14 +10449,14 @@
       <c r="AJ29" s="20"/>
       <c r="AK29" s="20"/>
       <c r="AL29" s="21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AM29" s="20" t="s">
         <v>234</v>
       </c>
       <c r="AN29" s="20"/>
       <c r="AO29" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AP29" s="20" t="s">
         <v>374</v>
@@ -10434,10 +10467,10 @@
       <c r="AR29" s="20"/>
       <c r="AS29" s="20"/>
       <c r="AT29" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="AU29" s="20" t="s">
         <v>462</v>
-      </c>
-      <c r="AU29" s="20" t="s">
-        <v>463</v>
       </c>
       <c r="AV29" s="20" t="s">
         <v>238</v>
@@ -10446,7 +10479,7 @@
         <v>210</v>
       </c>
       <c r="AX29" s="20" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="AY29" s="20"/>
       <c r="AZ29" s="20"/>
@@ -10568,7 +10601,7 @@
       </c>
       <c r="AD30" s="20"/>
       <c r="AE30" s="20" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="AF30" s="20">
         <v>4.3</v>
@@ -10594,7 +10627,7 @@
       </c>
       <c r="AN30" s="20"/>
       <c r="AO30" s="20" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="AP30" s="20" t="s">
         <v>374</v>
@@ -10606,7 +10639,7 @@
       <c r="AS30" s="20"/>
       <c r="AT30" s="20"/>
       <c r="AU30" s="20" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="AV30" s="20" t="s">
         <v>113</v>
@@ -10615,7 +10648,7 @@
         <v>208</v>
       </c>
       <c r="AX30" s="20" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="AY30" s="20"/>
       <c r="AZ30" s="20"/>
@@ -10737,7 +10770,7 @@
       </c>
       <c r="AD31" s="20"/>
       <c r="AE31" s="20" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="AF31" s="20">
         <v>4.3</v>
@@ -10763,7 +10796,7 @@
       </c>
       <c r="AN31" s="20"/>
       <c r="AO31" s="20" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="AP31" s="20" t="s">
         <v>374</v>
@@ -10775,7 +10808,7 @@
       <c r="AS31" s="20"/>
       <c r="AT31" s="20"/>
       <c r="AU31" s="20" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="AV31" s="20" t="s">
         <v>113</v>
@@ -10784,7 +10817,7 @@
         <v>207</v>
       </c>
       <c r="AX31" s="22" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="AY31" s="20"/>
       <c r="AZ31" s="20"/>
@@ -10906,7 +10939,7 @@
       </c>
       <c r="AD32" s="20"/>
       <c r="AE32" s="20" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="AF32" s="20">
         <v>4.3</v>
@@ -10932,7 +10965,7 @@
       </c>
       <c r="AN32" s="20"/>
       <c r="AO32" s="20" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="AP32" s="20" t="s">
         <v>374</v>
@@ -10946,7 +10979,7 @@
       <c r="AS32" s="20"/>
       <c r="AT32" s="20"/>
       <c r="AU32" s="20" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="AV32" s="20" t="s">
         <v>113</v>
@@ -10955,7 +10988,7 @@
         <v>208</v>
       </c>
       <c r="AX32" s="22" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="AY32" s="20"/>
       <c r="AZ32" s="20"/>
@@ -11059,7 +11092,7 @@
       <c r="AC33" s="20"/>
       <c r="AD33" s="20"/>
       <c r="AE33" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF33" s="20">
         <v>4.4000000000000004</v>
@@ -11186,7 +11219,7 @@
       <c r="AC34" s="20"/>
       <c r="AD34" s="20"/>
       <c r="AE34" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF34" s="20" t="s">
         <v>374</v>
@@ -11373,7 +11406,7 @@
       </c>
       <c r="AT35" s="20"/>
       <c r="AU35" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AV35" s="20" t="s">
         <v>212</v>
@@ -11382,7 +11415,7 @@
         <v>209</v>
       </c>
       <c r="AX35" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AY35" s="20"/>
       <c r="AZ35" s="20"/>
@@ -11887,7 +11920,7 @@
         <v>207</v>
       </c>
       <c r="AX38" s="20" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="AY38" s="20"/>
       <c r="AZ38" s="20"/>
@@ -12156,7 +12189,7 @@
       <c r="AC40" s="20"/>
       <c r="AD40" s="20"/>
       <c r="AE40" s="20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AF40" s="20">
         <v>4.2</v>
@@ -12219,22 +12252,22 @@
     </row>
     <row r="41" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C41" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>475</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>476</v>
       </c>
       <c r="E41" s="20">
         <v>2012</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
@@ -12245,17 +12278,17 @@
         <v>829</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L41" s="20"/>
       <c r="M41" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N41" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P41" s="20"/>
       <c r="Q41" s="20" t="s">
@@ -12277,7 +12310,7 @@
       <c r="AC41" s="20"/>
       <c r="AD41" s="20"/>
       <c r="AE41" s="20" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AF41" s="20" t="s">
         <v>373</v>
@@ -12340,16 +12373,16 @@
     </row>
     <row r="42" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C42" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>482</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>483</v>
       </c>
       <c r="E42" s="20">
         <v>2010</v>
@@ -12370,11 +12403,11 @@
         <v>2440</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L42" s="20"/>
       <c r="M42" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N42" s="20" t="s">
         <v>249</v>
@@ -12407,7 +12440,7 @@
       </c>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AA42" s="20">
         <v>2</v>
@@ -12433,7 +12466,7 @@
       <c r="AJ42" s="20"/>
       <c r="AK42" s="20"/>
       <c r="AL42" s="20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AM42" s="20" t="s">
         <v>232</v>
@@ -12442,10 +12475,10 @@
         <v>160</v>
       </c>
       <c r="AO42" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AP42" s="20" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="AQ42" s="20" t="s">
         <v>165</v>
@@ -12458,7 +12491,7 @@
       </c>
       <c r="AT42" s="20"/>
       <c r="AU42" s="20" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AV42" s="20" t="s">
         <v>203</v>
@@ -12467,7 +12500,7 @@
         <v>209</v>
       </c>
       <c r="AX42" s="22" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="AY42" s="20"/>
       <c r="AZ42" s="20"/>
@@ -12509,16 +12542,16 @@
     </row>
     <row r="43" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C43" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>482</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>483</v>
       </c>
       <c r="E43" s="20">
         <v>2010</v>
@@ -12539,11 +12572,11 @@
         <v>2440</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L43" s="20"/>
       <c r="M43" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N43" s="20" t="s">
         <v>249</v>
@@ -12576,7 +12609,7 @@
       </c>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AA43" s="20">
         <v>2</v>
@@ -12604,7 +12637,7 @@
       <c r="AJ43" s="20"/>
       <c r="AK43" s="20"/>
       <c r="AL43" s="20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AM43" s="20" t="s">
         <v>232</v>
@@ -12613,10 +12646,10 @@
         <v>160</v>
       </c>
       <c r="AO43" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AP43" s="20" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="AQ43" s="20" t="s">
         <v>165</v>
@@ -12629,7 +12662,7 @@
       </c>
       <c r="AT43" s="20"/>
       <c r="AU43" s="20" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AV43" s="20" t="s">
         <v>203</v>
@@ -12638,7 +12671,7 @@
         <v>209</v>
       </c>
       <c r="AX43" s="22" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="AY43" s="20"/>
       <c r="AZ43" s="20"/>
@@ -12680,22 +12713,22 @@
     </row>
     <row r="44" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C44" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="D44" s="20" t="s">
         <v>487</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>488</v>
       </c>
       <c r="E44" s="20">
         <v>2010</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G44" s="20">
         <v>157</v>
@@ -12710,11 +12743,11 @@
         <v>2381</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L44" s="20"/>
       <c r="M44" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N44" s="20" t="s">
         <v>249</v>
@@ -12747,7 +12780,7 @@
       </c>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AA44" s="20">
         <v>2</v>
@@ -12759,7 +12792,7 @@
         <v>3</v>
       </c>
       <c r="AD44" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AE44" s="20"/>
       <c r="AF44" s="20">
@@ -12777,17 +12810,17 @@
       <c r="AJ44" s="20"/>
       <c r="AK44" s="20"/>
       <c r="AL44" s="24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AM44" s="20" t="s">
         <v>233</v>
       </c>
       <c r="AN44" s="20"/>
       <c r="AO44" s="20" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP44" s="20" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AQ44" s="20" t="s">
         <v>164</v>
@@ -12800,7 +12833,7 @@
       </c>
       <c r="AT44" s="20"/>
       <c r="AU44" s="20" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AV44" s="20" t="s">
         <v>200</v>
@@ -12809,7 +12842,7 @@
         <v>209</v>
       </c>
       <c r="AX44" s="22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AY44" s="20"/>
       <c r="AZ44" s="20"/>
@@ -12851,22 +12884,22 @@
     </row>
     <row r="45" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C45" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="D45" s="20" t="s">
         <v>487</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>488</v>
       </c>
       <c r="E45" s="20">
         <v>2010</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G45" s="20">
         <v>157</v>
@@ -12881,11 +12914,11 @@
         <v>2381</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N45" s="20" t="s">
         <v>249</v>
@@ -12918,7 +12951,7 @@
       </c>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AA45" s="20">
         <v>2</v>
@@ -12930,7 +12963,7 @@
         <v>3</v>
       </c>
       <c r="AD45" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AE45" s="20"/>
       <c r="AF45" s="20">
@@ -12948,17 +12981,17 @@
       <c r="AJ45" s="20"/>
       <c r="AK45" s="20"/>
       <c r="AL45" s="24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AM45" s="20" t="s">
         <v>233</v>
       </c>
       <c r="AN45" s="20"/>
       <c r="AO45" s="20" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP45" s="20" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AQ45" s="20" t="s">
         <v>164</v>
@@ -12971,7 +13004,7 @@
       </c>
       <c r="AT45" s="20"/>
       <c r="AU45" s="20" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AV45" s="20" t="s">
         <v>200</v>
@@ -12980,7 +13013,7 @@
         <v>209</v>
       </c>
       <c r="AX45" s="22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AY45" s="20"/>
       <c r="AZ45" s="20"/>
@@ -13022,16 +13055,16 @@
     </row>
     <row r="46" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C46" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="D46" s="20" t="s">
         <v>493</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>494</v>
       </c>
       <c r="E46" s="20">
         <v>2010</v>
@@ -13052,11 +13085,11 @@
         <v>417</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L46" s="20"/>
       <c r="M46" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N46" s="20" t="s">
         <v>249</v>
@@ -13088,10 +13121,10 @@
         <v>75</v>
       </c>
       <c r="Y46" s="20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="Z46" s="20" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AA46" s="20">
         <v>2</v>
@@ -13117,14 +13150,14 @@
       <c r="AJ46" s="20"/>
       <c r="AK46" s="20"/>
       <c r="AL46" s="21" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM46" s="20" t="s">
         <v>233</v>
       </c>
       <c r="AN46" s="20"/>
       <c r="AO46" s="20" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="AP46" s="20" t="s">
         <v>374</v>
@@ -13138,7 +13171,7 @@
       <c r="AS46" s="20"/>
       <c r="AT46" s="20"/>
       <c r="AU46" s="20" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AV46" s="20" t="s">
         <v>203</v>
@@ -13147,7 +13180,7 @@
         <v>209</v>
       </c>
       <c r="AX46" s="22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AY46" s="20"/>
       <c r="AZ46" s="20"/>
@@ -13189,16 +13222,16 @@
     </row>
     <row r="47" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C47" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="D47" s="20" t="s">
         <v>493</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>494</v>
       </c>
       <c r="E47" s="20">
         <v>2010</v>
@@ -13219,11 +13252,11 @@
         <v>417</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L47" s="20"/>
       <c r="M47" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N47" s="20" t="s">
         <v>249</v>
@@ -13255,10 +13288,10 @@
         <v>75</v>
       </c>
       <c r="Y47" s="20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="Z47" s="20" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AA47" s="20">
         <v>2</v>
@@ -13286,14 +13319,14 @@
       <c r="AJ47" s="20"/>
       <c r="AK47" s="20"/>
       <c r="AL47" s="21" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM47" s="20" t="s">
         <v>233</v>
       </c>
       <c r="AN47" s="20"/>
       <c r="AO47" s="20" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="AP47" s="20" t="s">
         <v>374</v>
@@ -13307,7 +13340,7 @@
       <c r="AS47" s="20"/>
       <c r="AT47" s="20"/>
       <c r="AU47" s="20" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AV47" s="20" t="s">
         <v>203</v>
@@ -13316,7 +13349,7 @@
         <v>209</v>
       </c>
       <c r="AX47" s="22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AY47" s="20"/>
       <c r="AZ47" s="20"/>
@@ -13358,16 +13391,16 @@
     </row>
     <row r="48" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C48" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="D48" s="20" t="s">
         <v>498</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>499</v>
       </c>
       <c r="E48" s="20">
         <v>2008</v>
@@ -13388,11 +13421,11 @@
         <v>1183</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L48" s="20"/>
       <c r="M48" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N48" s="20" t="s">
         <v>249</v>
@@ -13401,7 +13434,7 @@
         <v>250</v>
       </c>
       <c r="P48" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q48" s="20" t="s">
         <v>21</v>
@@ -13427,7 +13460,7 @@
       </c>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AA48" s="20">
         <v>2</v>
@@ -13455,7 +13488,7 @@
       <c r="AJ48" s="20"/>
       <c r="AK48" s="20"/>
       <c r="AL48" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AM48" s="20" t="s">
         <v>232</v>
@@ -13464,7 +13497,7 @@
         <v>160</v>
       </c>
       <c r="AO48" s="20" t="s">
-        <v>605</v>
+        <v>726</v>
       </c>
       <c r="AP48" s="20" t="s">
         <v>400</v>
@@ -13478,16 +13511,16 @@
       <c r="AS48" s="20"/>
       <c r="AT48" s="20"/>
       <c r="AU48" s="20" t="s">
-        <v>606</v>
+        <v>722</v>
       </c>
       <c r="AV48" s="20" t="s">
         <v>199</v>
       </c>
       <c r="AW48" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX48" s="22" t="s">
-        <v>607</v>
+        <v>725</v>
       </c>
       <c r="AY48" s="20"/>
       <c r="AZ48" s="20"/>
@@ -13529,41 +13562,41 @@
     </row>
     <row r="49" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="20" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="E49" s="20">
         <v>2008</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>506</v>
+        <v>246</v>
       </c>
       <c r="G49" s="20">
-        <v>72</v>
-      </c>
-      <c r="H49" s="25">
-        <v>44652</v>
+        <v>65</v>
+      </c>
+      <c r="H49" s="20">
+        <v>7</v>
       </c>
       <c r="I49" s="20">
-        <v>2</v>
+        <v>1175</v>
       </c>
       <c r="J49" s="20">
-        <v>16</v>
+        <v>1183</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="L49" s="20"/>
       <c r="M49" s="20" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="N49" s="20" t="s">
         <v>249</v>
@@ -13571,34 +13604,37 @@
       <c r="O49" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="P49" s="20"/>
+      <c r="P49" s="20" t="s">
+        <v>501</v>
+      </c>
       <c r="Q49" s="20" t="s">
         <v>21</v>
       </c>
       <c r="R49" s="20"/>
       <c r="S49" s="20" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T49" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U49" s="20" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="V49" s="20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W49" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X49" s="20" t="s">
         <v>215</v>
       </c>
+      <c r="Y49" s="20"/>
       <c r="Z49" s="20" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="AA49" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB49" s="20">
         <v>2</v>
@@ -13607,37 +13643,35 @@
         <v>2</v>
       </c>
       <c r="AD49" s="20"/>
-      <c r="AE49" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="AF49" s="20">
-        <v>4.3</v>
+      <c r="AE49" s="20"/>
+      <c r="AF49" s="20" t="s">
+        <v>374</v>
       </c>
       <c r="AG49" s="20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH49" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI49" s="20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AJ49" s="20"/>
-      <c r="AK49" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL49" s="20" t="s">
-        <v>611</v>
+      <c r="AK49" s="20"/>
+      <c r="AL49" s="24" t="s">
+        <v>603</v>
       </c>
       <c r="AM49" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN49" s="20"/>
+        <v>232</v>
+      </c>
+      <c r="AN49" s="20" t="s">
+        <v>160</v>
+      </c>
       <c r="AO49" s="20" t="s">
-        <v>610</v>
+        <v>726</v>
       </c>
       <c r="AP49" s="20" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="AQ49" s="20" t="s">
         <v>164</v>
@@ -13645,21 +13679,19 @@
       <c r="AR49" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="AS49" s="20" t="s">
-        <v>175</v>
-      </c>
+      <c r="AS49" s="20"/>
       <c r="AT49" s="20"/>
       <c r="AU49" s="20" t="s">
-        <v>612</v>
+        <v>723</v>
       </c>
       <c r="AV49" s="20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AW49" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AX49" s="22" t="s">
-        <v>613</v>
+        <v>724</v>
       </c>
       <c r="AY49" s="20"/>
       <c r="AZ49" s="20"/>
@@ -13701,16 +13733,16 @@
     </row>
     <row r="50" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="20" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="E50" s="20">
         <v>2008</v>
@@ -13722,20 +13754,20 @@
         <v>65</v>
       </c>
       <c r="H50" s="20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I50" s="20">
-        <v>605</v>
+        <v>1175</v>
       </c>
       <c r="J50" s="20">
-        <v>611</v>
+        <v>1183</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="L50" s="20"/>
       <c r="M50" s="20" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="N50" s="20" t="s">
         <v>249</v>
@@ -13744,50 +13776,94 @@
         <v>250</v>
       </c>
       <c r="P50" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q50" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="R50" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="S50" s="20"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="20"/>
-      <c r="X50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T50" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="U50" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V50" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="W50" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="X50" s="20" t="s">
+        <v>215</v>
+      </c>
       <c r="Y50" s="20"/>
-      <c r="Z50" s="20"/>
-      <c r="AA50" s="20"/>
-      <c r="AB50" s="20"/>
-      <c r="AC50" s="20"/>
+      <c r="Z50" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA50" s="20">
+        <v>2</v>
+      </c>
+      <c r="AB50" s="20">
+        <v>2</v>
+      </c>
+      <c r="AC50" s="20">
+        <v>2</v>
+      </c>
       <c r="AD50" s="20"/>
-      <c r="AE50" s="20" t="s">
-        <v>614</v>
-      </c>
+      <c r="AE50" s="20"/>
       <c r="AF50" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="AG50" s="20"/>
-      <c r="AH50" s="20"/>
-      <c r="AI50" s="20"/>
+      <c r="AG50" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH50" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI50" s="20" t="s">
+        <v>144</v>
+      </c>
       <c r="AJ50" s="20"/>
       <c r="AK50" s="20"/>
-      <c r="AL50" s="20"/>
-      <c r="AM50" s="20"/>
-      <c r="AN50" s="20"/>
-      <c r="AO50" s="20"/>
-      <c r="AP50" s="20"/>
-      <c r="AQ50" s="20"/>
-      <c r="AR50" s="20"/>
+      <c r="AL50" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="AM50" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN50" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO50" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="AP50" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="AQ50" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR50" s="20" t="s">
+        <v>239</v>
+      </c>
       <c r="AS50" s="20"/>
       <c r="AT50" s="20"/>
-      <c r="AU50" s="20"/>
-      <c r="AV50" s="20"/>
-      <c r="AW50" s="20"/>
-      <c r="AX50" s="20"/>
+      <c r="AU50" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="AV50" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW50" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX50" s="22" t="s">
+        <v>728</v>
+      </c>
       <c r="AY50" s="20"/>
       <c r="AZ50" s="20"/>
       <c r="BA50" s="20"/>
@@ -13828,39 +13904,41 @@
     </row>
     <row r="51" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="20" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="E51" s="20">
         <v>2008</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>300</v>
+        <v>505</v>
       </c>
       <c r="G51" s="20">
-        <v>355</v>
-      </c>
-      <c r="H51" s="20"/>
+        <v>72</v>
+      </c>
+      <c r="H51" s="25">
+        <v>44652</v>
+      </c>
       <c r="I51" s="20">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="J51" s="20">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="K51" s="20" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="L51" s="20"/>
       <c r="M51" s="20" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="N51" s="20" t="s">
         <v>249</v>
@@ -13868,69 +13946,70 @@
       <c r="O51" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="P51" s="20" t="s">
-        <v>502</v>
-      </c>
+      <c r="P51" s="20"/>
       <c r="Q51" s="20" t="s">
         <v>21</v>
       </c>
       <c r="R51" s="20"/>
       <c r="S51" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T51" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U51" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="V51" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W51" s="20" t="s">
-        <v>214</v>
+        <v>51</v>
       </c>
       <c r="X51" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="Y51" s="20"/>
-      <c r="Z51" s="22" t="s">
-        <v>615</v>
+      <c r="Z51" s="20" t="s">
+        <v>605</v>
       </c>
       <c r="AA51" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB51" s="20">
         <v>2</v>
       </c>
       <c r="AC51" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD51" s="20"/>
-      <c r="AE51" s="20"/>
+      <c r="AE51" s="20" t="s">
+        <v>604</v>
+      </c>
       <c r="AF51" s="20">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG51" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH51" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI51" s="20"/>
+        <v>120</v>
+      </c>
+      <c r="AI51" s="20" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ51" s="20"/>
-      <c r="AK51" s="20"/>
+      <c r="AK51" s="20" t="s">
+        <v>148</v>
+      </c>
       <c r="AL51" s="20" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="AM51" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN51" s="20" t="s">
-        <v>160</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="AN51" s="20"/>
       <c r="AO51" s="20" t="s">
-        <v>616</v>
+        <v>738</v>
       </c>
       <c r="AP51" s="20" t="s">
         <v>374</v>
@@ -13941,21 +14020,21 @@
       <c r="AR51" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="AS51" s="20"/>
-      <c r="AT51" s="20" t="s">
-        <v>618</v>
-      </c>
+      <c r="AS51" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT51" s="20"/>
       <c r="AU51" s="20" t="s">
-        <v>620</v>
+        <v>734</v>
       </c>
       <c r="AV51" s="20" t="s">
         <v>199</v>
       </c>
       <c r="AW51" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX51" s="22" t="s">
-        <v>619</v>
+        <v>735</v>
       </c>
       <c r="AY51" s="20"/>
       <c r="AZ51" s="20"/>
@@ -13997,39 +14076,41 @@
     </row>
     <row r="52" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="20" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="E52" s="20">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="G52" s="20">
-        <v>93</v>
-      </c>
-      <c r="H52" s="20">
+        <v>72</v>
+      </c>
+      <c r="H52" s="25">
+        <v>44652</v>
+      </c>
+      <c r="I52" s="20">
         <v>2</v>
       </c>
-      <c r="I52" s="20">
-        <v>199</v>
-      </c>
       <c r="J52" s="20">
-        <v>212</v>
-      </c>
-      <c r="K52" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="K52" s="20" t="s">
+        <v>506</v>
+      </c>
       <c r="L52" s="20"/>
       <c r="M52" s="20" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="N52" s="20" t="s">
         <v>249</v>
@@ -14046,85 +14127,86 @@
         <v>25</v>
       </c>
       <c r="T52" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U52" s="20" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="V52" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W52" s="20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="X52" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y52" s="20"/>
+        <v>215</v>
+      </c>
       <c r="Z52" s="20" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="AA52" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB52" s="20">
         <v>2</v>
       </c>
       <c r="AC52" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD52" s="20"/>
-      <c r="AE52" s="20"/>
-      <c r="AF52" s="20" t="s">
+      <c r="AE52" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="AF52" s="20">
+        <v>4.3</v>
+      </c>
+      <c r="AG52" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH52" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI52" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ52" s="20"/>
+      <c r="AK52" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL52" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="AM52" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN52" s="20"/>
+      <c r="AO52" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="AP52" s="20" t="s">
         <v>374</v>
-      </c>
-      <c r="AG52" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH52" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI52" s="20"/>
-      <c r="AJ52" s="20"/>
-      <c r="AK52" s="20"/>
-      <c r="AL52" s="21" t="s">
-        <v>624</v>
-      </c>
-      <c r="AM52" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN52" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO52" s="20" t="s">
-        <v>623</v>
-      </c>
-      <c r="AP52" s="20" t="s">
-        <v>626</v>
       </c>
       <c r="AQ52" s="20" t="s">
         <v>164</v>
       </c>
       <c r="AR52" s="20" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS52" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="AT52" s="20" t="s">
-        <v>622</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AT52" s="20"/>
       <c r="AU52" s="20" t="s">
-        <v>625</v>
+        <v>732</v>
       </c>
       <c r="AV52" s="20" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="AW52" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="AX52" s="20" t="s">
-        <v>685</v>
+      <c r="AX52" s="22" t="s">
+        <v>736</v>
       </c>
       <c r="AY52" s="20"/>
       <c r="AZ52" s="20"/>
@@ -14166,39 +14248,41 @@
     </row>
     <row r="53" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="20" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="E53" s="20">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="G53" s="20">
-        <v>93</v>
-      </c>
-      <c r="H53" s="20">
+        <v>72</v>
+      </c>
+      <c r="H53" s="25">
+        <v>44652</v>
+      </c>
+      <c r="I53" s="20">
         <v>2</v>
       </c>
-      <c r="I53" s="20">
-        <v>199</v>
-      </c>
       <c r="J53" s="20">
-        <v>212</v>
-      </c>
-      <c r="K53" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="K53" s="20" t="s">
+        <v>506</v>
+      </c>
       <c r="L53" s="20"/>
       <c r="M53" s="20" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="N53" s="20" t="s">
         <v>249</v>
@@ -14215,85 +14299,86 @@
         <v>25</v>
       </c>
       <c r="T53" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U53" s="20" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="V53" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W53" s="20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="X53" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y53" s="20"/>
+        <v>215</v>
+      </c>
       <c r="Z53" s="20" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="AA53" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB53" s="20">
         <v>2</v>
       </c>
       <c r="AC53" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD53" s="20"/>
-      <c r="AE53" s="20"/>
-      <c r="AF53" s="20" t="s">
+      <c r="AE53" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="AF53" s="20">
+        <v>4.3</v>
+      </c>
+      <c r="AG53" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH53" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI53" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ53" s="20"/>
+      <c r="AK53" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL53" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="AM53" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN53" s="20"/>
+      <c r="AO53" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="AP53" s="20" t="s">
         <v>374</v>
-      </c>
-      <c r="AG53" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH53" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI53" s="20"/>
-      <c r="AJ53" s="20"/>
-      <c r="AK53" s="20"/>
-      <c r="AL53" s="21" t="s">
-        <v>624</v>
-      </c>
-      <c r="AM53" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN53" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO53" s="20" t="s">
-        <v>623</v>
-      </c>
-      <c r="AP53" s="20" t="s">
-        <v>626</v>
       </c>
       <c r="AQ53" s="20" t="s">
         <v>164</v>
       </c>
       <c r="AR53" s="20" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS53" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="AT53" s="20" t="s">
-        <v>622</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AT53" s="20"/>
       <c r="AU53" s="20" t="s">
-        <v>627</v>
+        <v>733</v>
       </c>
       <c r="AV53" s="20" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW53" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX53" s="20" t="s">
-        <v>628</v>
+        <v>210</v>
+      </c>
+      <c r="AX53" s="22" t="s">
+        <v>737</v>
       </c>
       <c r="AY53" s="20"/>
       <c r="AZ53" s="20"/>
@@ -14335,41 +14420,41 @@
     </row>
     <row r="54" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="20" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="E54" s="20">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="G54" s="20">
-        <v>85</v>
-      </c>
-      <c r="H54" s="20">
-        <v>5</v>
+        <v>72</v>
+      </c>
+      <c r="H54" s="25">
+        <v>44652</v>
       </c>
       <c r="I54" s="20">
-        <v>1145</v>
+        <v>2</v>
       </c>
       <c r="J54" s="20">
-        <v>1150</v>
+        <v>16</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="L54" s="20"/>
       <c r="M54" s="20" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="N54" s="20" t="s">
         <v>249</v>
@@ -14386,13 +14471,13 @@
         <v>25</v>
       </c>
       <c r="T54" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U54" s="20" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="V54" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W54" s="20" t="s">
         <v>51</v>
@@ -14400,52 +14485,53 @@
       <c r="X54" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="Y54" s="20"/>
-      <c r="Z54" s="22" t="s">
-        <v>629</v>
+      <c r="Z54" s="20" t="s">
+        <v>605</v>
       </c>
       <c r="AA54" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB54" s="20">
         <v>2</v>
       </c>
       <c r="AC54" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD54" s="20"/>
-      <c r="AE54" s="20"/>
+      <c r="AE54" s="20" t="s">
+        <v>604</v>
+      </c>
       <c r="AF54" s="20">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AG54" s="20" t="s">
         <v>107</v>
       </c>
       <c r="AH54" s="20" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI54" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AJ54" s="20"/>
-      <c r="AK54" s="20"/>
-      <c r="AL54" s="24" t="s">
-        <v>630</v>
+      <c r="AK54" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL54" s="20" t="s">
+        <v>606</v>
       </c>
       <c r="AM54" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN54" s="20" t="s">
-        <v>162</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="AN54" s="20"/>
       <c r="AO54" s="20" t="s">
-        <v>631</v>
+        <v>738</v>
       </c>
       <c r="AP54" s="20" t="s">
         <v>374</v>
       </c>
       <c r="AQ54" s="20" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="AR54" s="20" t="s">
         <v>239</v>
@@ -14455,16 +14541,16 @@
       </c>
       <c r="AT54" s="20"/>
       <c r="AU54" s="20" t="s">
-        <v>625</v>
+        <v>238</v>
       </c>
       <c r="AV54" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AW54" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX54" s="22" t="s">
-        <v>717</v>
+        <v>731</v>
       </c>
       <c r="AY54" s="20"/>
       <c r="AZ54" s="20"/>
@@ -14506,41 +14592,41 @@
     </row>
     <row r="55" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="20" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="E55" s="20">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="G55" s="20">
-        <v>85</v>
-      </c>
-      <c r="H55" s="20">
-        <v>5</v>
+        <v>72</v>
+      </c>
+      <c r="H55" s="25">
+        <v>44652</v>
       </c>
       <c r="I55" s="20">
-        <v>1145</v>
+        <v>2</v>
       </c>
       <c r="J55" s="20">
-        <v>1150</v>
+        <v>16</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="L55" s="20"/>
       <c r="M55" s="20" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="N55" s="20" t="s">
         <v>249</v>
@@ -14557,13 +14643,13 @@
         <v>25</v>
       </c>
       <c r="T55" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U55" s="20" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="V55" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W55" s="20" t="s">
         <v>51</v>
@@ -14571,52 +14657,53 @@
       <c r="X55" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="Y55" s="20"/>
-      <c r="Z55" s="22" t="s">
-        <v>629</v>
+      <c r="Z55" s="20" t="s">
+        <v>605</v>
       </c>
       <c r="AA55" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB55" s="20">
         <v>2</v>
       </c>
       <c r="AC55" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD55" s="20"/>
-      <c r="AE55" s="20"/>
+      <c r="AE55" s="20" t="s">
+        <v>604</v>
+      </c>
       <c r="AF55" s="20">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AG55" s="20" t="s">
         <v>107</v>
       </c>
       <c r="AH55" s="20" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI55" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AJ55" s="20"/>
-      <c r="AK55" s="20"/>
-      <c r="AL55" s="24" t="s">
-        <v>630</v>
+      <c r="AK55" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL55" s="20" t="s">
+        <v>606</v>
       </c>
       <c r="AM55" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN55" s="20" t="s">
-        <v>162</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="AN55" s="20"/>
       <c r="AO55" s="20" t="s">
-        <v>715</v>
+        <v>738</v>
       </c>
       <c r="AP55" s="20" t="s">
         <v>374</v>
       </c>
       <c r="AQ55" s="20" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="AR55" s="20" t="s">
         <v>239</v>
@@ -14626,16 +14713,16 @@
       </c>
       <c r="AT55" s="20"/>
       <c r="AU55" s="20" t="s">
-        <v>625</v>
+        <v>729</v>
       </c>
       <c r="AV55" s="20" t="s">
-        <v>237</v>
+        <v>113</v>
       </c>
       <c r="AW55" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX55" s="22" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="AY55" s="20"/>
       <c r="AZ55" s="20"/>
@@ -14677,41 +14764,41 @@
     </row>
     <row r="56" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="20" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="E56" s="20">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>527</v>
+        <v>246</v>
       </c>
       <c r="G56" s="20">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="H56" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I56" s="20">
-        <v>1145</v>
+        <v>605</v>
       </c>
       <c r="J56" s="20">
-        <v>1150</v>
+        <v>611</v>
       </c>
       <c r="K56" s="20" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="L56" s="20"/>
       <c r="M56" s="20" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="N56" s="20" t="s">
         <v>249</v>
@@ -14719,95 +14806,51 @@
       <c r="O56" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="P56" s="20"/>
+      <c r="P56" s="20" t="s">
+        <v>501</v>
+      </c>
       <c r="Q56" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="T56" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="U56" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="V56" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="W56" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="X56" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="R56" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
-      <c r="Z56" s="22" t="s">
-        <v>629</v>
-      </c>
-      <c r="AA56" s="20">
-        <v>2</v>
-      </c>
-      <c r="AB56" s="20">
-        <v>2</v>
-      </c>
-      <c r="AC56" s="20">
-        <v>3</v>
-      </c>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="20"/>
+      <c r="AC56" s="20"/>
       <c r="AD56" s="20"/>
-      <c r="AE56" s="20"/>
-      <c r="AF56" s="20">
-        <v>4.2</v>
-      </c>
-      <c r="AG56" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH56" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI56" s="20" t="s">
-        <v>145</v>
-      </c>
+      <c r="AE56" s="20" t="s">
+        <v>607</v>
+      </c>
+      <c r="AF56" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG56" s="20"/>
+      <c r="AH56" s="20"/>
+      <c r="AI56" s="20"/>
       <c r="AJ56" s="20"/>
       <c r="AK56" s="20"/>
-      <c r="AL56" s="24" t="s">
-        <v>630</v>
-      </c>
-      <c r="AM56" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN56" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO56" s="20" t="s">
-        <v>631</v>
-      </c>
-      <c r="AP56" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="AQ56" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR56" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS56" s="20" t="s">
-        <v>175</v>
-      </c>
+      <c r="AL56" s="20"/>
+      <c r="AM56" s="20"/>
+      <c r="AN56" s="20"/>
+      <c r="AO56" s="20"/>
+      <c r="AP56" s="20"/>
+      <c r="AQ56" s="20"/>
+      <c r="AR56" s="20"/>
+      <c r="AS56" s="20"/>
       <c r="AT56" s="20"/>
-      <c r="AU56" s="20" t="s">
-        <v>625</v>
-      </c>
-      <c r="AV56" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="AW56" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX56" s="22" t="s">
-        <v>718</v>
-      </c>
+      <c r="AU56" s="20"/>
+      <c r="AV56" s="20"/>
+      <c r="AW56" s="20"/>
+      <c r="AX56" s="20"/>
       <c r="AY56" s="20"/>
       <c r="AZ56" s="20"/>
       <c r="BA56" s="20"/>
@@ -14848,41 +14891,39 @@
     </row>
     <row r="57" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="20" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E57" s="20">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>527</v>
+        <v>300</v>
       </c>
       <c r="G57" s="20">
-        <v>85</v>
-      </c>
-      <c r="H57" s="20">
-        <v>5</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="H57" s="20"/>
       <c r="I57" s="20">
-        <v>1145</v>
+        <v>131</v>
       </c>
       <c r="J57" s="20">
-        <v>1150</v>
+        <v>147</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="L57" s="20"/>
       <c r="M57" s="20" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="N57" s="20" t="s">
         <v>249</v>
@@ -14890,32 +14931,34 @@
       <c r="O57" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="P57" s="20"/>
+      <c r="P57" s="20" t="s">
+        <v>501</v>
+      </c>
       <c r="Q57" s="20" t="s">
         <v>21</v>
       </c>
       <c r="R57" s="20"/>
       <c r="S57" s="20" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T57" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U57" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V57" s="20" t="s">
         <v>41</v>
       </c>
       <c r="W57" s="20" t="s">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="X57" s="20" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="Y57" s="20"/>
       <c r="Z57" s="22" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="AA57" s="20">
         <v>2</v>
@@ -14929,30 +14972,28 @@
       <c r="AD57" s="20"/>
       <c r="AE57" s="20"/>
       <c r="AF57" s="20">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG57" s="20" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH57" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI57" s="20" t="s">
-        <v>145</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AI57" s="20"/>
       <c r="AJ57" s="20"/>
       <c r="AK57" s="20"/>
-      <c r="AL57" s="24" t="s">
-        <v>630</v>
+      <c r="AL57" s="20" t="s">
+        <v>610</v>
       </c>
       <c r="AM57" s="20" t="s">
         <v>232</v>
       </c>
       <c r="AN57" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO57" s="20" t="s">
-        <v>715</v>
+        <v>609</v>
       </c>
       <c r="AP57" s="20" t="s">
         <v>374</v>
@@ -14963,21 +15004,21 @@
       <c r="AR57" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="AS57" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT57" s="20"/>
+      <c r="AS57" s="20"/>
+      <c r="AT57" s="20" t="s">
+        <v>611</v>
+      </c>
       <c r="AU57" s="20" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="AV57" s="20" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="AW57" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX57" s="22" t="s">
-        <v>718</v>
+        <v>612</v>
       </c>
       <c r="AY57" s="20"/>
       <c r="AZ57" s="20"/>
@@ -15019,41 +15060,39 @@
     </row>
     <row r="58" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="20" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E58" s="20">
         <v>2005</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="G58" s="20">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H58" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I58" s="20">
-        <v>1145</v>
+        <v>199</v>
       </c>
       <c r="J58" s="20">
-        <v>1150</v>
-      </c>
-      <c r="K58" s="20" t="s">
-        <v>528</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="K58" s="20"/>
       <c r="L58" s="20"/>
       <c r="M58" s="20" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="N58" s="20" t="s">
         <v>249</v>
@@ -15070,23 +15109,23 @@
         <v>25</v>
       </c>
       <c r="T58" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U58" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V58" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="W58" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="V58" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="W58" s="20" t="s">
-        <v>51</v>
-      </c>
       <c r="X58" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y58" s="20"/>
-      <c r="Z58" s="22" t="s">
-        <v>629</v>
+      <c r="Z58" s="20" t="s">
+        <v>614</v>
       </c>
       <c r="AA58" s="20">
         <v>2</v>
@@ -15099,47 +15138,47 @@
       </c>
       <c r="AD58" s="20"/>
       <c r="AE58" s="20"/>
-      <c r="AF58" s="20">
-        <v>4.2</v>
+      <c r="AF58" s="20" t="s">
+        <v>374</v>
       </c>
       <c r="AG58" s="20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH58" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI58" s="20" t="s">
-        <v>145</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="AI58" s="20"/>
       <c r="AJ58" s="20"/>
       <c r="AK58" s="20"/>
-      <c r="AL58" s="24" t="s">
-        <v>630</v>
+      <c r="AL58" s="21" t="s">
+        <v>617</v>
       </c>
       <c r="AM58" s="20" t="s">
         <v>232</v>
       </c>
       <c r="AN58" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO58" s="20" t="s">
-        <v>716</v>
+        <v>616</v>
       </c>
       <c r="AP58" s="20" t="s">
-        <v>374</v>
+        <v>619</v>
       </c>
       <c r="AQ58" s="20" t="s">
         <v>164</v>
       </c>
       <c r="AR58" s="20" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AS58" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT58" s="20"/>
+        <v>179</v>
+      </c>
+      <c r="AT58" s="20" t="s">
+        <v>615</v>
+      </c>
       <c r="AU58" s="20" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="AV58" s="20" t="s">
         <v>237</v>
@@ -15147,8 +15186,8 @@
       <c r="AW58" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="AX58" s="22" t="s">
-        <v>718</v>
+      <c r="AX58" s="20" t="s">
+        <v>677</v>
       </c>
       <c r="AY58" s="20"/>
       <c r="AZ58" s="20"/>
@@ -15190,41 +15229,39 @@
     </row>
     <row r="59" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="E59" s="20">
         <v>2005</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>331</v>
+        <v>521</v>
       </c>
       <c r="G59" s="20">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H59" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" s="20">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="J59" s="20">
-        <v>38</v>
-      </c>
-      <c r="K59" s="20" t="s">
-        <v>533</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="K59" s="20"/>
       <c r="L59" s="20"/>
       <c r="M59" s="20" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="N59" s="20" t="s">
         <v>249</v>
@@ -15238,26 +15275,26 @@
       </c>
       <c r="R59" s="20"/>
       <c r="S59" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T59" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U59" s="20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V59" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W59" s="20" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="X59" s="20" t="s">
-        <v>215</v>
+        <v>70</v>
       </c>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="AA59" s="20">
         <v>2</v>
@@ -15277,17 +15314,13 @@
         <v>110</v>
       </c>
       <c r="AH59" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI59" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ59" s="20" t="s">
-        <v>113</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="AI59" s="20"/>
+      <c r="AJ59" s="20"/>
       <c r="AK59" s="20"/>
-      <c r="AL59" s="24" t="s">
-        <v>633</v>
+      <c r="AL59" s="21" t="s">
+        <v>617</v>
       </c>
       <c r="AM59" s="20" t="s">
         <v>232</v>
@@ -15296,32 +15329,34 @@
         <v>160</v>
       </c>
       <c r="AO59" s="20" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="AP59" s="20" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="AQ59" s="20" t="s">
         <v>164</v>
       </c>
       <c r="AR59" s="20" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AS59" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT59" s="20"/>
+        <v>179</v>
+      </c>
+      <c r="AT59" s="20" t="s">
+        <v>615</v>
+      </c>
       <c r="AU59" s="20" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="AV59" s="20" t="s">
         <v>199</v>
       </c>
       <c r="AW59" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX59" s="22" t="s">
-        <v>636</v>
+        <v>207</v>
+      </c>
+      <c r="AX59" s="20" t="s">
+        <v>621</v>
       </c>
       <c r="AY59" s="20"/>
       <c r="AZ59" s="20"/>
@@ -15363,41 +15398,41 @@
     </row>
     <row r="60" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="20" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="E60" s="20">
         <v>2005</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>331</v>
+        <v>526</v>
       </c>
       <c r="G60" s="20">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H60" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I60" s="20">
-        <v>22</v>
+        <v>1145</v>
       </c>
       <c r="J60" s="20">
-        <v>38</v>
+        <v>1150</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="L60" s="20"/>
       <c r="M60" s="20" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="N60" s="20" t="s">
         <v>249</v>
@@ -15411,26 +15446,26 @@
       </c>
       <c r="R60" s="20"/>
       <c r="S60" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T60" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U60" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V60" s="20" t="s">
         <v>41</v>
       </c>
       <c r="W60" s="20" t="s">
-        <v>214</v>
+        <v>51</v>
       </c>
       <c r="X60" s="20" t="s">
         <v>215</v>
       </c>
       <c r="Y60" s="20"/>
-      <c r="Z60" s="20" t="s">
-        <v>634</v>
+      <c r="Z60" s="22" t="s">
+        <v>622</v>
       </c>
       <c r="AA60" s="20">
         <v>2</v>
@@ -15443,39 +15478,37 @@
       </c>
       <c r="AD60" s="20"/>
       <c r="AE60" s="20"/>
-      <c r="AF60" s="20" t="s">
-        <v>374</v>
+      <c r="AF60" s="20">
+        <v>4.2</v>
       </c>
       <c r="AG60" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH60" s="20" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AI60" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ60" s="20" t="s">
-        <v>113</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AJ60" s="20"/>
       <c r="AK60" s="20"/>
       <c r="AL60" s="24" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="AM60" s="20" t="s">
         <v>232</v>
       </c>
       <c r="AN60" s="20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO60" s="20" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="AP60" s="20" t="s">
-        <v>647</v>
+        <v>374</v>
       </c>
       <c r="AQ60" s="20" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="AR60" s="20" t="s">
         <v>239</v>
@@ -15485,16 +15518,16 @@
       </c>
       <c r="AT60" s="20"/>
       <c r="AU60" s="20" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="AV60" s="20" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="AW60" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX60" s="22" t="s">
-        <v>638</v>
+        <v>709</v>
       </c>
       <c r="AY60" s="20"/>
       <c r="AZ60" s="20"/>
@@ -15536,41 +15569,41 @@
     </row>
     <row r="61" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="E61" s="20">
         <v>2005</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>331</v>
+        <v>526</v>
       </c>
       <c r="G61" s="20">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H61" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I61" s="20">
-        <v>22</v>
+        <v>1145</v>
       </c>
       <c r="J61" s="20">
-        <v>38</v>
+        <v>1150</v>
       </c>
       <c r="K61" s="20" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="L61" s="20"/>
       <c r="M61" s="20" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="N61" s="20" t="s">
         <v>249</v>
@@ -15584,26 +15617,26 @@
       </c>
       <c r="R61" s="20"/>
       <c r="S61" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T61" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U61" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V61" s="20" t="s">
         <v>41</v>
       </c>
       <c r="W61" s="20" t="s">
-        <v>214</v>
+        <v>51</v>
       </c>
       <c r="X61" s="20" t="s">
         <v>215</v>
       </c>
       <c r="Y61" s="20"/>
-      <c r="Z61" s="20" t="s">
-        <v>634</v>
+      <c r="Z61" s="22" t="s">
+        <v>622</v>
       </c>
       <c r="AA61" s="20">
         <v>2</v>
@@ -15612,43 +15645,41 @@
         <v>2</v>
       </c>
       <c r="AC61" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD61" s="20"/>
       <c r="AE61" s="20"/>
-      <c r="AF61" s="20" t="s">
-        <v>374</v>
+      <c r="AF61" s="20">
+        <v>4.2</v>
       </c>
       <c r="AG61" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH61" s="20" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AI61" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ61" s="20" t="s">
-        <v>113</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AJ61" s="20"/>
       <c r="AK61" s="20"/>
       <c r="AL61" s="24" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="AM61" s="20" t="s">
         <v>232</v>
       </c>
       <c r="AN61" s="20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO61" s="20" t="s">
-        <v>632</v>
+        <v>707</v>
       </c>
       <c r="AP61" s="20" t="s">
-        <v>647</v>
+        <v>374</v>
       </c>
       <c r="AQ61" s="20" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="AR61" s="20" t="s">
         <v>239</v>
@@ -15658,16 +15689,16 @@
       </c>
       <c r="AT61" s="20"/>
       <c r="AU61" s="20" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="AV61" s="20" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="AW61" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX61" s="22" t="s">
-        <v>640</v>
+        <v>709</v>
       </c>
       <c r="AY61" s="20"/>
       <c r="AZ61" s="20"/>
@@ -15709,39 +15740,41 @@
     </row>
     <row r="62" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="20" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="B62" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="E62" s="20">
         <v>2005</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G62" s="20">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="H62" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I62" s="20">
-        <v>191</v>
+        <v>1145</v>
       </c>
       <c r="J62" s="20">
-        <v>197</v>
-      </c>
-      <c r="K62" s="20"/>
+        <v>1150</v>
+      </c>
+      <c r="K62" s="20" t="s">
+        <v>527</v>
+      </c>
       <c r="L62" s="20"/>
       <c r="M62" s="20" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="N62" s="20" t="s">
         <v>249</v>
@@ -15755,7 +15788,7 @@
       </c>
       <c r="R62" s="20"/>
       <c r="S62" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T62" s="20" t="s">
         <v>46</v>
@@ -15767,14 +15800,14 @@
         <v>41</v>
       </c>
       <c r="W62" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X62" s="20" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Y62" s="20"/>
-      <c r="Z62" s="20" t="s">
-        <v>641</v>
+      <c r="Z62" s="22" t="s">
+        <v>622</v>
       </c>
       <c r="AA62" s="20">
         <v>2</v>
@@ -15783,36 +15816,38 @@
         <v>2</v>
       </c>
       <c r="AC62" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD62" s="20"/>
       <c r="AE62" s="20"/>
-      <c r="AF62" s="20" t="s">
-        <v>374</v>
+      <c r="AF62" s="20">
+        <v>4.2</v>
       </c>
       <c r="AG62" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH62" s="20" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI62" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ62" s="20"/>
       <c r="AK62" s="20"/>
-      <c r="AL62" s="20" t="s">
-        <v>642</v>
+      <c r="AL62" s="24" t="s">
+        <v>623</v>
       </c>
       <c r="AM62" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="AN62" s="20"/>
+      <c r="AN62" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="AO62" s="20" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="AP62" s="20" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="AQ62" s="20" t="s">
         <v>164</v>
@@ -15825,16 +15860,16 @@
       </c>
       <c r="AT62" s="20"/>
       <c r="AU62" s="20" t="s">
-        <v>728</v>
+        <v>618</v>
       </c>
       <c r="AV62" s="20" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="AW62" s="20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX62" s="22" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="AY62" s="20"/>
       <c r="AZ62" s="20"/>
@@ -15876,39 +15911,41 @@
     </row>
     <row r="63" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="20" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="B63" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="E63" s="20">
         <v>2005</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G63" s="20">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="H63" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I63" s="20">
-        <v>191</v>
+        <v>1145</v>
       </c>
       <c r="J63" s="20">
-        <v>197</v>
-      </c>
-      <c r="K63" s="20"/>
+        <v>1150</v>
+      </c>
+      <c r="K63" s="20" t="s">
+        <v>527</v>
+      </c>
       <c r="L63" s="20"/>
       <c r="M63" s="20" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="N63" s="20" t="s">
         <v>249</v>
@@ -15922,7 +15959,7 @@
       </c>
       <c r="R63" s="20"/>
       <c r="S63" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T63" s="20" t="s">
         <v>46</v>
@@ -15934,14 +15971,14 @@
         <v>41</v>
       </c>
       <c r="W63" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X63" s="20" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Y63" s="20"/>
-      <c r="Z63" s="20" t="s">
-        <v>641</v>
+      <c r="Z63" s="22" t="s">
+        <v>622</v>
       </c>
       <c r="AA63" s="20">
         <v>2</v>
@@ -15950,32 +15987,38 @@
         <v>2</v>
       </c>
       <c r="AC63" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD63" s="20"/>
       <c r="AE63" s="20"/>
-      <c r="AF63" s="20" t="s">
-        <v>374</v>
+      <c r="AF63" s="20">
+        <v>4.2</v>
       </c>
       <c r="AG63" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH63" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="AI63" s="20"/>
+      <c r="AI63" s="20" t="s">
+        <v>145</v>
+      </c>
       <c r="AJ63" s="20"/>
       <c r="AK63" s="20"/>
-      <c r="AL63" s="20"/>
+      <c r="AL63" s="24" t="s">
+        <v>623</v>
+      </c>
       <c r="AM63" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="AN63" s="20"/>
+      <c r="AN63" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="AO63" s="20" t="s">
-        <v>643</v>
+        <v>707</v>
       </c>
       <c r="AP63" s="20" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="AQ63" s="20" t="s">
         <v>164</v>
@@ -15988,16 +16031,16 @@
       </c>
       <c r="AT63" s="20"/>
       <c r="AU63" s="20" t="s">
-        <v>728</v>
+        <v>618</v>
       </c>
       <c r="AV63" s="20" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="AW63" s="20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX63" s="22" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="AY63" s="20"/>
       <c r="AZ63" s="20"/>
@@ -16039,39 +16082,41 @@
     </row>
     <row r="64" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="20" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="B64" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="E64" s="20">
         <v>2005</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G64" s="20">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="H64" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I64" s="20">
-        <v>191</v>
+        <v>1145</v>
       </c>
       <c r="J64" s="20">
-        <v>197</v>
-      </c>
-      <c r="K64" s="20"/>
+        <v>1150</v>
+      </c>
+      <c r="K64" s="20" t="s">
+        <v>527</v>
+      </c>
       <c r="L64" s="20"/>
       <c r="M64" s="20" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="N64" s="20" t="s">
         <v>249</v>
@@ -16085,7 +16130,7 @@
       </c>
       <c r="R64" s="20"/>
       <c r="S64" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T64" s="20" t="s">
         <v>46</v>
@@ -16097,14 +16142,14 @@
         <v>41</v>
       </c>
       <c r="W64" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X64" s="20" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Y64" s="20"/>
-      <c r="Z64" s="20" t="s">
-        <v>641</v>
+      <c r="Z64" s="22" t="s">
+        <v>622</v>
       </c>
       <c r="AA64" s="20">
         <v>2</v>
@@ -16113,36 +16158,38 @@
         <v>2</v>
       </c>
       <c r="AC64" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD64" s="20"/>
       <c r="AE64" s="20"/>
-      <c r="AF64" s="20" t="s">
-        <v>374</v>
+      <c r="AF64" s="20">
+        <v>4.2</v>
       </c>
       <c r="AG64" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH64" s="20" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI64" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ64" s="20"/>
       <c r="AK64" s="20"/>
-      <c r="AL64" s="20" t="s">
-        <v>642</v>
+      <c r="AL64" s="24" t="s">
+        <v>623</v>
       </c>
       <c r="AM64" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="AN64" s="20"/>
+      <c r="AN64" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="AO64" s="20" t="s">
-        <v>643</v>
+        <v>708</v>
       </c>
       <c r="AP64" s="20" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="AQ64" s="20" t="s">
         <v>164</v>
@@ -16155,16 +16202,16 @@
       </c>
       <c r="AT64" s="20"/>
       <c r="AU64" s="20" t="s">
-        <v>719</v>
+        <v>618</v>
       </c>
       <c r="AV64" s="20" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="AW64" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX64" s="14" t="s">
-        <v>727</v>
+        <v>210</v>
+      </c>
+      <c r="AX64" s="22" t="s">
+        <v>710</v>
       </c>
       <c r="AY64" s="20"/>
       <c r="AZ64" s="20"/>
@@ -16206,39 +16253,41 @@
     </row>
     <row r="65" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="20" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E65" s="20">
         <v>2005</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>538</v>
+        <v>331</v>
       </c>
       <c r="G65" s="20">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="H65" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" s="20">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="J65" s="20">
-        <v>197</v>
-      </c>
-      <c r="K65" s="20"/>
+        <v>38</v>
+      </c>
+      <c r="K65" s="20" t="s">
+        <v>532</v>
+      </c>
       <c r="L65" s="20"/>
       <c r="M65" s="20" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="N65" s="20" t="s">
         <v>249</v>
@@ -16258,20 +16307,20 @@
         <v>46</v>
       </c>
       <c r="U65" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V65" s="20" t="s">
         <v>41</v>
       </c>
       <c r="W65" s="20" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="X65" s="20" t="s">
         <v>215</v>
       </c>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="AA65" s="20">
         <v>2</v>
@@ -16280,7 +16329,7 @@
         <v>2</v>
       </c>
       <c r="AC65" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD65" s="20"/>
       <c r="AE65" s="20"/>
@@ -16291,21 +16340,29 @@
         <v>110</v>
       </c>
       <c r="AH65" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI65" s="20"/>
-      <c r="AJ65" s="20"/>
+        <v>120</v>
+      </c>
+      <c r="AI65" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ65" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="AK65" s="20"/>
-      <c r="AL65" s="20"/>
+      <c r="AL65" s="24" t="s">
+        <v>626</v>
+      </c>
       <c r="AM65" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="AN65" s="20"/>
+      <c r="AN65" s="20" t="s">
+        <v>160</v>
+      </c>
       <c r="AO65" s="20" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="AP65" s="20" t="s">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="AQ65" s="20" t="s">
         <v>164</v>
@@ -16318,16 +16375,16 @@
       </c>
       <c r="AT65" s="20"/>
       <c r="AU65" s="20" t="s">
-        <v>719</v>
+        <v>628</v>
       </c>
       <c r="AV65" s="20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW65" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX65" s="14" t="s">
-        <v>727</v>
+        <v>209</v>
+      </c>
+      <c r="AX65" s="22" t="s">
+        <v>629</v>
       </c>
       <c r="AY65" s="20"/>
       <c r="AZ65" s="20"/>
@@ -16369,41 +16426,41 @@
     </row>
     <row r="66" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="20" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="E66" s="20">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>489</v>
+        <v>331</v>
       </c>
       <c r="G66" s="20">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="H66" s="20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I66" s="20">
-        <v>991</v>
+        <v>22</v>
       </c>
       <c r="J66" s="20">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="K66" s="20" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="L66" s="20"/>
       <c r="M66" s="20" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="N66" s="20" t="s">
         <v>249</v>
@@ -16417,16 +16474,16 @@
       </c>
       <c r="R66" s="20"/>
       <c r="S66" s="20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T66" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U66" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V66" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W66" s="20" t="s">
         <v>214</v>
@@ -16436,7 +16493,7 @@
       </c>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="AA66" s="20">
         <v>2</v>
@@ -16449,8 +16506,8 @@
       </c>
       <c r="AD66" s="20"/>
       <c r="AE66" s="20"/>
-      <c r="AF66" s="20">
-        <v>4.3</v>
+      <c r="AF66" s="20" t="s">
+        <v>374</v>
       </c>
       <c r="AG66" s="20" t="s">
         <v>110</v>
@@ -16459,24 +16516,26 @@
         <v>120</v>
       </c>
       <c r="AI66" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ66" s="20"/>
-      <c r="AK66" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL66" s="20" t="s">
-        <v>645</v>
+        <v>140</v>
+      </c>
+      <c r="AJ66" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK66" s="20"/>
+      <c r="AL66" s="24" t="s">
+        <v>626</v>
       </c>
       <c r="AM66" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN66" s="20"/>
+        <v>232</v>
+      </c>
+      <c r="AN66" s="20" t="s">
+        <v>160</v>
+      </c>
       <c r="AO66" s="20" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="AP66" s="20" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="AQ66" s="20" t="s">
         <v>164</v>
@@ -16485,20 +16544,20 @@
         <v>239</v>
       </c>
       <c r="AS66" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AT66" s="20"/>
       <c r="AU66" s="20" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="AV66" s="20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AW66" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX66" s="22" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="AY66" s="20"/>
       <c r="AZ66" s="20"/>
@@ -16540,41 +16599,41 @@
     </row>
     <row r="67" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="20" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="B67" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="E67" s="20">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>489</v>
+        <v>331</v>
       </c>
       <c r="G67" s="20">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="H67" s="20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I67" s="20">
-        <v>991</v>
+        <v>22</v>
       </c>
       <c r="J67" s="20">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="L67" s="20"/>
       <c r="M67" s="20" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="N67" s="20" t="s">
         <v>249</v>
@@ -16588,16 +16647,16 @@
       </c>
       <c r="R67" s="20"/>
       <c r="S67" s="20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T67" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U67" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V67" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W67" s="20" t="s">
         <v>214</v>
@@ -16607,7 +16666,7 @@
       </c>
       <c r="Y67" s="20"/>
       <c r="Z67" s="20" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="AA67" s="20">
         <v>2</v>
@@ -16616,12 +16675,12 @@
         <v>2</v>
       </c>
       <c r="AC67" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD67" s="20"/>
       <c r="AE67" s="20"/>
-      <c r="AF67" s="20">
-        <v>4.3</v>
+      <c r="AF67" s="20" t="s">
+        <v>374</v>
       </c>
       <c r="AG67" s="20" t="s">
         <v>110</v>
@@ -16630,24 +16689,26 @@
         <v>120</v>
       </c>
       <c r="AI67" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ67" s="20"/>
-      <c r="AK67" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL67" s="20" t="s">
-        <v>645</v>
+        <v>140</v>
+      </c>
+      <c r="AJ67" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK67" s="20"/>
+      <c r="AL67" s="24" t="s">
+        <v>626</v>
       </c>
       <c r="AM67" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN67" s="20"/>
+        <v>232</v>
+      </c>
+      <c r="AN67" s="20" t="s">
+        <v>160</v>
+      </c>
       <c r="AO67" s="20" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="AP67" s="20" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="AQ67" s="20" t="s">
         <v>164</v>
@@ -16656,20 +16717,20 @@
         <v>239</v>
       </c>
       <c r="AS67" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AT67" s="20"/>
       <c r="AU67" s="20" t="s">
-        <v>443</v>
+        <v>632</v>
       </c>
       <c r="AV67" s="20" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AW67" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX67" s="22" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="AY67" s="20"/>
       <c r="AZ67" s="20"/>
@@ -16711,39 +16772,39 @@
     </row>
     <row r="68" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="20" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="B68" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="E68" s="20">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>300</v>
+        <v>537</v>
       </c>
       <c r="G68" s="20">
-        <v>215</v>
-      </c>
-      <c r="H68" s="20"/>
+        <v>135</v>
+      </c>
+      <c r="H68" s="20">
+        <v>2</v>
+      </c>
       <c r="I68" s="20">
-        <v>297</v>
+        <v>191</v>
       </c>
       <c r="J68" s="20">
-        <v>301</v>
-      </c>
-      <c r="K68" s="20" t="s">
-        <v>548</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="K68" s="20"/>
       <c r="L68" s="20"/>
       <c r="M68" s="20" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="N68" s="20" t="s">
         <v>249</v>
@@ -16751,100 +16812,92 @@
       <c r="O68" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="P68" s="20" t="s">
-        <v>550</v>
-      </c>
+      <c r="P68" s="20"/>
       <c r="Q68" s="20" t="s">
         <v>21</v>
       </c>
       <c r="R68" s="20"/>
       <c r="S68" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T68" s="20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="U68" s="20" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="V68" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W68" s="20" t="s">
-        <v>214</v>
+        <v>53</v>
       </c>
       <c r="X68" s="20" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="AA68" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB68" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC68" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD68" s="20"/>
       <c r="AE68" s="20"/>
-      <c r="AF68" s="20">
-        <v>4.3</v>
+      <c r="AF68" s="20" t="s">
+        <v>374</v>
       </c>
       <c r="AG68" s="20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH68" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI68" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ68" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK68" s="20" t="s">
-        <v>148</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="AJ68" s="20"/>
+      <c r="AK68" s="20"/>
       <c r="AL68" s="20" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="AM68" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AN68" s="20"/>
       <c r="AO68" s="20" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="AP68" s="20" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="AQ68" s="20" t="s">
         <v>164</v>
       </c>
       <c r="AR68" s="20" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS68" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT68" s="21" t="s">
-        <v>658</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AT68" s="20"/>
       <c r="AU68" s="20" t="s">
-        <v>659</v>
+        <v>720</v>
       </c>
       <c r="AV68" s="20" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="AW68" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX68" s="22" t="s">
-        <v>660</v>
+        <v>721</v>
       </c>
       <c r="AY68" s="20"/>
       <c r="AZ68" s="20"/>
@@ -16886,39 +16939,39 @@
     </row>
     <row r="69" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="20" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="E69" s="20">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>300</v>
+        <v>537</v>
       </c>
       <c r="G69" s="20">
-        <v>215</v>
-      </c>
-      <c r="H69" s="20"/>
+        <v>135</v>
+      </c>
+      <c r="H69" s="20">
+        <v>2</v>
+      </c>
       <c r="I69" s="20">
-        <v>297</v>
+        <v>191</v>
       </c>
       <c r="J69" s="20">
-        <v>301</v>
-      </c>
-      <c r="K69" s="20" t="s">
-        <v>548</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="K69" s="20"/>
       <c r="L69" s="20"/>
       <c r="M69" s="20" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="N69" s="20" t="s">
         <v>249</v>
@@ -16926,102 +16979,88 @@
       <c r="O69" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="P69" s="20" t="s">
-        <v>550</v>
-      </c>
+      <c r="P69" s="20"/>
       <c r="Q69" s="20" t="s">
         <v>21</v>
       </c>
       <c r="R69" s="20"/>
       <c r="S69" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T69" s="20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="U69" s="20" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="V69" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W69" s="20" t="s">
-        <v>214</v>
+        <v>53</v>
       </c>
       <c r="X69" s="20" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="Y69" s="20"/>
       <c r="Z69" s="20" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="AA69" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB69" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC69" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD69" s="20"/>
       <c r="AE69" s="20"/>
-      <c r="AF69" s="20">
-        <v>4.3</v>
+      <c r="AF69" s="20" t="s">
+        <v>374</v>
       </c>
       <c r="AG69" s="20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH69" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI69" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ69" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK69" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL69" s="20" t="s">
-        <v>657</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AI69" s="20"/>
+      <c r="AJ69" s="20"/>
+      <c r="AK69" s="20"/>
+      <c r="AL69" s="20"/>
       <c r="AM69" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="AN69" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="AN69" s="20"/>
       <c r="AO69" s="20" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="AP69" s="20" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="AQ69" s="20" t="s">
         <v>164</v>
       </c>
       <c r="AR69" s="20" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS69" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT69" s="21" t="s">
-        <v>658</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AT69" s="20"/>
       <c r="AU69" s="20" t="s">
-        <v>659</v>
+        <v>720</v>
       </c>
       <c r="AV69" s="20" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="AW69" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX69" s="22" t="s">
-        <v>660</v>
+        <v>721</v>
       </c>
       <c r="AY69" s="20"/>
       <c r="AZ69" s="20"/>
@@ -17063,41 +17102,39 @@
     </row>
     <row r="70" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="20" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="E70" s="20">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>331</v>
+        <v>537</v>
       </c>
       <c r="G70" s="20">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="H70" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" s="20">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="J70" s="20">
-        <v>30</v>
-      </c>
-      <c r="K70" s="20" t="s">
-        <v>554</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="K70" s="20"/>
       <c r="L70" s="20"/>
       <c r="M70" s="20" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="N70" s="20" t="s">
         <v>249</v>
@@ -17111,26 +17148,26 @@
       </c>
       <c r="R70" s="20"/>
       <c r="S70" s="20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T70" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="U70" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="V70" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="U70" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="V70" s="20" t="s">
-        <v>42</v>
-      </c>
       <c r="W70" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="X70" s="20" t="s">
         <v>215</v>
       </c>
       <c r="Y70" s="20"/>
       <c r="Z70" s="20" t="s">
-        <v>421</v>
+        <v>634</v>
       </c>
       <c r="AA70" s="20">
         <v>2</v>
@@ -17139,7 +17176,7 @@
         <v>2</v>
       </c>
       <c r="AC70" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD70" s="20"/>
       <c r="AE70" s="20"/>
@@ -17157,20 +17194,18 @@
       </c>
       <c r="AJ70" s="20"/>
       <c r="AK70" s="20"/>
-      <c r="AL70" s="24" t="s">
-        <v>662</v>
+      <c r="AL70" s="20" t="s">
+        <v>635</v>
       </c>
       <c r="AM70" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="AN70" s="20" t="s">
-        <v>160</v>
-      </c>
+      <c r="AN70" s="20"/>
       <c r="AO70" s="20" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
       <c r="AP70" s="20" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="AQ70" s="20" t="s">
         <v>164</v>
@@ -17178,19 +17213,21 @@
       <c r="AR70" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="AS70" s="20"/>
+      <c r="AS70" s="20" t="s">
+        <v>175</v>
+      </c>
       <c r="AT70" s="20"/>
       <c r="AU70" s="20" t="s">
-        <v>664</v>
+        <v>711</v>
       </c>
       <c r="AV70" s="20" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW70" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX70" s="22" t="s">
-        <v>665</v>
+        <v>207</v>
+      </c>
+      <c r="AX70" s="14" t="s">
+        <v>719</v>
       </c>
       <c r="AY70" s="20"/>
       <c r="AZ70" s="20"/>
@@ -17232,41 +17269,39 @@
     </row>
     <row r="71" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="20" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="B71" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="E71" s="20">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>331</v>
+        <v>537</v>
       </c>
       <c r="G71" s="20">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="H71" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" s="20">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="J71" s="20">
-        <v>30</v>
-      </c>
-      <c r="K71" s="20" t="s">
-        <v>554</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="K71" s="20"/>
       <c r="L71" s="20"/>
       <c r="M71" s="20" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="N71" s="20" t="s">
         <v>249</v>
@@ -17280,26 +17315,26 @@
       </c>
       <c r="R71" s="20"/>
       <c r="S71" s="20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T71" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="U71" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="V71" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="U71" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="V71" s="20" t="s">
-        <v>42</v>
-      </c>
       <c r="W71" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="X71" s="20" t="s">
         <v>215</v>
       </c>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20" t="s">
-        <v>421</v>
+        <v>634</v>
       </c>
       <c r="AA71" s="20">
         <v>2</v>
@@ -17308,7 +17343,7 @@
         <v>2</v>
       </c>
       <c r="AC71" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD71" s="20"/>
       <c r="AE71" s="20"/>
@@ -17319,25 +17354,21 @@
         <v>110</v>
       </c>
       <c r="AH71" s="20" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="AI71" s="20"/>
       <c r="AJ71" s="20"/>
       <c r="AK71" s="20"/>
-      <c r="AL71" s="24" t="s">
-        <v>661</v>
-      </c>
+      <c r="AL71" s="20"/>
       <c r="AM71" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="AN71" s="20" t="s">
-        <v>160</v>
-      </c>
+      <c r="AN71" s="20"/>
       <c r="AO71" s="20" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
       <c r="AP71" s="20" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="AQ71" s="20" t="s">
         <v>164</v>
@@ -17345,19 +17376,21 @@
       <c r="AR71" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="AS71" s="20"/>
+      <c r="AS71" s="20" t="s">
+        <v>175</v>
+      </c>
       <c r="AT71" s="20"/>
       <c r="AU71" s="20" t="s">
-        <v>664</v>
+        <v>711</v>
       </c>
       <c r="AV71" s="20" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW71" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX71" s="22" t="s">
-        <v>665</v>
+        <v>207</v>
+      </c>
+      <c r="AX71" s="14" t="s">
+        <v>719</v>
       </c>
       <c r="AY71" s="20"/>
       <c r="AZ71" s="20"/>
@@ -17399,91 +17432,137 @@
     </row>
     <row r="72" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="20" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="E72" s="20">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>331</v>
+        <v>488</v>
       </c>
       <c r="G72" s="20">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="H72" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I72" s="20">
-        <v>103</v>
+        <v>991</v>
       </c>
       <c r="J72" s="20">
-        <v>106</v>
+        <v>1000</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="L72" s="20"/>
       <c r="M72" s="20" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="N72" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O72" s="20" t="s">
-        <v>561</v>
+        <v>250</v>
       </c>
       <c r="P72" s="20"/>
       <c r="Q72" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="R72" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="S72" s="20"/>
-      <c r="T72" s="20"/>
-      <c r="U72" s="20"/>
-      <c r="V72" s="20"/>
-      <c r="W72" s="20"/>
-      <c r="X72" s="20"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="T72" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="U72" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="V72" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="W72" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="X72" s="20" t="s">
+        <v>215</v>
+      </c>
       <c r="Y72" s="20"/>
-      <c r="Z72" s="20"/>
-      <c r="AA72" s="20"/>
-      <c r="AB72" s="20"/>
-      <c r="AC72" s="20"/>
+      <c r="Z72" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="AA72" s="20">
+        <v>2</v>
+      </c>
+      <c r="AB72" s="20">
+        <v>2</v>
+      </c>
+      <c r="AC72" s="20">
+        <v>3</v>
+      </c>
       <c r="AD72" s="20"/>
-      <c r="AE72" s="20" t="s">
-        <v>653</v>
-      </c>
+      <c r="AE72" s="20"/>
       <c r="AF72" s="20">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG72" s="20"/>
-      <c r="AH72" s="20"/>
-      <c r="AI72" s="20"/>
+        <v>4.3</v>
+      </c>
+      <c r="AG72" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH72" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI72" s="20" t="s">
+        <v>133</v>
+      </c>
       <c r="AJ72" s="20"/>
-      <c r="AK72" s="20"/>
-      <c r="AL72" s="20"/>
-      <c r="AM72" s="20"/>
+      <c r="AK72" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL72" s="20" t="s">
+        <v>638</v>
+      </c>
+      <c r="AM72" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="AN72" s="20"/>
-      <c r="AO72" s="20"/>
-      <c r="AP72" s="20"/>
-      <c r="AQ72" s="20"/>
-      <c r="AR72" s="20"/>
-      <c r="AS72" s="20"/>
+      <c r="AO72" s="20" t="s">
+        <v>639</v>
+      </c>
+      <c r="AP72" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="AQ72" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR72" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS72" s="20" t="s">
+        <v>176</v>
+      </c>
       <c r="AT72" s="20"/>
-      <c r="AU72" s="20"/>
-      <c r="AV72" s="20"/>
-      <c r="AW72" s="20"/>
-      <c r="AX72" s="20"/>
+      <c r="AU72" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="AV72" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW72" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX72" s="22" t="s">
+        <v>645</v>
+      </c>
       <c r="AY72" s="20"/>
       <c r="AZ72" s="20"/>
       <c r="BA72" s="20"/>
@@ -17524,51 +17603,49 @@
     </row>
     <row r="73" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="20" t="s">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
       <c r="E73" s="20">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>246</v>
+        <v>488</v>
       </c>
       <c r="G73" s="20">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="H73" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I73" s="20">
-        <v>342</v>
+        <v>991</v>
       </c>
       <c r="J73" s="20">
-        <v>352</v>
+        <v>1000</v>
       </c>
       <c r="K73" s="20" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="L73" s="20"/>
       <c r="M73" s="20" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="N73" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O73" s="20" t="s">
-        <v>567</v>
-      </c>
-      <c r="P73" s="20" t="s">
-        <v>550</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="P73" s="20"/>
       <c r="Q73" s="20" t="s">
         <v>21</v>
       </c>
@@ -17577,23 +17654,23 @@
         <v>24</v>
       </c>
       <c r="T73" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U73" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="V73" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W73" s="20" t="s">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c r="X73" s="20" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="Y73" s="20"/>
       <c r="Z73" s="20" t="s">
-        <v>666</v>
+        <v>637</v>
       </c>
       <c r="AA73" s="20">
         <v>2</v>
@@ -17607,31 +17684,33 @@
       <c r="AD73" s="20"/>
       <c r="AE73" s="20"/>
       <c r="AF73" s="20">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AG73" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH73" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI73" s="20"/>
+        <v>120</v>
+      </c>
+      <c r="AI73" s="20" t="s">
+        <v>133</v>
+      </c>
       <c r="AJ73" s="20"/>
-      <c r="AK73" s="20"/>
+      <c r="AK73" s="20" t="s">
+        <v>148</v>
+      </c>
       <c r="AL73" s="20" t="s">
-        <v>669</v>
+        <v>638</v>
       </c>
       <c r="AM73" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN73" s="20" t="s">
-        <v>162</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="AN73" s="20"/>
       <c r="AO73" s="20" t="s">
-        <v>667</v>
+        <v>639</v>
       </c>
       <c r="AP73" s="20" t="s">
-        <v>374</v>
+        <v>641</v>
       </c>
       <c r="AQ73" s="20" t="s">
         <v>164</v>
@@ -17640,20 +17719,20 @@
         <v>239</v>
       </c>
       <c r="AS73" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AT73" s="20"/>
       <c r="AU73" s="20" t="s">
-        <v>668</v>
+        <v>442</v>
       </c>
       <c r="AV73" s="20" t="s">
         <v>199</v>
       </c>
       <c r="AW73" s="20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX73" s="22" t="s">
-        <v>672</v>
+        <v>643</v>
       </c>
       <c r="AY73" s="20"/>
       <c r="AZ73" s="20"/>
@@ -17695,82 +17774,80 @@
     </row>
     <row r="74" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="20" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="E74" s="20">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="G74" s="20">
-        <v>55</v>
-      </c>
-      <c r="H74" s="20">
-        <v>3</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="H74" s="20"/>
       <c r="I74" s="20">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="J74" s="20">
-        <v>352</v>
+        <v>301</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="L74" s="20"/>
       <c r="M74" s="20" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="N74" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O74" s="20" t="s">
-        <v>567</v>
+        <v>250</v>
       </c>
       <c r="P74" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Q74" s="20" t="s">
         <v>21</v>
       </c>
       <c r="R74" s="20"/>
       <c r="S74" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T74" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U74" s="20" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="V74" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W74" s="20" t="s">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c r="X74" s="20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y74" s="20"/>
       <c r="Z74" s="20" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="AA74" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB74" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC74" s="20">
         <v>3</v>
@@ -17778,28 +17855,32 @@
       <c r="AD74" s="20"/>
       <c r="AE74" s="20"/>
       <c r="AF74" s="20">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AG74" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH74" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI74" s="20"/>
-      <c r="AJ74" s="20"/>
-      <c r="AK74" s="20"/>
-      <c r="AL74" s="22" t="s">
-        <v>669</v>
+        <v>120</v>
+      </c>
+      <c r="AI74" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ74" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK74" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL74" s="20" t="s">
+        <v>650</v>
       </c>
       <c r="AM74" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN74" s="20" t="s">
-        <v>162</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="AN74" s="20"/>
       <c r="AO74" s="20" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="AP74" s="20" t="s">
         <v>374</v>
@@ -17808,23 +17889,25 @@
         <v>164</v>
       </c>
       <c r="AR74" s="20" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AS74" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT74" s="20"/>
+        <v>178</v>
+      </c>
+      <c r="AT74" s="21" t="s">
+        <v>651</v>
+      </c>
       <c r="AU74" s="20" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="AV74" s="20" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="AW74" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX74" s="22" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="AY74" s="20"/>
       <c r="AZ74" s="20"/>
@@ -17866,102 +17949,106 @@
     </row>
     <row r="75" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="20" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="E75" s="20">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="G75" s="20">
-        <v>55</v>
-      </c>
-      <c r="H75" s="20">
-        <v>3</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="H75" s="20"/>
       <c r="I75" s="20">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="J75" s="20">
-        <v>352</v>
+        <v>301</v>
       </c>
       <c r="K75" s="20" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="L75" s="20"/>
       <c r="M75" s="20" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="N75" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O75" s="20" t="s">
-        <v>567</v>
+        <v>250</v>
       </c>
       <c r="P75" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Q75" s="20" t="s">
         <v>21</v>
       </c>
       <c r="R75" s="20"/>
       <c r="S75" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T75" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U75" s="20" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="V75" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W75" s="20" t="s">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c r="X75" s="20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="AA75" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB75" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC75" s="20">
         <v>3</v>
       </c>
       <c r="AD75" s="20"/>
       <c r="AE75" s="20"/>
-      <c r="AF75" s="20" t="s">
-        <v>374</v>
+      <c r="AF75" s="20">
+        <v>4.3</v>
       </c>
       <c r="AG75" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH75" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI75" s="20"/>
-      <c r="AJ75" s="20"/>
-      <c r="AK75" s="20"/>
-      <c r="AL75" s="22" t="s">
-        <v>670</v>
+        <v>120</v>
+      </c>
+      <c r="AI75" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ75" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK75" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL75" s="20" t="s">
+        <v>650</v>
       </c>
       <c r="AM75" s="20" t="s">
         <v>232</v>
@@ -17970,7 +18057,7 @@
         <v>162</v>
       </c>
       <c r="AO75" s="20" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="AP75" s="20" t="s">
         <v>374</v>
@@ -17979,23 +18066,25 @@
         <v>164</v>
       </c>
       <c r="AR75" s="20" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AS75" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT75" s="20"/>
+        <v>178</v>
+      </c>
+      <c r="AT75" s="21" t="s">
+        <v>651</v>
+      </c>
       <c r="AU75" s="20" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="AV75" s="20" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="AW75" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX75" s="22" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="AY75" s="20"/>
       <c r="AZ75" s="20"/>
@@ -18037,76 +18126,74 @@
     </row>
     <row r="76" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="20" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B76" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="E76" s="20">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="G76" s="20">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H76" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76" s="20">
-        <v>342</v>
+        <v>23</v>
       </c>
       <c r="J76" s="20">
-        <v>352</v>
+        <v>30</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="L76" s="20"/>
       <c r="M76" s="20" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="N76" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O76" s="20" t="s">
-        <v>567</v>
-      </c>
-      <c r="P76" s="20" t="s">
-        <v>550</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="P76" s="20"/>
       <c r="Q76" s="20" t="s">
         <v>21</v>
       </c>
       <c r="R76" s="20"/>
       <c r="S76" s="20" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T76" s="20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U76" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V76" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W76" s="20" t="s">
         <v>57</v>
       </c>
       <c r="X76" s="20" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="Y76" s="20"/>
       <c r="Z76" s="20" t="s">
-        <v>666</v>
+        <v>421</v>
       </c>
       <c r="AA76" s="20">
         <v>2</v>
@@ -18123,25 +18210,27 @@
         <v>374</v>
       </c>
       <c r="AG76" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH76" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI76" s="20"/>
+        <v>117</v>
+      </c>
+      <c r="AI76" s="20" t="s">
+        <v>144</v>
+      </c>
       <c r="AJ76" s="20"/>
       <c r="AK76" s="20"/>
-      <c r="AL76" s="22" t="s">
-        <v>670</v>
+      <c r="AL76" s="24" t="s">
+        <v>655</v>
       </c>
       <c r="AM76" s="20" t="s">
         <v>232</v>
       </c>
       <c r="AN76" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO76" s="20" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="AP76" s="20" t="s">
         <v>374</v>
@@ -18152,21 +18241,19 @@
       <c r="AR76" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="AS76" s="20" t="s">
-        <v>176</v>
-      </c>
+      <c r="AS76" s="20"/>
       <c r="AT76" s="20"/>
       <c r="AU76" s="20" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="AV76" s="20" t="s">
         <v>199</v>
       </c>
       <c r="AW76" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX76" s="22" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="AY76" s="20"/>
       <c r="AZ76" s="20"/>
@@ -18208,76 +18295,74 @@
     </row>
     <row r="77" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="20" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B77" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="E77" s="20">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="G77" s="20">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H77" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77" s="20">
-        <v>342</v>
+        <v>23</v>
       </c>
       <c r="J77" s="20">
-        <v>352</v>
+        <v>30</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="L77" s="20"/>
       <c r="M77" s="20" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="N77" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O77" s="20" t="s">
-        <v>567</v>
-      </c>
-      <c r="P77" s="20" t="s">
-        <v>550</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="P77" s="20"/>
       <c r="Q77" s="20" t="s">
         <v>21</v>
       </c>
       <c r="R77" s="20"/>
       <c r="S77" s="20" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T77" s="20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U77" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V77" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W77" s="20" t="s">
         <v>57</v>
       </c>
       <c r="X77" s="20" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="Y77" s="20"/>
       <c r="Z77" s="20" t="s">
-        <v>666</v>
+        <v>421</v>
       </c>
       <c r="AA77" s="20">
         <v>2</v>
@@ -18294,29 +18379,25 @@
         <v>374</v>
       </c>
       <c r="AG77" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH77" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI77" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ77" s="20" t="s">
-        <v>113</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="AI77" s="20"/>
+      <c r="AJ77" s="20"/>
       <c r="AK77" s="20"/>
-      <c r="AL77" s="22" t="s">
-        <v>671</v>
+      <c r="AL77" s="24" t="s">
+        <v>654</v>
       </c>
       <c r="AM77" s="20" t="s">
         <v>232</v>
       </c>
       <c r="AN77" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO77" s="20" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="AP77" s="20" t="s">
         <v>374</v>
@@ -18327,21 +18408,19 @@
       <c r="AR77" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="AS77" s="20" t="s">
-        <v>175</v>
-      </c>
+      <c r="AS77" s="20"/>
       <c r="AT77" s="20"/>
       <c r="AU77" s="20" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="AV77" s="20" t="s">
         <v>199</v>
       </c>
       <c r="AW77" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX77" s="22" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="AY77" s="20"/>
       <c r="AZ77" s="20"/>
@@ -18383,141 +18462,91 @@
     </row>
     <row r="78" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="E78" s="20">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="G78" s="20">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H78" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" s="20">
-        <v>342</v>
+        <v>103</v>
       </c>
       <c r="J78" s="20">
-        <v>352</v>
+        <v>106</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="L78" s="20"/>
       <c r="M78" s="20" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="N78" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O78" s="20" t="s">
-        <v>567</v>
-      </c>
-      <c r="P78" s="20" t="s">
-        <v>550</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="P78" s="20"/>
       <c r="Q78" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="R78" s="20"/>
-      <c r="S78" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="T78" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="U78" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="V78" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="W78" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="X78" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="R78" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="S78" s="20"/>
+      <c r="T78" s="20"/>
+      <c r="U78" s="20"/>
+      <c r="V78" s="20"/>
+      <c r="W78" s="20"/>
+      <c r="X78" s="20"/>
       <c r="Y78" s="20"/>
-      <c r="Z78" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="AA78" s="20">
-        <v>2</v>
-      </c>
-      <c r="AB78" s="20">
-        <v>2</v>
-      </c>
-      <c r="AC78" s="20">
-        <v>3</v>
-      </c>
+      <c r="Z78" s="20"/>
+      <c r="AA78" s="20"/>
+      <c r="AB78" s="20"/>
+      <c r="AC78" s="20"/>
       <c r="AD78" s="20"/>
-      <c r="AE78" s="20"/>
-      <c r="AF78" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="AG78" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH78" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI78" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ78" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="AE78" s="20" t="s">
+        <v>646</v>
+      </c>
+      <c r="AF78" s="20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG78" s="20"/>
+      <c r="AH78" s="20"/>
+      <c r="AI78" s="20"/>
+      <c r="AJ78" s="20"/>
       <c r="AK78" s="20"/>
-      <c r="AL78" s="22" t="s">
-        <v>671</v>
-      </c>
-      <c r="AM78" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN78" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO78" s="20" t="s">
-        <v>667</v>
-      </c>
-      <c r="AP78" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="AQ78" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR78" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS78" s="20" t="s">
-        <v>176</v>
-      </c>
+      <c r="AL78" s="20"/>
+      <c r="AM78" s="20"/>
+      <c r="AN78" s="20"/>
+      <c r="AO78" s="20"/>
+      <c r="AP78" s="20"/>
+      <c r="AQ78" s="20"/>
+      <c r="AR78" s="20"/>
+      <c r="AS78" s="20"/>
       <c r="AT78" s="20"/>
-      <c r="AU78" s="20" t="s">
-        <v>668</v>
-      </c>
-      <c r="AV78" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW78" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX78" s="22" t="s">
-        <v>673</v>
-      </c>
+      <c r="AU78" s="20"/>
+      <c r="AV78" s="20"/>
+      <c r="AW78" s="20"/>
+      <c r="AX78" s="20"/>
       <c r="AY78" s="20"/>
       <c r="AZ78" s="20"/>
       <c r="BA78" s="20"/>
@@ -18558,91 +18587,137 @@
     </row>
     <row r="79" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="20" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B79" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="E79" s="20">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>571</v>
+        <v>246</v>
       </c>
       <c r="G79" s="20">
-        <v>22</v>
-      </c>
-      <c r="H79" s="20"/>
+        <v>55</v>
+      </c>
+      <c r="H79" s="20">
+        <v>3</v>
+      </c>
       <c r="I79" s="20">
-        <v>119</v>
+        <v>342</v>
       </c>
       <c r="J79" s="20">
-        <v>123</v>
+        <v>352</v>
       </c>
       <c r="K79" s="20" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="L79" s="20"/>
       <c r="M79" s="20" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="N79" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O79" s="20" t="s">
-        <v>250</v>
+        <v>566</v>
       </c>
       <c r="P79" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Q79" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="R79" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="S79" s="20"/>
-      <c r="T79" s="20"/>
-      <c r="U79" s="20"/>
-      <c r="V79" s="20"/>
-      <c r="W79" s="20"/>
-      <c r="X79" s="20"/>
+      <c r="R79" s="20"/>
+      <c r="S79" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="T79" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="U79" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V79" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="W79" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="X79" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="Y79" s="20"/>
-      <c r="Z79" s="20"/>
-      <c r="AA79" s="20"/>
-      <c r="AB79" s="20"/>
-      <c r="AC79" s="20"/>
+      <c r="Z79" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="AA79" s="20">
+        <v>2</v>
+      </c>
+      <c r="AB79" s="20">
+        <v>2</v>
+      </c>
+      <c r="AC79" s="20">
+        <v>3</v>
+      </c>
       <c r="AD79" s="20"/>
-      <c r="AE79" s="20" t="s">
-        <v>654</v>
-      </c>
+      <c r="AE79" s="20"/>
       <c r="AF79" s="20">
         <v>4.2</v>
       </c>
-      <c r="AG79" s="20"/>
-      <c r="AH79" s="20"/>
+      <c r="AG79" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH79" s="20" t="s">
+        <v>220</v>
+      </c>
       <c r="AI79" s="20"/>
       <c r="AJ79" s="20"/>
       <c r="AK79" s="20"/>
-      <c r="AL79" s="20"/>
-      <c r="AM79" s="20"/>
-      <c r="AN79" s="20"/>
-      <c r="AO79" s="20"/>
-      <c r="AP79" s="20"/>
-      <c r="AQ79" s="20"/>
-      <c r="AR79" s="20"/>
-      <c r="AS79" s="20"/>
+      <c r="AL79" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="AM79" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN79" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO79" s="20" t="s">
+        <v>740</v>
+      </c>
+      <c r="AP79" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ79" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR79" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS79" s="20" t="s">
+        <v>175</v>
+      </c>
       <c r="AT79" s="20"/>
-      <c r="AU79" s="20"/>
-      <c r="AV79" s="20"/>
-      <c r="AW79" s="20"/>
-      <c r="AX79" s="20"/>
+      <c r="AU79" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="AV79" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW79" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX79" s="22" t="s">
+        <v>664</v>
+      </c>
       <c r="AY79" s="20"/>
       <c r="AZ79" s="20"/>
       <c r="BA79" s="20"/>
@@ -18683,76 +18758,76 @@
     </row>
     <row r="80" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="20" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="E80" s="20">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="G80" s="20">
-        <v>139</v>
-      </c>
-      <c r="H80" s="25">
-        <v>44621</v>
+        <v>55</v>
+      </c>
+      <c r="H80" s="20">
+        <v>3</v>
       </c>
       <c r="I80" s="20">
-        <v>19</v>
+        <v>342</v>
       </c>
       <c r="J80" s="20">
-        <v>29</v>
+        <v>352</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="L80" s="20"/>
       <c r="M80" s="20" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="N80" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O80" s="20" t="s">
-        <v>250</v>
+        <v>566</v>
       </c>
       <c r="P80" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Q80" s="20" t="s">
         <v>21</v>
       </c>
       <c r="R80" s="20"/>
       <c r="S80" s="20" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T80" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U80" s="20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V80" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W80" s="20" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="X80" s="20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="Y80" s="20"/>
       <c r="Z80" s="20" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="AA80" s="20">
         <v>2</v>
@@ -18766,26 +18841,28 @@
       <c r="AD80" s="20"/>
       <c r="AE80" s="20"/>
       <c r="AF80" s="20">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="AG80" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH80" s="20" t="s">
-        <v>116</v>
+        <v>220</v>
       </c>
       <c r="AI80" s="20"/>
       <c r="AJ80" s="20"/>
       <c r="AK80" s="20"/>
-      <c r="AL80" s="24" t="s">
-        <v>422</v>
+      <c r="AL80" s="22" t="s">
+        <v>661</v>
       </c>
       <c r="AM80" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN80" s="20"/>
+        <v>232</v>
+      </c>
+      <c r="AN80" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="AO80" s="20" t="s">
-        <v>675</v>
+        <v>740</v>
       </c>
       <c r="AP80" s="20" t="s">
         <v>374</v>
@@ -18796,19 +18873,21 @@
       <c r="AR80" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="AS80" s="20"/>
+      <c r="AS80" s="20" t="s">
+        <v>176</v>
+      </c>
       <c r="AT80" s="20"/>
       <c r="AU80" s="20" t="s">
-        <v>705</v>
+        <v>660</v>
       </c>
       <c r="AV80" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AW80" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX80" s="22" t="s">
-        <v>706</v>
+        <v>665</v>
       </c>
       <c r="AY80" s="20"/>
       <c r="AZ80" s="20"/>
@@ -18850,76 +18929,76 @@
     </row>
     <row r="81" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="20" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B81" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="E81" s="20">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="G81" s="20">
-        <v>139</v>
-      </c>
-      <c r="H81" s="25">
-        <v>44621</v>
+        <v>55</v>
+      </c>
+      <c r="H81" s="20">
+        <v>3</v>
       </c>
       <c r="I81" s="20">
-        <v>19</v>
+        <v>342</v>
       </c>
       <c r="J81" s="20">
-        <v>29</v>
+        <v>352</v>
       </c>
       <c r="K81" s="20" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="L81" s="20"/>
       <c r="M81" s="20" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="N81" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O81" s="20" t="s">
-        <v>250</v>
+        <v>566</v>
       </c>
       <c r="P81" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Q81" s="20" t="s">
         <v>21</v>
       </c>
       <c r="R81" s="20"/>
       <c r="S81" s="20" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T81" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U81" s="20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V81" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W81" s="20" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="X81" s="20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="Y81" s="20"/>
       <c r="Z81" s="20" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="AA81" s="20">
         <v>2</v>
@@ -18932,27 +19011,29 @@
       </c>
       <c r="AD81" s="20"/>
       <c r="AE81" s="20"/>
-      <c r="AF81" s="20">
-        <v>4.4000000000000004</v>
+      <c r="AF81" s="20" t="s">
+        <v>374</v>
       </c>
       <c r="AG81" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH81" s="20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AI81" s="20"/>
       <c r="AJ81" s="20"/>
       <c r="AK81" s="20"/>
-      <c r="AL81" s="24" t="s">
-        <v>422</v>
+      <c r="AL81" s="22" t="s">
+        <v>662</v>
       </c>
       <c r="AM81" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN81" s="20"/>
+        <v>232</v>
+      </c>
+      <c r="AN81" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="AO81" s="20" t="s">
-        <v>675</v>
+        <v>740</v>
       </c>
       <c r="AP81" s="20" t="s">
         <v>374</v>
@@ -18963,19 +19044,21 @@
       <c r="AR81" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="AS81" s="20"/>
+      <c r="AS81" s="20" t="s">
+        <v>175</v>
+      </c>
       <c r="AT81" s="20"/>
       <c r="AU81" s="20" t="s">
-        <v>708</v>
+        <v>660</v>
       </c>
       <c r="AV81" s="20" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="AW81" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX81" s="22" t="s">
-        <v>707</v>
+        <v>664</v>
       </c>
       <c r="AY81" s="20"/>
       <c r="AZ81" s="20"/>
@@ -19017,74 +19100,76 @@
     </row>
     <row r="82" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="20" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="B82" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="E82" s="20">
-        <v>2018</v>
+        <v>1998</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>582</v>
+        <v>246</v>
       </c>
       <c r="G82" s="20">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H82" s="20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I82" s="20">
-        <v>571</v>
+        <v>342</v>
       </c>
       <c r="J82" s="20">
-        <v>577</v>
+        <v>352</v>
       </c>
       <c r="K82" s="20" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="L82" s="20"/>
       <c r="M82" s="20" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="N82" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O82" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="P82" s="20"/>
+        <v>566</v>
+      </c>
+      <c r="P82" s="20" t="s">
+        <v>549</v>
+      </c>
       <c r="Q82" s="20" t="s">
-        <v>586</v>
+        <v>21</v>
       </c>
       <c r="R82" s="20"/>
       <c r="S82" s="20" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="T82" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="U82" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V82" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="U82" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="V82" s="20" t="s">
-        <v>44</v>
-      </c>
       <c r="W82" s="20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X82" s="20" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Y82" s="20"/>
       <c r="Z82" s="20" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="AA82" s="20">
         <v>2</v>
@@ -19097,24 +19182,20 @@
       </c>
       <c r="AD82" s="20"/>
       <c r="AE82" s="20"/>
-      <c r="AF82" s="20">
-        <v>4.2</v>
+      <c r="AF82" s="20" t="s">
+        <v>374</v>
       </c>
       <c r="AG82" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH82" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI82" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ82" s="20" t="s">
-        <v>155</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="AI82" s="20"/>
+      <c r="AJ82" s="20"/>
       <c r="AK82" s="20"/>
       <c r="AL82" s="22" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="AM82" s="20" t="s">
         <v>232</v>
@@ -19123,7 +19204,7 @@
         <v>162</v>
       </c>
       <c r="AO82" s="20" t="s">
-        <v>679</v>
+        <v>740</v>
       </c>
       <c r="AP82" s="20" t="s">
         <v>374</v>
@@ -19132,25 +19213,23 @@
         <v>164</v>
       </c>
       <c r="AR82" s="20" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS82" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT82" s="20" t="s">
-        <v>676</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AT82" s="20"/>
       <c r="AU82" s="20" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="AV82" s="20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW82" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX82" s="22" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="AY82" s="20"/>
       <c r="AZ82" s="20"/>
@@ -19192,74 +19271,76 @@
     </row>
     <row r="83" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="20" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="B83" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="E83" s="20">
-        <v>2018</v>
+        <v>1998</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>582</v>
+        <v>246</v>
       </c>
       <c r="G83" s="20">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H83" s="20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I83" s="20">
-        <v>571</v>
+        <v>342</v>
       </c>
       <c r="J83" s="20">
-        <v>577</v>
+        <v>352</v>
       </c>
       <c r="K83" s="20" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="L83" s="20"/>
       <c r="M83" s="20" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="N83" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O83" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="P83" s="20"/>
+        <v>566</v>
+      </c>
+      <c r="P83" s="20" t="s">
+        <v>549</v>
+      </c>
       <c r="Q83" s="20" t="s">
-        <v>586</v>
+        <v>21</v>
       </c>
       <c r="R83" s="20"/>
       <c r="S83" s="20" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="T83" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="U83" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V83" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="U83" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="V83" s="20" t="s">
-        <v>44</v>
-      </c>
       <c r="W83" s="20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X83" s="20" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Y83" s="20"/>
       <c r="Z83" s="20" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="AA83" s="20">
         <v>2</v>
@@ -19272,22 +19353,24 @@
       </c>
       <c r="AD83" s="20"/>
       <c r="AE83" s="20"/>
-      <c r="AF83" s="20">
-        <v>4.2</v>
+      <c r="AF83" s="20" t="s">
+        <v>374</v>
       </c>
       <c r="AG83" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH83" s="20" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI83" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="AJ83" s="20"/>
+        <v>140</v>
+      </c>
+      <c r="AJ83" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="AK83" s="20"/>
       <c r="AL83" s="22" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="AM83" s="20" t="s">
         <v>232</v>
@@ -19296,7 +19379,7 @@
         <v>162</v>
       </c>
       <c r="AO83" s="20" t="s">
-        <v>679</v>
+        <v>740</v>
       </c>
       <c r="AP83" s="20" t="s">
         <v>374</v>
@@ -19305,25 +19388,23 @@
         <v>164</v>
       </c>
       <c r="AR83" s="20" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS83" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT83" s="20" t="s">
-        <v>676</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AT83" s="20"/>
       <c r="AU83" s="20" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="AV83" s="20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW83" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX83" s="22" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="AY83" s="20"/>
       <c r="AZ83" s="20"/>
@@ -19365,74 +19446,76 @@
     </row>
     <row r="84" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="20" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="B84" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="E84" s="20">
-        <v>2018</v>
+        <v>1998</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>582</v>
+        <v>246</v>
       </c>
       <c r="G84" s="20">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H84" s="20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I84" s="20">
-        <v>571</v>
+        <v>342</v>
       </c>
       <c r="J84" s="20">
-        <v>577</v>
+        <v>352</v>
       </c>
       <c r="K84" s="20" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="L84" s="20"/>
       <c r="M84" s="20" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="N84" s="20" t="s">
         <v>249</v>
       </c>
       <c r="O84" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="P84" s="20"/>
+        <v>566</v>
+      </c>
+      <c r="P84" s="20" t="s">
+        <v>549</v>
+      </c>
       <c r="Q84" s="20" t="s">
-        <v>586</v>
+        <v>21</v>
       </c>
       <c r="R84" s="20"/>
       <c r="S84" s="20" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="T84" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="U84" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V84" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="U84" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="V84" s="20" t="s">
-        <v>44</v>
-      </c>
       <c r="W84" s="20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X84" s="20" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Y84" s="20"/>
       <c r="Z84" s="20" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="AA84" s="20">
         <v>2</v>
@@ -19445,22 +19528,24 @@
       </c>
       <c r="AD84" s="20"/>
       <c r="AE84" s="20"/>
-      <c r="AF84" s="20">
-        <v>4.2</v>
+      <c r="AF84" s="20" t="s">
+        <v>374</v>
       </c>
       <c r="AG84" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH84" s="20" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI84" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ84" s="20"/>
+        <v>140</v>
+      </c>
+      <c r="AJ84" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="AK84" s="20"/>
       <c r="AL84" s="22" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="AM84" s="20" t="s">
         <v>232</v>
@@ -19469,7 +19554,7 @@
         <v>162</v>
       </c>
       <c r="AO84" s="20" t="s">
-        <v>679</v>
+        <v>740</v>
       </c>
       <c r="AP84" s="20" t="s">
         <v>374</v>
@@ -19478,25 +19563,23 @@
         <v>164</v>
       </c>
       <c r="AR84" s="20" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS84" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT84" s="20" t="s">
-        <v>676</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AT84" s="20"/>
       <c r="AU84" s="20" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="AV84" s="20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW84" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX84" s="22" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="AY84" s="20"/>
       <c r="AZ84" s="20"/>
@@ -19538,41 +19621,39 @@
     </row>
     <row r="85" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="20" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="B85" s="20" t="s">
         <v>243</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="E85" s="20">
-        <v>2018</v>
+        <v>1997</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="G85" s="20">
-        <v>59</v>
-      </c>
-      <c r="H85" s="20">
-        <v>6</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H85" s="20"/>
       <c r="I85" s="20">
+        <v>119</v>
+      </c>
+      <c r="J85" s="20">
+        <v>123</v>
+      </c>
+      <c r="K85" s="20" t="s">
         <v>571</v>
-      </c>
-      <c r="J85" s="20">
-        <v>577</v>
-      </c>
-      <c r="K85" s="20" t="s">
-        <v>583</v>
       </c>
       <c r="L85" s="20"/>
       <c r="M85" s="20" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="N85" s="20" t="s">
         <v>249</v>
@@ -19580,97 +19661,51 @@
       <c r="O85" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="P85" s="20"/>
+      <c r="P85" s="20" t="s">
+        <v>549</v>
+      </c>
       <c r="Q85" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="R85" s="20"/>
-      <c r="S85" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="T85" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="U85" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="V85" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="W85" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="X85" s="20" t="s">
-        <v>215</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="R85" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="S85" s="20"/>
+      <c r="T85" s="20"/>
+      <c r="U85" s="20"/>
+      <c r="V85" s="20"/>
+      <c r="W85" s="20"/>
+      <c r="X85" s="20"/>
       <c r="Y85" s="20"/>
-      <c r="Z85" s="20" t="s">
-        <v>678</v>
-      </c>
-      <c r="AA85" s="20">
-        <v>2</v>
-      </c>
-      <c r="AB85" s="20">
-        <v>2</v>
-      </c>
-      <c r="AC85" s="20">
-        <v>3</v>
-      </c>
+      <c r="Z85" s="20"/>
+      <c r="AA85" s="20"/>
+      <c r="AB85" s="20"/>
+      <c r="AC85" s="20"/>
       <c r="AD85" s="20"/>
-      <c r="AE85" s="20"/>
+      <c r="AE85" s="20" t="s">
+        <v>647</v>
+      </c>
       <c r="AF85" s="20">
         <v>4.2</v>
       </c>
-      <c r="AG85" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH85" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI85" s="20" t="s">
-        <v>144</v>
-      </c>
+      <c r="AG85" s="20"/>
+      <c r="AH85" s="20"/>
+      <c r="AI85" s="20"/>
       <c r="AJ85" s="20"/>
       <c r="AK85" s="20"/>
-      <c r="AL85" s="22" t="s">
-        <v>683</v>
-      </c>
-      <c r="AM85" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN85" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO85" s="20" t="s">
-        <v>679</v>
-      </c>
-      <c r="AP85" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="AQ85" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR85" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS85" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT85" s="20" t="s">
-        <v>676</v>
-      </c>
-      <c r="AU85" s="20" t="s">
-        <v>677</v>
-      </c>
-      <c r="AV85" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW85" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX85" s="22" t="s">
-        <v>684</v>
-      </c>
+      <c r="AL85" s="20"/>
+      <c r="AM85" s="20"/>
+      <c r="AN85" s="20"/>
+      <c r="AO85" s="20"/>
+      <c r="AP85" s="20"/>
+      <c r="AQ85" s="20"/>
+      <c r="AR85" s="20"/>
+      <c r="AS85" s="20"/>
+      <c r="AT85" s="20"/>
+      <c r="AU85" s="20"/>
+      <c r="AV85" s="20"/>
+      <c r="AW85" s="20"/>
+      <c r="AX85" s="20"/>
       <c r="AY85" s="20"/>
       <c r="AZ85" s="20"/>
       <c r="BA85" s="20"/>
@@ -19709,8 +19744,1036 @@
       <c r="CH85" s="20"/>
       <c r="CI85" s="20"/>
     </row>
-    <row r="86" spans="1:87" x14ac:dyDescent="0.35">
-      <c r="AX86" s="13"/>
+    <row r="86" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="E86" s="20">
+        <v>1996</v>
+      </c>
+      <c r="F86" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="G86" s="20">
+        <v>139</v>
+      </c>
+      <c r="H86" s="25">
+        <v>44621</v>
+      </c>
+      <c r="I86" s="20">
+        <v>19</v>
+      </c>
+      <c r="J86" s="20">
+        <v>29</v>
+      </c>
+      <c r="K86" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="N86" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="O86" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="P86" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q86" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="R86" s="20"/>
+      <c r="S86" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T86" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="U86" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="V86" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="W86" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="X86" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y86" s="20"/>
+      <c r="Z86" s="20" t="s">
+        <v>666</v>
+      </c>
+      <c r="AA86" s="20">
+        <v>2</v>
+      </c>
+      <c r="AB86" s="20">
+        <v>2</v>
+      </c>
+      <c r="AC86" s="20">
+        <v>3</v>
+      </c>
+      <c r="AD86" s="20"/>
+      <c r="AE86" s="20"/>
+      <c r="AF86" s="20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG86" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH86" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI86" s="20"/>
+      <c r="AJ86" s="20"/>
+      <c r="AK86" s="20"/>
+      <c r="AL86" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM86" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN86" s="20"/>
+      <c r="AO86" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="AP86" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ86" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR86" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS86" s="20"/>
+      <c r="AT86" s="20"/>
+      <c r="AU86" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="AV86" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="AW86" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX86" s="22" t="s">
+        <v>698</v>
+      </c>
+      <c r="AY86" s="20"/>
+      <c r="AZ86" s="20"/>
+      <c r="BA86" s="20"/>
+      <c r="BB86" s="20"/>
+      <c r="BC86" s="20"/>
+      <c r="BD86" s="20"/>
+      <c r="BE86" s="20"/>
+      <c r="BF86" s="20"/>
+      <c r="BG86" s="20"/>
+      <c r="BH86" s="20"/>
+      <c r="BI86" s="20"/>
+      <c r="BJ86" s="20"/>
+      <c r="BK86" s="20"/>
+      <c r="BL86" s="20"/>
+      <c r="BM86" s="20"/>
+      <c r="BN86" s="20"/>
+      <c r="BO86" s="20"/>
+      <c r="BP86" s="20"/>
+      <c r="BQ86" s="20"/>
+      <c r="BR86" s="20"/>
+      <c r="BS86" s="20"/>
+      <c r="BT86" s="20"/>
+      <c r="BU86" s="20"/>
+      <c r="BV86" s="20"/>
+      <c r="BW86" s="20"/>
+      <c r="BX86" s="20"/>
+      <c r="BY86" s="20"/>
+      <c r="BZ86" s="20"/>
+      <c r="CA86" s="20"/>
+      <c r="CB86" s="20"/>
+      <c r="CC86" s="20"/>
+      <c r="CD86" s="20"/>
+      <c r="CE86" s="20"/>
+      <c r="CF86" s="20"/>
+      <c r="CG86" s="20"/>
+      <c r="CH86" s="20"/>
+      <c r="CI86" s="20"/>
+    </row>
+    <row r="87" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="E87" s="20">
+        <v>1996</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="G87" s="20">
+        <v>139</v>
+      </c>
+      <c r="H87" s="25">
+        <v>44621</v>
+      </c>
+      <c r="I87" s="20">
+        <v>19</v>
+      </c>
+      <c r="J87" s="20">
+        <v>29</v>
+      </c>
+      <c r="K87" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="L87" s="20"/>
+      <c r="M87" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="N87" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="O87" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="P87" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q87" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="R87" s="20"/>
+      <c r="S87" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T87" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="U87" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="V87" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="W87" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="X87" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y87" s="20"/>
+      <c r="Z87" s="20" t="s">
+        <v>666</v>
+      </c>
+      <c r="AA87" s="20">
+        <v>2</v>
+      </c>
+      <c r="AB87" s="20">
+        <v>2</v>
+      </c>
+      <c r="AC87" s="20">
+        <v>3</v>
+      </c>
+      <c r="AD87" s="20"/>
+      <c r="AE87" s="20"/>
+      <c r="AF87" s="20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG87" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH87" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI87" s="20"/>
+      <c r="AJ87" s="20"/>
+      <c r="AK87" s="20"/>
+      <c r="AL87" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM87" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN87" s="20"/>
+      <c r="AO87" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="AP87" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ87" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR87" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS87" s="20"/>
+      <c r="AT87" s="20"/>
+      <c r="AU87" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="AV87" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW87" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX87" s="22" t="s">
+        <v>699</v>
+      </c>
+      <c r="AY87" s="20"/>
+      <c r="AZ87" s="20"/>
+      <c r="BA87" s="20"/>
+      <c r="BB87" s="20"/>
+      <c r="BC87" s="20"/>
+      <c r="BD87" s="20"/>
+      <c r="BE87" s="20"/>
+      <c r="BF87" s="20"/>
+      <c r="BG87" s="20"/>
+      <c r="BH87" s="20"/>
+      <c r="BI87" s="20"/>
+      <c r="BJ87" s="20"/>
+      <c r="BK87" s="20"/>
+      <c r="BL87" s="20"/>
+      <c r="BM87" s="20"/>
+      <c r="BN87" s="20"/>
+      <c r="BO87" s="20"/>
+      <c r="BP87" s="20"/>
+      <c r="BQ87" s="20"/>
+      <c r="BR87" s="20"/>
+      <c r="BS87" s="20"/>
+      <c r="BT87" s="20"/>
+      <c r="BU87" s="20"/>
+      <c r="BV87" s="20"/>
+      <c r="BW87" s="20"/>
+      <c r="BX87" s="20"/>
+      <c r="BY87" s="20"/>
+      <c r="BZ87" s="20"/>
+      <c r="CA87" s="20"/>
+      <c r="CB87" s="20"/>
+      <c r="CC87" s="20"/>
+      <c r="CD87" s="20"/>
+      <c r="CE87" s="20"/>
+      <c r="CF87" s="20"/>
+      <c r="CG87" s="20"/>
+      <c r="CH87" s="20"/>
+      <c r="CI87" s="20"/>
+    </row>
+    <row r="88" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="E88" s="20">
+        <v>2018</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="G88" s="20">
+        <v>59</v>
+      </c>
+      <c r="H88" s="20">
+        <v>6</v>
+      </c>
+      <c r="I88" s="20">
+        <v>571</v>
+      </c>
+      <c r="J88" s="20">
+        <v>577</v>
+      </c>
+      <c r="K88" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="N88" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="O88" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="P88" s="20"/>
+      <c r="Q88" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="R88" s="20"/>
+      <c r="S88" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="T88" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="U88" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="V88" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="W88" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="X88" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y88" s="20"/>
+      <c r="Z88" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="AA88" s="20">
+        <v>2</v>
+      </c>
+      <c r="AB88" s="20">
+        <v>2</v>
+      </c>
+      <c r="AC88" s="20">
+        <v>3</v>
+      </c>
+      <c r="AD88" s="20"/>
+      <c r="AE88" s="20"/>
+      <c r="AF88" s="20">
+        <v>4.2</v>
+      </c>
+      <c r="AG88" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH88" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI88" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ88" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK88" s="20"/>
+      <c r="AL88" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="AM88" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN88" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO88" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="AP88" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ88" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR88" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS88" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT88" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="AU88" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="AV88" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW88" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX88" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="AY88" s="20"/>
+      <c r="AZ88" s="20"/>
+      <c r="BA88" s="20"/>
+      <c r="BB88" s="20"/>
+      <c r="BC88" s="20"/>
+      <c r="BD88" s="20"/>
+      <c r="BE88" s="20"/>
+      <c r="BF88" s="20"/>
+      <c r="BG88" s="20"/>
+      <c r="BH88" s="20"/>
+      <c r="BI88" s="20"/>
+      <c r="BJ88" s="20"/>
+      <c r="BK88" s="20"/>
+      <c r="BL88" s="20"/>
+      <c r="BM88" s="20"/>
+      <c r="BN88" s="20"/>
+      <c r="BO88" s="20"/>
+      <c r="BP88" s="20"/>
+      <c r="BQ88" s="20"/>
+      <c r="BR88" s="20"/>
+      <c r="BS88" s="20"/>
+      <c r="BT88" s="20"/>
+      <c r="BU88" s="20"/>
+      <c r="BV88" s="20"/>
+      <c r="BW88" s="20"/>
+      <c r="BX88" s="20"/>
+      <c r="BY88" s="20"/>
+      <c r="BZ88" s="20"/>
+      <c r="CA88" s="20"/>
+      <c r="CB88" s="20"/>
+      <c r="CC88" s="20"/>
+      <c r="CD88" s="20"/>
+      <c r="CE88" s="20"/>
+      <c r="CF88" s="20"/>
+      <c r="CG88" s="20"/>
+      <c r="CH88" s="20"/>
+      <c r="CI88" s="20"/>
+    </row>
+    <row r="89" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="E89" s="20">
+        <v>2018</v>
+      </c>
+      <c r="F89" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="G89" s="20">
+        <v>59</v>
+      </c>
+      <c r="H89" s="20">
+        <v>6</v>
+      </c>
+      <c r="I89" s="20">
+        <v>571</v>
+      </c>
+      <c r="J89" s="20">
+        <v>577</v>
+      </c>
+      <c r="K89" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="L89" s="20"/>
+      <c r="M89" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="N89" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="O89" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="P89" s="20"/>
+      <c r="Q89" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="R89" s="20"/>
+      <c r="S89" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="T89" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="U89" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="V89" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="W89" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="X89" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y89" s="20"/>
+      <c r="Z89" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="AA89" s="20">
+        <v>2</v>
+      </c>
+      <c r="AB89" s="20">
+        <v>2</v>
+      </c>
+      <c r="AC89" s="20">
+        <v>3</v>
+      </c>
+      <c r="AD89" s="20"/>
+      <c r="AE89" s="20"/>
+      <c r="AF89" s="20">
+        <v>4.2</v>
+      </c>
+      <c r="AG89" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH89" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI89" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ89" s="20"/>
+      <c r="AK89" s="20"/>
+      <c r="AL89" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="AM89" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN89" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO89" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="AP89" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ89" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR89" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS89" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT89" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="AU89" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="AV89" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW89" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX89" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="AY89" s="20"/>
+      <c r="AZ89" s="20"/>
+      <c r="BA89" s="20"/>
+      <c r="BB89" s="20"/>
+      <c r="BC89" s="20"/>
+      <c r="BD89" s="20"/>
+      <c r="BE89" s="20"/>
+      <c r="BF89" s="20"/>
+      <c r="BG89" s="20"/>
+      <c r="BH89" s="20"/>
+      <c r="BI89" s="20"/>
+      <c r="BJ89" s="20"/>
+      <c r="BK89" s="20"/>
+      <c r="BL89" s="20"/>
+      <c r="BM89" s="20"/>
+      <c r="BN89" s="20"/>
+      <c r="BO89" s="20"/>
+      <c r="BP89" s="20"/>
+      <c r="BQ89" s="20"/>
+      <c r="BR89" s="20"/>
+      <c r="BS89" s="20"/>
+      <c r="BT89" s="20"/>
+      <c r="BU89" s="20"/>
+      <c r="BV89" s="20"/>
+      <c r="BW89" s="20"/>
+      <c r="BX89" s="20"/>
+      <c r="BY89" s="20"/>
+      <c r="BZ89" s="20"/>
+      <c r="CA89" s="20"/>
+      <c r="CB89" s="20"/>
+      <c r="CC89" s="20"/>
+      <c r="CD89" s="20"/>
+      <c r="CE89" s="20"/>
+      <c r="CF89" s="20"/>
+      <c r="CG89" s="20"/>
+      <c r="CH89" s="20"/>
+      <c r="CI89" s="20"/>
+    </row>
+    <row r="90" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="E90" s="20">
+        <v>2018</v>
+      </c>
+      <c r="F90" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="G90" s="20">
+        <v>59</v>
+      </c>
+      <c r="H90" s="20">
+        <v>6</v>
+      </c>
+      <c r="I90" s="20">
+        <v>571</v>
+      </c>
+      <c r="J90" s="20">
+        <v>577</v>
+      </c>
+      <c r="K90" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="N90" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="O90" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="P90" s="20"/>
+      <c r="Q90" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="R90" s="20"/>
+      <c r="S90" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="T90" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="U90" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="V90" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="W90" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="X90" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y90" s="20"/>
+      <c r="Z90" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="AA90" s="20">
+        <v>2</v>
+      </c>
+      <c r="AB90" s="20">
+        <v>2</v>
+      </c>
+      <c r="AC90" s="20">
+        <v>3</v>
+      </c>
+      <c r="AD90" s="20"/>
+      <c r="AE90" s="20"/>
+      <c r="AF90" s="20">
+        <v>4.2</v>
+      </c>
+      <c r="AG90" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH90" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI90" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ90" s="20"/>
+      <c r="AK90" s="20"/>
+      <c r="AL90" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="AM90" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN90" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO90" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="AP90" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ90" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR90" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS90" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT90" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="AU90" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="AV90" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW90" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX90" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="AY90" s="20"/>
+      <c r="AZ90" s="20"/>
+      <c r="BA90" s="20"/>
+      <c r="BB90" s="20"/>
+      <c r="BC90" s="20"/>
+      <c r="BD90" s="20"/>
+      <c r="BE90" s="20"/>
+      <c r="BF90" s="20"/>
+      <c r="BG90" s="20"/>
+      <c r="BH90" s="20"/>
+      <c r="BI90" s="20"/>
+      <c r="BJ90" s="20"/>
+      <c r="BK90" s="20"/>
+      <c r="BL90" s="20"/>
+      <c r="BM90" s="20"/>
+      <c r="BN90" s="20"/>
+      <c r="BO90" s="20"/>
+      <c r="BP90" s="20"/>
+      <c r="BQ90" s="20"/>
+      <c r="BR90" s="20"/>
+      <c r="BS90" s="20"/>
+      <c r="BT90" s="20"/>
+      <c r="BU90" s="20"/>
+      <c r="BV90" s="20"/>
+      <c r="BW90" s="20"/>
+      <c r="BX90" s="20"/>
+      <c r="BY90" s="20"/>
+      <c r="BZ90" s="20"/>
+      <c r="CA90" s="20"/>
+      <c r="CB90" s="20"/>
+      <c r="CC90" s="20"/>
+      <c r="CD90" s="20"/>
+      <c r="CE90" s="20"/>
+      <c r="CF90" s="20"/>
+      <c r="CG90" s="20"/>
+      <c r="CH90" s="20"/>
+      <c r="CI90" s="20"/>
+    </row>
+    <row r="91" spans="1:87" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="E91" s="20">
+        <v>2018</v>
+      </c>
+      <c r="F91" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="G91" s="20">
+        <v>59</v>
+      </c>
+      <c r="H91" s="20">
+        <v>6</v>
+      </c>
+      <c r="I91" s="20">
+        <v>571</v>
+      </c>
+      <c r="J91" s="20">
+        <v>577</v>
+      </c>
+      <c r="K91" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="L91" s="20"/>
+      <c r="M91" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="N91" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="O91" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="P91" s="20"/>
+      <c r="Q91" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="R91" s="20"/>
+      <c r="S91" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="T91" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="U91" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="V91" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="W91" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="X91" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y91" s="20"/>
+      <c r="Z91" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="AA91" s="20">
+        <v>2</v>
+      </c>
+      <c r="AB91" s="20">
+        <v>2</v>
+      </c>
+      <c r="AC91" s="20">
+        <v>3</v>
+      </c>
+      <c r="AD91" s="20"/>
+      <c r="AE91" s="20"/>
+      <c r="AF91" s="20">
+        <v>4.2</v>
+      </c>
+      <c r="AG91" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH91" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI91" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ91" s="20"/>
+      <c r="AK91" s="20"/>
+      <c r="AL91" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="AM91" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN91" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO91" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="AP91" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ91" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR91" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS91" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT91" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="AU91" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="AV91" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW91" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX91" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="AY91" s="20"/>
+      <c r="AZ91" s="20"/>
+      <c r="BA91" s="20"/>
+      <c r="BB91" s="20"/>
+      <c r="BC91" s="20"/>
+      <c r="BD91" s="20"/>
+      <c r="BE91" s="20"/>
+      <c r="BF91" s="20"/>
+      <c r="BG91" s="20"/>
+      <c r="BH91" s="20"/>
+      <c r="BI91" s="20"/>
+      <c r="BJ91" s="20"/>
+      <c r="BK91" s="20"/>
+      <c r="BL91" s="20"/>
+      <c r="BM91" s="20"/>
+      <c r="BN91" s="20"/>
+      <c r="BO91" s="20"/>
+      <c r="BP91" s="20"/>
+      <c r="BQ91" s="20"/>
+      <c r="BR91" s="20"/>
+      <c r="BS91" s="20"/>
+      <c r="BT91" s="20"/>
+      <c r="BU91" s="20"/>
+      <c r="BV91" s="20"/>
+      <c r="BW91" s="20"/>
+      <c r="BX91" s="20"/>
+      <c r="BY91" s="20"/>
+      <c r="BZ91" s="20"/>
+      <c r="CA91" s="20"/>
+      <c r="CB91" s="20"/>
+      <c r="CC91" s="20"/>
+      <c r="CD91" s="20"/>
+      <c r="CE91" s="20"/>
+      <c r="CF91" s="20"/>
+      <c r="CG91" s="20"/>
+      <c r="CH91" s="20"/>
+      <c r="CI91" s="20"/>
+    </row>
+    <row r="92" spans="1:87" x14ac:dyDescent="0.35">
+      <c r="AX92" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -21982,14 +23045,14 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Binch.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Binch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/SEAwise GitHub/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{A4DC48CC-946E-4EE6-A903-5AFE1F4997B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C45D4F48-3B0D-48ED-9631-2E69338BB995}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F123D11-1B24-4FF8-8D43-AF785DBAEDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5177,7 +5177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5262,7 +5262,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5550,9 +5549,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU19" sqref="AU19"/>
+      <selection pane="bottomLeft" activeCell="AW94" sqref="AW94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7897,7 +7896,7 @@
       <c r="AW18" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="AX18" s="36" t="s">
+      <c r="AX18" s="12" t="s">
         <v>739</v>
       </c>
     </row>
@@ -9411,7 +9410,7 @@
         <v>698</v>
       </c>
       <c r="AV32" s="18" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW32" s="18" t="s">
         <v>207</v>
@@ -11628,7 +11627,7 @@
         <v>175</v>
       </c>
       <c r="AU52" s="18" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AV52" s="18" t="s">
         <v>199</v>
@@ -11756,7 +11755,7 @@
         <v>175</v>
       </c>
       <c r="AU53" s="18" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="AV53" s="18" t="s">
         <v>205</v>
@@ -18678,13 +18677,13 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Binch.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Binch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6764B766-89C8-4C90-8D14-C370A58E4651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8595C7BB-2340-4F9E-9E32-FAAE54B77DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -3820,9 +3820,6 @@
     <t>Fishing presence _ proximity to trammel nets</t>
   </si>
   <si>
-    <t>Skin mark severity _ skin mark abundance _ richness _ distribution</t>
-  </si>
-  <si>
     <t>the skin mark types more correlated with the leading principal components (Factor 1 and Factor 2) according to dolphins’ age, sex and DIN (Interaction with trammel nets) _ more severe marks for females were SC (loading on Factor 2 = 0.73), WP (loading on Factor 2 = 0.37) and DRL (loading on Factor 2 = 0.18), but they were not related to DIN and age of the individuals</t>
   </si>
   <si>
@@ -5027,6 +5024,9 @@
   </si>
   <si>
     <t>Number of purse seine fishing boats, tidal cycle, number of motor boats (as a measure of the marine traffic), upwelling index, and bottom slope aspect, however, were not present in the top model set, indicating that these covariates were not important predictors of the presence of common dolphins.</t>
+  </si>
+  <si>
+    <t>Skin mark severity _ skin mark abundance _ richness of skin marks _ distribution of skin marks</t>
   </si>
 </sst>
 </file>
@@ -5573,34 +5573,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO15" sqref="AO15"/>
+      <selection pane="bottomLeft" activeCell="BA105" sqref="BA105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="17" width="13" style="12"/>
     <col min="18" max="18" width="13" style="18"/>
-    <col min="19" max="19" width="18.1796875" style="12" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" style="12" customWidth="1"/>
     <col min="20" max="23" width="13" style="12"/>
-    <col min="24" max="25" width="32.54296875" style="12" customWidth="1"/>
+    <col min="24" max="25" width="32.5703125" style="12" customWidth="1"/>
     <col min="26" max="33" width="13" style="12"/>
-    <col min="34" max="35" width="17.54296875" style="12" customWidth="1"/>
-    <col min="36" max="36" width="18.54296875" style="12" customWidth="1"/>
-    <col min="37" max="37" width="19.1796875" style="12" customWidth="1"/>
-    <col min="38" max="38" width="17.54296875" style="12" customWidth="1"/>
-    <col min="39" max="39" width="14.453125" style="12" customWidth="1"/>
-    <col min="40" max="41" width="15.81640625" style="12" customWidth="1"/>
-    <col min="42" max="42" width="15.453125" style="12" customWidth="1"/>
+    <col min="34" max="35" width="17.5703125" style="12" customWidth="1"/>
+    <col min="36" max="36" width="18.5703125" style="12" customWidth="1"/>
+    <col min="37" max="37" width="19.140625" style="12" customWidth="1"/>
+    <col min="38" max="38" width="17.5703125" style="12" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" style="12" customWidth="1"/>
+    <col min="40" max="41" width="15.85546875" style="12" customWidth="1"/>
+    <col min="42" max="42" width="15.42578125" style="12" customWidth="1"/>
     <col min="43" max="45" width="13" style="12"/>
-    <col min="46" max="46" width="15.1796875" style="12" customWidth="1"/>
-    <col min="47" max="47" width="18.54296875" style="12" customWidth="1"/>
+    <col min="46" max="46" width="15.140625" style="12" customWidth="1"/>
+    <col min="47" max="47" width="18.5703125" style="12" customWidth="1"/>
     <col min="48" max="48" width="18" style="12" customWidth="1"/>
     <col min="49" max="16384" width="13" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>11</v>
       </c>
@@ -5666,7 +5666,7 @@
       <c r="AW1" s="24"/>
       <c r="AX1" s="24"/>
     </row>
-    <row r="2" spans="1:87" s="11" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:87" s="11" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>68</v>
       </c>
@@ -5855,7 +5855,7 @@
       <c r="CH2" s="10"/>
       <c r="CI2" s="10"/>
     </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>242</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>69</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AA3" s="12">
         <v>2</v>
@@ -5936,7 +5936,7 @@
         <v>3</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AF3" s="12">
         <v>4.3</v>
@@ -5954,7 +5954,7 @@
         <v>233</v>
       </c>
       <c r="AO3" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AP3" s="12" t="s">
         <v>374</v>
@@ -5978,10 +5978,10 @@
         <v>209</v>
       </c>
       <c r="AX3" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>252</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>252</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>259</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>259</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>265</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>265</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>271</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>188</v>
       </c>
       <c r="AU10" s="12" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AV10" s="12" t="s">
         <v>212</v>
@@ -6902,7 +6902,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>271</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>162</v>
       </c>
       <c r="AO11" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AP11" s="12" t="s">
         <v>438</v>
@@ -7018,7 +7018,7 @@
         <v>181</v>
       </c>
       <c r="AU11" s="12" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AV11" s="12" t="s">
         <v>212</v>
@@ -7030,7 +7030,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>271</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>162</v>
       </c>
       <c r="AO12" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AP12" s="12" t="s">
         <v>438</v>
@@ -7143,7 +7143,7 @@
         <v>239</v>
       </c>
       <c r="AU12" s="12" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AV12" s="12" t="s">
         <v>212</v>
@@ -7152,10 +7152,10 @@
         <v>210</v>
       </c>
       <c r="AX12" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>271</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>188</v>
       </c>
       <c r="AU13" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AV13" s="12" t="s">
         <v>212</v>
@@ -7280,10 +7280,10 @@
         <v>208</v>
       </c>
       <c r="AX13" s="12" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>271</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>162</v>
       </c>
       <c r="AO14" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AP14" s="12" t="s">
         <v>438</v>
@@ -7399,7 +7399,7 @@
         <v>181</v>
       </c>
       <c r="AU14" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AV14" s="12" t="s">
         <v>212</v>
@@ -7408,10 +7408,10 @@
         <v>210</v>
       </c>
       <c r="AX14" s="12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>271</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>162</v>
       </c>
       <c r="AO15" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AP15" s="12" t="s">
         <v>438</v>
@@ -7524,7 +7524,7 @@
         <v>239</v>
       </c>
       <c r="AU15" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AV15" s="12" t="s">
         <v>212</v>
@@ -7533,10 +7533,10 @@
         <v>207</v>
       </c>
       <c r="AX15" s="12" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>277</v>
       </c>
@@ -7655,19 +7655,19 @@
         <v>189</v>
       </c>
       <c r="AU16" s="12" t="s">
-        <v>447</v>
+        <v>749</v>
       </c>
       <c r="AV16" s="12" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AW16" s="12" t="s">
         <v>209</v>
       </c>
       <c r="AX16" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
-    <row r="17" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>284</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>69</v>
       </c>
       <c r="Z17" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AA17" s="18">
         <v>2</v>
@@ -7748,7 +7748,7 @@
         <v>3</v>
       </c>
       <c r="AE17" s="18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AF17" s="18">
         <v>4.2</v>
@@ -7769,7 +7769,7 @@
         <v>148</v>
       </c>
       <c r="AL17" s="22" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AM17" s="18" t="s">
         <v>232</v>
@@ -7778,7 +7778,7 @@
         <v>162</v>
       </c>
       <c r="AO17" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AP17" s="18" t="s">
         <v>374</v>
@@ -7793,10 +7793,10 @@
         <v>189</v>
       </c>
       <c r="AT17" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AU17" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AV17" s="18" t="s">
         <v>237</v>
@@ -7805,10 +7805,10 @@
         <v>210</v>
       </c>
       <c r="AX17" s="18" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
-    <row r="18" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>284</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>69</v>
       </c>
       <c r="Z18" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AA18" s="18">
         <v>2</v>
@@ -7889,7 +7889,7 @@
         <v>3</v>
       </c>
       <c r="AE18" s="18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AF18" s="18">
         <v>4.2</v>
@@ -7901,7 +7901,7 @@
         <v>220</v>
       </c>
       <c r="AL18" s="22" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AM18" s="18" t="s">
         <v>232</v>
@@ -7910,7 +7910,7 @@
         <v>162</v>
       </c>
       <c r="AO18" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AP18" s="18" t="s">
         <v>374</v>
@@ -7925,10 +7925,10 @@
         <v>189</v>
       </c>
       <c r="AT18" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AU18" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AV18" s="18" t="s">
         <v>237</v>
@@ -7937,10 +7937,10 @@
         <v>208</v>
       </c>
       <c r="AX18" s="18" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
-    <row r="19" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>284</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>69</v>
       </c>
       <c r="Z19" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AA19" s="18">
         <v>2</v>
@@ -8021,7 +8021,7 @@
         <v>3</v>
       </c>
       <c r="AE19" s="18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AF19" s="18">
         <v>4.2</v>
@@ -8043,7 +8043,7 @@
         <v>162</v>
       </c>
       <c r="AO19" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AP19" s="18" t="s">
         <v>374</v>
@@ -8058,10 +8058,10 @@
         <v>189</v>
       </c>
       <c r="AT19" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AU19" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AV19" s="18" t="s">
         <v>237</v>
@@ -8070,10 +8070,10 @@
         <v>208</v>
       </c>
       <c r="AX19" s="18" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
-    <row r="20" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>291</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>71</v>
       </c>
       <c r="Z20" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AB20" s="18">
         <v>2</v>
@@ -8158,13 +8158,13 @@
         <v>130</v>
       </c>
       <c r="AL20" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM20" s="18" t="s">
         <v>234</v>
       </c>
       <c r="AO20" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AP20" s="18" t="s">
         <v>374</v>
@@ -8173,10 +8173,10 @@
         <v>164</v>
       </c>
       <c r="AT20" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AU20" s="18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AV20" s="18" t="s">
         <v>237</v>
@@ -8185,10 +8185,10 @@
         <v>210</v>
       </c>
       <c r="AX20" s="18" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
-    <row r="21" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>291</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>71</v>
       </c>
       <c r="Z21" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AB21" s="18">
         <v>2</v>
@@ -8273,13 +8273,13 @@
         <v>130</v>
       </c>
       <c r="AL21" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM21" s="18" t="s">
         <v>234</v>
       </c>
       <c r="AO21" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AP21" s="18" t="s">
         <v>374</v>
@@ -8288,10 +8288,10 @@
         <v>164</v>
       </c>
       <c r="AT21" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AU21" s="18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AV21" s="18" t="s">
         <v>213</v>
@@ -8300,10 +8300,10 @@
         <v>210</v>
       </c>
       <c r="AX21" s="18" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:50" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>297</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>233</v>
       </c>
       <c r="AO22" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AP22" s="12" t="s">
         <v>391</v>
@@ -8418,7 +8418,7 @@
         <v>390</v>
       </c>
       <c r="AU22" s="12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AV22" s="12" t="s">
         <v>113</v>
@@ -8427,10 +8427,10 @@
         <v>209</v>
       </c>
       <c r="AX22" s="12" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
-    <row r="23" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:50" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>297</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>233</v>
       </c>
       <c r="AO23" s="12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AP23" s="12" t="s">
         <v>391</v>
@@ -8545,7 +8545,7 @@
         <v>390</v>
       </c>
       <c r="AU23" s="12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AV23" s="12" t="s">
         <v>113</v>
@@ -8554,10 +8554,10 @@
         <v>208</v>
       </c>
       <c r="AX23" s="12" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
-    <row r="24" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>304</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="25" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>310</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="26" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>316</v>
       </c>
@@ -8780,13 +8780,13 @@
         <v>148</v>
       </c>
       <c r="AL26" s="19" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM26" s="18" t="s">
         <v>233</v>
       </c>
       <c r="AO26" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AP26" s="18" t="s">
         <v>402</v>
@@ -8807,10 +8807,10 @@
         <v>207</v>
       </c>
       <c r="AX26" s="18" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
-    <row r="27" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>316</v>
       </c>
@@ -8915,13 +8915,13 @@
         <v>148</v>
       </c>
       <c r="AL27" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AM27" s="18" t="s">
         <v>233</v>
       </c>
       <c r="AO27" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AP27" s="18" t="s">
         <v>402</v>
@@ -8942,10 +8942,10 @@
         <v>207</v>
       </c>
       <c r="AX27" s="18" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
-    <row r="28" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>322</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="29" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>328</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>71</v>
       </c>
       <c r="Z29" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AB29" s="18">
         <v>2</v>
@@ -9071,10 +9071,10 @@
         <v>3</v>
       </c>
       <c r="AD29" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AE29" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF29" s="18" t="s">
         <v>374</v>
@@ -9089,13 +9089,13 @@
         <v>130</v>
       </c>
       <c r="AL29" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AM29" s="18" t="s">
         <v>234</v>
       </c>
       <c r="AO29" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AP29" s="18" t="s">
         <v>374</v>
@@ -9104,10 +9104,10 @@
         <v>164</v>
       </c>
       <c r="AT29" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU29" s="18" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AV29" s="18" t="s">
         <v>212</v>
@@ -9116,10 +9116,10 @@
         <v>210</v>
       </c>
       <c r="AX29" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
-    <row r="30" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>328</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>71</v>
       </c>
       <c r="Z30" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AB30" s="18">
         <v>2</v>
@@ -9187,10 +9187,10 @@
         <v>3</v>
       </c>
       <c r="AD30" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AE30" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF30" s="18" t="s">
         <v>374</v>
@@ -9205,13 +9205,13 @@
         <v>144</v>
       </c>
       <c r="AL30" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AM30" s="18" t="s">
         <v>234</v>
       </c>
       <c r="AO30" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AP30" s="18" t="s">
         <v>374</v>
@@ -9220,10 +9220,10 @@
         <v>164</v>
       </c>
       <c r="AT30" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU30" s="18" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AV30" s="18" t="s">
         <v>212</v>
@@ -9232,10 +9232,10 @@
         <v>210</v>
       </c>
       <c r="AX30" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
-    <row r="31" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>328</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>71</v>
       </c>
       <c r="Z31" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AB31" s="18">
         <v>2</v>
@@ -9303,10 +9303,10 @@
         <v>3</v>
       </c>
       <c r="AD31" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AE31" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF31" s="18" t="s">
         <v>374</v>
@@ -9321,13 +9321,13 @@
         <v>138</v>
       </c>
       <c r="AL31" s="19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AM31" s="18" t="s">
         <v>234</v>
       </c>
       <c r="AO31" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AP31" s="18" t="s">
         <v>374</v>
@@ -9336,10 +9336,10 @@
         <v>164</v>
       </c>
       <c r="AT31" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU31" s="18" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AV31" s="18" t="s">
         <v>212</v>
@@ -9348,10 +9348,10 @@
         <v>210</v>
       </c>
       <c r="AX31" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
-    <row r="32" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>328</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>71</v>
       </c>
       <c r="Z32" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AB32" s="18">
         <v>2</v>
@@ -9419,10 +9419,10 @@
         <v>3</v>
       </c>
       <c r="AD32" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AE32" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF32" s="18" t="s">
         <v>374</v>
@@ -9437,13 +9437,13 @@
         <v>130</v>
       </c>
       <c r="AL32" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AM32" s="18" t="s">
         <v>234</v>
       </c>
       <c r="AO32" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AP32" s="18" t="s">
         <v>374</v>
@@ -9452,10 +9452,10 @@
         <v>164</v>
       </c>
       <c r="AT32" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU32" s="18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AV32" s="18" t="s">
         <v>213</v>
@@ -9464,10 +9464,10 @@
         <v>210</v>
       </c>
       <c r="AX32" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
-    <row r="33" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>328</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>71</v>
       </c>
       <c r="Z33" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AB33" s="18">
         <v>2</v>
@@ -9535,10 +9535,10 @@
         <v>3</v>
       </c>
       <c r="AD33" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AE33" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF33" s="18" t="s">
         <v>374</v>
@@ -9553,13 +9553,13 @@
         <v>144</v>
       </c>
       <c r="AL33" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AM33" s="18" t="s">
         <v>234</v>
       </c>
       <c r="AO33" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AP33" s="18" t="s">
         <v>374</v>
@@ -9568,10 +9568,10 @@
         <v>164</v>
       </c>
       <c r="AT33" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU33" s="18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AV33" s="18" t="s">
         <v>213</v>
@@ -9580,10 +9580,10 @@
         <v>210</v>
       </c>
       <c r="AX33" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
-    <row r="34" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>328</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>71</v>
       </c>
       <c r="Z34" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AB34" s="18">
         <v>2</v>
@@ -9651,10 +9651,10 @@
         <v>3</v>
       </c>
       <c r="AD34" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AE34" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF34" s="18" t="s">
         <v>374</v>
@@ -9669,13 +9669,13 @@
         <v>138</v>
       </c>
       <c r="AL34" s="19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AM34" s="18" t="s">
         <v>234</v>
       </c>
       <c r="AO34" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AP34" s="18" t="s">
         <v>374</v>
@@ -9684,10 +9684,10 @@
         <v>164</v>
       </c>
       <c r="AT34" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU34" s="18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AV34" s="18" t="s">
         <v>213</v>
@@ -9696,10 +9696,10 @@
         <v>210</v>
       </c>
       <c r="AX34" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
-    <row r="35" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>328</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>71</v>
       </c>
       <c r="Z35" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AB35" s="18">
         <v>2</v>
@@ -9767,10 +9767,10 @@
         <v>3</v>
       </c>
       <c r="AD35" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AE35" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF35" s="18" t="s">
         <v>374</v>
@@ -9785,13 +9785,13 @@
         <v>130</v>
       </c>
       <c r="AL35" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AM35" s="18" t="s">
         <v>234</v>
       </c>
       <c r="AO35" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AP35" s="18" t="s">
         <v>374</v>
@@ -9800,7 +9800,7 @@
         <v>164</v>
       </c>
       <c r="AT35" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU35" s="18" t="s">
         <v>238</v>
@@ -9812,10 +9812,10 @@
         <v>210</v>
       </c>
       <c r="AX35" s="18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
-    <row r="36" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>328</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>71</v>
       </c>
       <c r="Z36" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AB36" s="18">
         <v>2</v>
@@ -9883,10 +9883,10 @@
         <v>3</v>
       </c>
       <c r="AD36" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AE36" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF36" s="18" t="s">
         <v>374</v>
@@ -9901,13 +9901,13 @@
         <v>144</v>
       </c>
       <c r="AL36" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AM36" s="18" t="s">
         <v>234</v>
       </c>
       <c r="AO36" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AP36" s="18" t="s">
         <v>374</v>
@@ -9916,7 +9916,7 @@
         <v>164</v>
       </c>
       <c r="AT36" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU36" s="18" t="s">
         <v>238</v>
@@ -9928,10 +9928,10 @@
         <v>210</v>
       </c>
       <c r="AX36" s="18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
-    <row r="37" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>328</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>71</v>
       </c>
       <c r="Z37" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AB37" s="18">
         <v>2</v>
@@ -9999,10 +9999,10 @@
         <v>3</v>
       </c>
       <c r="AD37" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AE37" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF37" s="18" t="s">
         <v>374</v>
@@ -10017,13 +10017,13 @@
         <v>138</v>
       </c>
       <c r="AL37" s="19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AM37" s="18" t="s">
         <v>234</v>
       </c>
       <c r="AO37" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AP37" s="18" t="s">
         <v>374</v>
@@ -10032,7 +10032,7 @@
         <v>164</v>
       </c>
       <c r="AT37" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU37" s="18" t="s">
         <v>238</v>
@@ -10044,10 +10044,10 @@
         <v>210</v>
       </c>
       <c r="AX37" s="18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
-    <row r="38" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>334</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>3</v>
       </c>
       <c r="AE38" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AF38" s="18">
         <v>4.3</v>
@@ -10151,7 +10151,7 @@
         <v>231</v>
       </c>
       <c r="AO38" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AP38" s="18" t="s">
         <v>374</v>
@@ -10160,7 +10160,7 @@
         <v>164</v>
       </c>
       <c r="AU38" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AV38" s="18" t="s">
         <v>113</v>
@@ -10169,10 +10169,10 @@
         <v>208</v>
       </c>
       <c r="AX38" s="18" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
-    <row r="39" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>334</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>3</v>
       </c>
       <c r="AE39" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AF39" s="18">
         <v>4.3</v>
@@ -10276,7 +10276,7 @@
         <v>231</v>
       </c>
       <c r="AO39" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AP39" s="18" t="s">
         <v>374</v>
@@ -10285,7 +10285,7 @@
         <v>164</v>
       </c>
       <c r="AU39" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AV39" s="18" t="s">
         <v>199</v>
@@ -10294,10 +10294,10 @@
         <v>207</v>
       </c>
       <c r="AX39" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
-    <row r="40" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>334</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>3</v>
       </c>
       <c r="AE40" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AF40" s="18">
         <v>4.3</v>
@@ -10401,7 +10401,7 @@
         <v>233</v>
       </c>
       <c r="AO40" s="18" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AP40" s="18" t="s">
         <v>374</v>
@@ -10413,7 +10413,7 @@
         <v>239</v>
       </c>
       <c r="AU40" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AV40" s="18" t="s">
         <v>113</v>
@@ -10422,10 +10422,10 @@
         <v>208</v>
       </c>
       <c r="AX40" s="18" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
-    <row r="41" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>339</v>
       </c>
@@ -10477,13 +10477,13 @@
         <v>84</v>
       </c>
       <c r="AE41" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF41" s="18">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>345</v>
       </c>
@@ -10537,13 +10537,13 @@
         <v>85</v>
       </c>
       <c r="AE42" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF42" s="18" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="43" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>350</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>196</v>
       </c>
       <c r="AU43" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AV43" s="18" t="s">
         <v>212</v>
@@ -10673,10 +10673,10 @@
         <v>209</v>
       </c>
       <c r="AX43" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
-    <row r="44" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>356</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>356</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="46" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>361</v>
       </c>
@@ -11045,10 +11045,10 @@
         <v>207</v>
       </c>
       <c r="AX46" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>361</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="48" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>366</v>
       </c>
@@ -11220,30 +11220,30 @@
         <v>85</v>
       </c>
       <c r="AE48" s="18" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AF48" s="18">
         <v>4.2</v>
       </c>
     </row>
-    <row r="49" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B49" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C49" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="D49" s="18" t="s">
         <v>470</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>471</v>
       </c>
       <c r="E49" s="18">
         <v>2012</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I49" s="18">
         <v>819</v>
@@ -11252,16 +11252,16 @@
         <v>829</v>
       </c>
       <c r="K49" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="M49" s="18" t="s">
         <v>473</v>
-      </c>
-      <c r="M49" s="18" t="s">
-        <v>474</v>
       </c>
       <c r="N49" s="18" t="s">
         <v>249</v>
       </c>
       <c r="O49" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q49" s="18" t="s">
         <v>21</v>
@@ -11270,24 +11270,24 @@
         <v>84</v>
       </c>
       <c r="AE49" s="18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF49" s="18" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="50" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C50" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="D50" s="18" t="s">
         <v>477</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>478</v>
       </c>
       <c r="E50" s="18">
         <v>2010</v>
@@ -11308,10 +11308,10 @@
         <v>2440</v>
       </c>
       <c r="K50" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="M50" s="18" t="s">
         <v>479</v>
-      </c>
-      <c r="M50" s="18" t="s">
-        <v>480</v>
       </c>
       <c r="N50" s="18" t="s">
         <v>249</v>
@@ -11341,7 +11341,7 @@
         <v>72</v>
       </c>
       <c r="Z50" s="18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AA50" s="18">
         <v>2</v>
@@ -11362,7 +11362,7 @@
         <v>124</v>
       </c>
       <c r="AL50" s="18" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AM50" s="18" t="s">
         <v>232</v>
@@ -11371,10 +11371,10 @@
         <v>160</v>
       </c>
       <c r="AO50" s="18" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AP50" s="18" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AQ50" s="18" t="s">
         <v>165</v>
@@ -11386,7 +11386,7 @@
         <v>196</v>
       </c>
       <c r="AU50" s="18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AV50" s="18" t="s">
         <v>203</v>
@@ -11395,21 +11395,21 @@
         <v>209</v>
       </c>
       <c r="AX50" s="18" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
-    <row r="51" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C51" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="D51" s="18" t="s">
         <v>477</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>478</v>
       </c>
       <c r="E51" s="18">
         <v>2010</v>
@@ -11430,10 +11430,10 @@
         <v>2440</v>
       </c>
       <c r="K51" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="M51" s="18" t="s">
         <v>479</v>
-      </c>
-      <c r="M51" s="18" t="s">
-        <v>480</v>
       </c>
       <c r="N51" s="18" t="s">
         <v>249</v>
@@ -11463,7 +11463,7 @@
         <v>72</v>
       </c>
       <c r="Z51" s="18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AA51" s="18">
         <v>2</v>
@@ -11487,7 +11487,7 @@
         <v>140</v>
       </c>
       <c r="AL51" s="18" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AM51" s="18" t="s">
         <v>232</v>
@@ -11496,10 +11496,10 @@
         <v>160</v>
       </c>
       <c r="AO51" s="18" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AP51" s="18" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AQ51" s="18" t="s">
         <v>165</v>
@@ -11511,7 +11511,7 @@
         <v>196</v>
       </c>
       <c r="AU51" s="18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AV51" s="18" t="s">
         <v>203</v>
@@ -11520,27 +11520,27 @@
         <v>209</v>
       </c>
       <c r="AX51" s="18" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
-    <row r="52" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C52" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="D52" s="18" t="s">
         <v>482</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>483</v>
       </c>
       <c r="E52" s="18">
         <v>2010</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G52" s="18">
         <v>157</v>
@@ -11555,10 +11555,10 @@
         <v>2381</v>
       </c>
       <c r="K52" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="M52" s="18" t="s">
         <v>485</v>
-      </c>
-      <c r="M52" s="18" t="s">
-        <v>486</v>
       </c>
       <c r="N52" s="18" t="s">
         <v>249</v>
@@ -11588,7 +11588,7 @@
         <v>215</v>
       </c>
       <c r="Z52" s="18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AA52" s="18">
         <v>2</v>
@@ -11600,7 +11600,7 @@
         <v>3</v>
       </c>
       <c r="AD52" s="18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AF52" s="18">
         <v>4.4000000000000004</v>
@@ -11615,16 +11615,16 @@
         <v>130</v>
       </c>
       <c r="AL52" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM52" s="18" t="s">
         <v>233</v>
       </c>
       <c r="AO52" s="18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AP52" s="18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AQ52" s="18" t="s">
         <v>164</v>
@@ -11636,7 +11636,7 @@
         <v>176</v>
       </c>
       <c r="AU52" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AV52" s="18" t="s">
         <v>200</v>
@@ -11645,27 +11645,27 @@
         <v>209</v>
       </c>
       <c r="AX52" s="18" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
-    <row r="53" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C53" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>482</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>483</v>
       </c>
       <c r="E53" s="18">
         <v>2010</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G53" s="18">
         <v>157</v>
@@ -11680,10 +11680,10 @@
         <v>2381</v>
       </c>
       <c r="K53" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="M53" s="18" t="s">
         <v>485</v>
-      </c>
-      <c r="M53" s="18" t="s">
-        <v>486</v>
       </c>
       <c r="N53" s="18" t="s">
         <v>249</v>
@@ -11713,7 +11713,7 @@
         <v>215</v>
       </c>
       <c r="Z53" s="18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AA53" s="18">
         <v>2</v>
@@ -11725,7 +11725,7 @@
         <v>3</v>
       </c>
       <c r="AD53" s="18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AF53" s="18">
         <v>4.4000000000000004</v>
@@ -11740,16 +11740,16 @@
         <v>130</v>
       </c>
       <c r="AL53" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM53" s="18" t="s">
         <v>233</v>
       </c>
       <c r="AO53" s="18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AP53" s="18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AQ53" s="18" t="s">
         <v>164</v>
@@ -11761,7 +11761,7 @@
         <v>175</v>
       </c>
       <c r="AU53" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AV53" s="18" t="s">
         <v>200</v>
@@ -11770,21 +11770,21 @@
         <v>209</v>
       </c>
       <c r="AX53" s="18" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
-    <row r="54" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C54" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="D54" s="18" t="s">
         <v>488</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>489</v>
       </c>
       <c r="E54" s="18">
         <v>2010</v>
@@ -11805,10 +11805,10 @@
         <v>417</v>
       </c>
       <c r="K54" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="M54" s="18" t="s">
         <v>490</v>
-      </c>
-      <c r="M54" s="18" t="s">
-        <v>491</v>
       </c>
       <c r="N54" s="18" t="s">
         <v>249</v>
@@ -11838,10 +11838,10 @@
         <v>75</v>
       </c>
       <c r="Y54" s="18" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Z54" s="18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AA54" s="18">
         <v>2</v>
@@ -11862,13 +11862,13 @@
         <v>124</v>
       </c>
       <c r="AL54" s="19" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AM54" s="18" t="s">
         <v>233</v>
       </c>
       <c r="AO54" s="18" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AP54" s="18" t="s">
         <v>374</v>
@@ -11880,7 +11880,7 @@
         <v>239</v>
       </c>
       <c r="AU54" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AV54" s="18" t="s">
         <v>203</v>
@@ -11889,21 +11889,21 @@
         <v>209</v>
       </c>
       <c r="AX54" s="18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
-    <row r="55" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C55" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="D55" s="18" t="s">
         <v>488</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>489</v>
       </c>
       <c r="E55" s="18">
         <v>2010</v>
@@ -11924,10 +11924,10 @@
         <v>417</v>
       </c>
       <c r="K55" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="M55" s="18" t="s">
         <v>490</v>
-      </c>
-      <c r="M55" s="18" t="s">
-        <v>491</v>
       </c>
       <c r="N55" s="18" t="s">
         <v>249</v>
@@ -11957,10 +11957,10 @@
         <v>75</v>
       </c>
       <c r="Y55" s="18" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Z55" s="18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AA55" s="18">
         <v>2</v>
@@ -11984,13 +11984,13 @@
         <v>144</v>
       </c>
       <c r="AL55" s="19" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AM55" s="18" t="s">
         <v>233</v>
       </c>
       <c r="AO55" s="18" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AP55" s="18" t="s">
         <v>374</v>
@@ -12002,7 +12002,7 @@
         <v>239</v>
       </c>
       <c r="AU55" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AV55" s="18" t="s">
         <v>203</v>
@@ -12011,21 +12011,21 @@
         <v>209</v>
       </c>
       <c r="AX55" s="18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
-    <row r="56" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C56" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="D56" s="18" t="s">
         <v>493</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>494</v>
       </c>
       <c r="E56" s="18">
         <v>2008</v>
@@ -12046,10 +12046,10 @@
         <v>1183</v>
       </c>
       <c r="K56" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="M56" s="18" t="s">
         <v>495</v>
-      </c>
-      <c r="M56" s="18" t="s">
-        <v>496</v>
       </c>
       <c r="N56" s="18" t="s">
         <v>249</v>
@@ -12058,7 +12058,7 @@
         <v>250</v>
       </c>
       <c r="P56" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q56" s="18" t="s">
         <v>21</v>
@@ -12082,7 +12082,7 @@
         <v>215</v>
       </c>
       <c r="Z56" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AA56" s="18">
         <v>2</v>
@@ -12106,7 +12106,7 @@
         <v>144</v>
       </c>
       <c r="AL56" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM56" s="18" t="s">
         <v>232</v>
@@ -12115,7 +12115,7 @@
         <v>160</v>
       </c>
       <c r="AO56" s="18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AP56" s="18" t="s">
         <v>398</v>
@@ -12127,7 +12127,7 @@
         <v>239</v>
       </c>
       <c r="AU56" s="18" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AV56" s="18" t="s">
         <v>199</v>
@@ -12136,21 +12136,21 @@
         <v>207</v>
       </c>
       <c r="AX56" s="18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
-    <row r="57" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C57" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="D57" s="18" t="s">
         <v>493</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>494</v>
       </c>
       <c r="E57" s="18">
         <v>2008</v>
@@ -12171,10 +12171,10 @@
         <v>1183</v>
       </c>
       <c r="K57" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="M57" s="18" t="s">
         <v>495</v>
-      </c>
-      <c r="M57" s="18" t="s">
-        <v>496</v>
       </c>
       <c r="N57" s="18" t="s">
         <v>249</v>
@@ -12183,7 +12183,7 @@
         <v>250</v>
       </c>
       <c r="P57" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q57" s="18" t="s">
         <v>21</v>
@@ -12207,7 +12207,7 @@
         <v>215</v>
       </c>
       <c r="Z57" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AA57" s="18">
         <v>2</v>
@@ -12231,7 +12231,7 @@
         <v>144</v>
       </c>
       <c r="AL57" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM57" s="18" t="s">
         <v>232</v>
@@ -12240,7 +12240,7 @@
         <v>160</v>
       </c>
       <c r="AO57" s="18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AP57" s="18" t="s">
         <v>398</v>
@@ -12252,7 +12252,7 @@
         <v>239</v>
       </c>
       <c r="AU57" s="18" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AV57" s="18" t="s">
         <v>201</v>
@@ -12261,21 +12261,21 @@
         <v>207</v>
       </c>
       <c r="AX57" s="18" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
-    <row r="58" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C58" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="D58" s="18" t="s">
         <v>493</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>494</v>
       </c>
       <c r="E58" s="18">
         <v>2008</v>
@@ -12296,10 +12296,10 @@
         <v>1183</v>
       </c>
       <c r="K58" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="M58" s="18" t="s">
         <v>495</v>
-      </c>
-      <c r="M58" s="18" t="s">
-        <v>496</v>
       </c>
       <c r="N58" s="18" t="s">
         <v>249</v>
@@ -12308,7 +12308,7 @@
         <v>250</v>
       </c>
       <c r="P58" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q58" s="18" t="s">
         <v>21</v>
@@ -12332,7 +12332,7 @@
         <v>215</v>
       </c>
       <c r="Z58" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AA58" s="18">
         <v>2</v>
@@ -12356,7 +12356,7 @@
         <v>144</v>
       </c>
       <c r="AL58" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM58" s="18" t="s">
         <v>232</v>
@@ -12365,7 +12365,7 @@
         <v>160</v>
       </c>
       <c r="AO58" s="18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AP58" s="18" t="s">
         <v>398</v>
@@ -12377,7 +12377,7 @@
         <v>239</v>
       </c>
       <c r="AU58" s="18" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AV58" s="18" t="s">
         <v>200</v>
@@ -12386,27 +12386,27 @@
         <v>209</v>
       </c>
       <c r="AX58" s="18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
-    <row r="59" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C59" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="D59" s="18" t="s">
         <v>499</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>500</v>
       </c>
       <c r="E59" s="18">
         <v>2008</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G59" s="18">
         <v>72</v>
@@ -12421,10 +12421,10 @@
         <v>16</v>
       </c>
       <c r="K59" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="M59" s="18" t="s">
         <v>502</v>
-      </c>
-      <c r="M59" s="18" t="s">
-        <v>503</v>
       </c>
       <c r="N59" s="18" t="s">
         <v>249</v>
@@ -12454,7 +12454,7 @@
         <v>215</v>
       </c>
       <c r="Z59" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AA59" s="18">
         <v>1</v>
@@ -12466,7 +12466,7 @@
         <v>2</v>
       </c>
       <c r="AE59" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AF59" s="18">
         <v>4.3</v>
@@ -12484,13 +12484,13 @@
         <v>148</v>
       </c>
       <c r="AL59" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AM59" s="18" t="s">
         <v>233</v>
       </c>
       <c r="AO59" s="18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AP59" s="18" t="s">
         <v>374</v>
@@ -12505,7 +12505,7 @@
         <v>175</v>
       </c>
       <c r="AU59" s="18" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AV59" s="18" t="s">
         <v>199</v>
@@ -12514,27 +12514,27 @@
         <v>210</v>
       </c>
       <c r="AX59" s="18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
-    <row r="60" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C60" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>499</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>500</v>
       </c>
       <c r="E60" s="18">
         <v>2008</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G60" s="18">
         <v>72</v>
@@ -12549,10 +12549,10 @@
         <v>16</v>
       </c>
       <c r="K60" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="M60" s="18" t="s">
         <v>502</v>
-      </c>
-      <c r="M60" s="18" t="s">
-        <v>503</v>
       </c>
       <c r="N60" s="18" t="s">
         <v>249</v>
@@ -12582,7 +12582,7 @@
         <v>215</v>
       </c>
       <c r="Z60" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AA60" s="18">
         <v>1</v>
@@ -12594,7 +12594,7 @@
         <v>2</v>
       </c>
       <c r="AE60" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AF60" s="18">
         <v>4.3</v>
@@ -12612,13 +12612,13 @@
         <v>148</v>
       </c>
       <c r="AL60" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AM60" s="18" t="s">
         <v>233</v>
       </c>
       <c r="AO60" s="18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AP60" s="18" t="s">
         <v>374</v>
@@ -12633,7 +12633,7 @@
         <v>175</v>
       </c>
       <c r="AU60" s="18" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AV60" s="18" t="s">
         <v>205</v>
@@ -12642,27 +12642,27 @@
         <v>210</v>
       </c>
       <c r="AX60" s="18" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
-    <row r="61" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C61" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>499</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>500</v>
       </c>
       <c r="E61" s="18">
         <v>2008</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G61" s="18">
         <v>72</v>
@@ -12677,10 +12677,10 @@
         <v>16</v>
       </c>
       <c r="K61" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="M61" s="18" t="s">
         <v>502</v>
-      </c>
-      <c r="M61" s="18" t="s">
-        <v>503</v>
       </c>
       <c r="N61" s="18" t="s">
         <v>249</v>
@@ -12710,7 +12710,7 @@
         <v>215</v>
       </c>
       <c r="Z61" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AA61" s="18">
         <v>1</v>
@@ -12722,7 +12722,7 @@
         <v>2</v>
       </c>
       <c r="AE61" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AF61" s="18">
         <v>4.3</v>
@@ -12740,13 +12740,13 @@
         <v>148</v>
       </c>
       <c r="AL61" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AM61" s="18" t="s">
         <v>233</v>
       </c>
       <c r="AO61" s="18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AP61" s="18" t="s">
         <v>374</v>
@@ -12761,7 +12761,7 @@
         <v>175</v>
       </c>
       <c r="AU61" s="18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AV61" s="18" t="s">
         <v>206</v>
@@ -12770,27 +12770,27 @@
         <v>210</v>
       </c>
       <c r="AX61" s="18" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
-    <row r="62" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C62" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="D62" s="18" t="s">
         <v>499</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>500</v>
       </c>
       <c r="E62" s="18">
         <v>2008</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G62" s="18">
         <v>72</v>
@@ -12805,10 +12805,10 @@
         <v>16</v>
       </c>
       <c r="K62" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="M62" s="18" t="s">
         <v>502</v>
-      </c>
-      <c r="M62" s="18" t="s">
-        <v>503</v>
       </c>
       <c r="N62" s="18" t="s">
         <v>249</v>
@@ -12838,7 +12838,7 @@
         <v>215</v>
       </c>
       <c r="Z62" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AA62" s="18">
         <v>1</v>
@@ -12850,7 +12850,7 @@
         <v>2</v>
       </c>
       <c r="AE62" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AF62" s="18">
         <v>4.3</v>
@@ -12868,13 +12868,13 @@
         <v>148</v>
       </c>
       <c r="AL62" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AM62" s="18" t="s">
         <v>233</v>
       </c>
       <c r="AO62" s="18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AP62" s="18" t="s">
         <v>374</v>
@@ -12898,27 +12898,27 @@
         <v>209</v>
       </c>
       <c r="AX62" s="18" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
-    <row r="63" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B63" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C63" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>499</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>500</v>
       </c>
       <c r="E63" s="18">
         <v>2008</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G63" s="18">
         <v>72</v>
@@ -12933,10 +12933,10 @@
         <v>16</v>
       </c>
       <c r="K63" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="M63" s="18" t="s">
         <v>502</v>
-      </c>
-      <c r="M63" s="18" t="s">
-        <v>503</v>
       </c>
       <c r="N63" s="18" t="s">
         <v>249</v>
@@ -12966,7 +12966,7 @@
         <v>215</v>
       </c>
       <c r="Z63" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AA63" s="18">
         <v>1</v>
@@ -12978,7 +12978,7 @@
         <v>2</v>
       </c>
       <c r="AE63" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AF63" s="18">
         <v>4.3</v>
@@ -12996,13 +12996,13 @@
         <v>148</v>
       </c>
       <c r="AL63" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AM63" s="18" t="s">
         <v>233</v>
       </c>
       <c r="AO63" s="18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AP63" s="18" t="s">
         <v>374</v>
@@ -13017,7 +13017,7 @@
         <v>175</v>
       </c>
       <c r="AU63" s="18" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AV63" s="18" t="s">
         <v>113</v>
@@ -13026,21 +13026,21 @@
         <v>209</v>
       </c>
       <c r="AX63" s="18" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
-    <row r="64" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B64" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C64" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="D64" s="18" t="s">
         <v>505</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>506</v>
       </c>
       <c r="E64" s="18">
         <v>2008</v>
@@ -13061,10 +13061,10 @@
         <v>611</v>
       </c>
       <c r="K64" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="M64" s="18" t="s">
         <v>507</v>
-      </c>
-      <c r="M64" s="18" t="s">
-        <v>508</v>
       </c>
       <c r="N64" s="18" t="s">
         <v>249</v>
@@ -13073,7 +13073,7 @@
         <v>250</v>
       </c>
       <c r="P64" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q64" s="18" t="s">
         <v>21</v>
@@ -13082,24 +13082,24 @@
         <v>84</v>
       </c>
       <c r="AE64" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AF64" s="18" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="65" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B65" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C65" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="D65" s="18" t="s">
         <v>510</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>511</v>
       </c>
       <c r="E65" s="18">
         <v>2008</v>
@@ -13117,10 +13117,10 @@
         <v>147</v>
       </c>
       <c r="K65" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="M65" s="18" t="s">
         <v>512</v>
-      </c>
-      <c r="M65" s="18" t="s">
-        <v>513</v>
       </c>
       <c r="N65" s="18" t="s">
         <v>249</v>
@@ -13129,7 +13129,7 @@
         <v>250</v>
       </c>
       <c r="P65" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q65" s="18" t="s">
         <v>21</v>
@@ -13153,7 +13153,7 @@
         <v>215</v>
       </c>
       <c r="Z65" s="18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AA65" s="18">
         <v>2</v>
@@ -13174,7 +13174,7 @@
         <v>124</v>
       </c>
       <c r="AL65" s="18" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AM65" s="18" t="s">
         <v>232</v>
@@ -13183,7 +13183,7 @@
         <v>160</v>
       </c>
       <c r="AO65" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AP65" s="18" t="s">
         <v>374</v>
@@ -13195,10 +13195,10 @@
         <v>239</v>
       </c>
       <c r="AT65" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AU65" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AV65" s="18" t="s">
         <v>199</v>
@@ -13207,27 +13207,27 @@
         <v>209</v>
       </c>
       <c r="AX65" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="66" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B66" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C66" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="D66" s="18" t="s">
         <v>515</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>516</v>
       </c>
       <c r="E66" s="18">
         <v>2005</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G66" s="18">
         <v>93</v>
@@ -13242,7 +13242,7 @@
         <v>212</v>
       </c>
       <c r="M66" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N66" s="18" t="s">
         <v>249</v>
@@ -13272,7 +13272,7 @@
         <v>70</v>
       </c>
       <c r="Z66" s="18" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AA66" s="18">
         <v>2</v>
@@ -13293,7 +13293,7 @@
         <v>116</v>
       </c>
       <c r="AL66" s="19" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AM66" s="18" t="s">
         <v>232</v>
@@ -13302,10 +13302,10 @@
         <v>160</v>
       </c>
       <c r="AO66" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AP66" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AQ66" s="18" t="s">
         <v>164</v>
@@ -13317,10 +13317,10 @@
         <v>179</v>
       </c>
       <c r="AT66" s="18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AU66" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AV66" s="18" t="s">
         <v>237</v>
@@ -13329,27 +13329,27 @@
         <v>210</v>
       </c>
       <c r="AX66" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
-    <row r="67" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B67" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C67" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="D67" s="18" t="s">
         <v>515</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>516</v>
       </c>
       <c r="E67" s="18">
         <v>2005</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G67" s="18">
         <v>93</v>
@@ -13364,7 +13364,7 @@
         <v>212</v>
       </c>
       <c r="M67" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N67" s="18" t="s">
         <v>249</v>
@@ -13394,7 +13394,7 @@
         <v>70</v>
       </c>
       <c r="Z67" s="18" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AA67" s="18">
         <v>2</v>
@@ -13415,7 +13415,7 @@
         <v>116</v>
       </c>
       <c r="AL67" s="19" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AM67" s="18" t="s">
         <v>232</v>
@@ -13424,10 +13424,10 @@
         <v>160</v>
       </c>
       <c r="AO67" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AP67" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AQ67" s="18" t="s">
         <v>164</v>
@@ -13439,10 +13439,10 @@
         <v>179</v>
       </c>
       <c r="AT67" s="18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AU67" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AV67" s="18" t="s">
         <v>199</v>
@@ -13451,27 +13451,27 @@
         <v>207</v>
       </c>
       <c r="AX67" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
-    <row r="68" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C68" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="D68" s="18" t="s">
         <v>520</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>521</v>
       </c>
       <c r="E68" s="18">
         <v>2005</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G68" s="18">
         <v>85</v>
@@ -13486,10 +13486,10 @@
         <v>1150</v>
       </c>
       <c r="K68" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="M68" s="18" t="s">
         <v>523</v>
-      </c>
-      <c r="M68" s="18" t="s">
-        <v>524</v>
       </c>
       <c r="N68" s="18" t="s">
         <v>249</v>
@@ -13519,7 +13519,7 @@
         <v>215</v>
       </c>
       <c r="Z68" s="18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AA68" s="18">
         <v>2</v>
@@ -13543,7 +13543,7 @@
         <v>145</v>
       </c>
       <c r="AL68" s="19" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AM68" s="18" t="s">
         <v>232</v>
@@ -13552,7 +13552,7 @@
         <v>162</v>
       </c>
       <c r="AO68" s="18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AP68" s="18" t="s">
         <v>374</v>
@@ -13567,7 +13567,7 @@
         <v>175</v>
       </c>
       <c r="AU68" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AV68" s="18" t="s">
         <v>237</v>
@@ -13576,27 +13576,27 @@
         <v>208</v>
       </c>
       <c r="AX68" s="18" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
-    <row r="69" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C69" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="D69" s="18" t="s">
         <v>520</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>521</v>
       </c>
       <c r="E69" s="18">
         <v>2005</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G69" s="18">
         <v>85</v>
@@ -13611,10 +13611,10 @@
         <v>1150</v>
       </c>
       <c r="K69" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="M69" s="18" t="s">
         <v>523</v>
-      </c>
-      <c r="M69" s="18" t="s">
-        <v>524</v>
       </c>
       <c r="N69" s="18" t="s">
         <v>249</v>
@@ -13644,7 +13644,7 @@
         <v>215</v>
       </c>
       <c r="Z69" s="18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AA69" s="18">
         <v>2</v>
@@ -13668,7 +13668,7 @@
         <v>145</v>
       </c>
       <c r="AL69" s="19" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AM69" s="18" t="s">
         <v>232</v>
@@ -13677,7 +13677,7 @@
         <v>162</v>
       </c>
       <c r="AO69" s="18" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AP69" s="18" t="s">
         <v>374</v>
@@ -13692,7 +13692,7 @@
         <v>175</v>
       </c>
       <c r="AU69" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AV69" s="18" t="s">
         <v>237</v>
@@ -13701,27 +13701,27 @@
         <v>210</v>
       </c>
       <c r="AX69" s="18" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
-    <row r="70" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C70" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="D70" s="18" t="s">
         <v>520</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>521</v>
       </c>
       <c r="E70" s="18">
         <v>2005</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G70" s="18">
         <v>85</v>
@@ -13736,10 +13736,10 @@
         <v>1150</v>
       </c>
       <c r="K70" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="M70" s="18" t="s">
         <v>523</v>
-      </c>
-      <c r="M70" s="18" t="s">
-        <v>524</v>
       </c>
       <c r="N70" s="18" t="s">
         <v>249</v>
@@ -13769,7 +13769,7 @@
         <v>69</v>
       </c>
       <c r="Z70" s="18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AA70" s="18">
         <v>2</v>
@@ -13793,7 +13793,7 @@
         <v>145</v>
       </c>
       <c r="AL70" s="19" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AM70" s="18" t="s">
         <v>232</v>
@@ -13802,7 +13802,7 @@
         <v>162</v>
       </c>
       <c r="AO70" s="18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AP70" s="18" t="s">
         <v>374</v>
@@ -13817,7 +13817,7 @@
         <v>175</v>
       </c>
       <c r="AU70" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AV70" s="18" t="s">
         <v>237</v>
@@ -13826,27 +13826,27 @@
         <v>210</v>
       </c>
       <c r="AX70" s="18" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
-    <row r="71" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C71" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="D71" s="18" t="s">
         <v>520</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>521</v>
       </c>
       <c r="E71" s="18">
         <v>2005</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G71" s="18">
         <v>85</v>
@@ -13861,10 +13861,10 @@
         <v>1150</v>
       </c>
       <c r="K71" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="M71" s="18" t="s">
         <v>523</v>
-      </c>
-      <c r="M71" s="18" t="s">
-        <v>524</v>
       </c>
       <c r="N71" s="18" t="s">
         <v>249</v>
@@ -13894,7 +13894,7 @@
         <v>69</v>
       </c>
       <c r="Z71" s="18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AA71" s="18">
         <v>2</v>
@@ -13918,7 +13918,7 @@
         <v>145</v>
       </c>
       <c r="AL71" s="19" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AM71" s="18" t="s">
         <v>232</v>
@@ -13927,7 +13927,7 @@
         <v>162</v>
       </c>
       <c r="AO71" s="18" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AP71" s="18" t="s">
         <v>374</v>
@@ -13942,7 +13942,7 @@
         <v>175</v>
       </c>
       <c r="AU71" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AV71" s="18" t="s">
         <v>237</v>
@@ -13951,27 +13951,27 @@
         <v>210</v>
       </c>
       <c r="AX71" s="18" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
-    <row r="72" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C72" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="D72" s="18" t="s">
         <v>520</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>521</v>
       </c>
       <c r="E72" s="18">
         <v>2005</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G72" s="18">
         <v>85</v>
@@ -13986,10 +13986,10 @@
         <v>1150</v>
       </c>
       <c r="K72" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="M72" s="18" t="s">
         <v>523</v>
-      </c>
-      <c r="M72" s="18" t="s">
-        <v>524</v>
       </c>
       <c r="N72" s="18" t="s">
         <v>249</v>
@@ -14019,7 +14019,7 @@
         <v>69</v>
       </c>
       <c r="Z72" s="18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AA72" s="18">
         <v>2</v>
@@ -14043,7 +14043,7 @@
         <v>145</v>
       </c>
       <c r="AL72" s="19" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AM72" s="18" t="s">
         <v>232</v>
@@ -14052,7 +14052,7 @@
         <v>162</v>
       </c>
       <c r="AO72" s="18" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AP72" s="18" t="s">
         <v>374</v>
@@ -14067,7 +14067,7 @@
         <v>175</v>
       </c>
       <c r="AU72" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AV72" s="18" t="s">
         <v>237</v>
@@ -14076,21 +14076,21 @@
         <v>210</v>
       </c>
       <c r="AX72" s="18" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
-    <row r="73" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B73" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C73" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="D73" s="18" t="s">
         <v>526</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>527</v>
       </c>
       <c r="E73" s="18">
         <v>2005</v>
@@ -14111,10 +14111,10 @@
         <v>38</v>
       </c>
       <c r="K73" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="M73" s="18" t="s">
         <v>528</v>
-      </c>
-      <c r="M73" s="18" t="s">
-        <v>529</v>
       </c>
       <c r="N73" s="18" t="s">
         <v>249</v>
@@ -14144,7 +14144,7 @@
         <v>215</v>
       </c>
       <c r="Z73" s="18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AA73" s="18">
         <v>2</v>
@@ -14171,7 +14171,7 @@
         <v>113</v>
       </c>
       <c r="AL73" s="19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AM73" s="18" t="s">
         <v>232</v>
@@ -14180,10 +14180,10 @@
         <v>160</v>
       </c>
       <c r="AO73" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AP73" s="18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AQ73" s="18" t="s">
         <v>164</v>
@@ -14195,7 +14195,7 @@
         <v>175</v>
       </c>
       <c r="AU73" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AV73" s="18" t="s">
         <v>199</v>
@@ -14204,21 +14204,21 @@
         <v>209</v>
       </c>
       <c r="AX73" s="18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
-    <row r="74" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C74" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="D74" s="18" t="s">
         <v>526</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>527</v>
       </c>
       <c r="E74" s="18">
         <v>2005</v>
@@ -14239,10 +14239,10 @@
         <v>38</v>
       </c>
       <c r="K74" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="M74" s="18" t="s">
         <v>528</v>
-      </c>
-      <c r="M74" s="18" t="s">
-        <v>529</v>
       </c>
       <c r="N74" s="18" t="s">
         <v>249</v>
@@ -14272,7 +14272,7 @@
         <v>215</v>
       </c>
       <c r="Z74" s="18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AA74" s="18">
         <v>2</v>
@@ -14299,7 +14299,7 @@
         <v>113</v>
       </c>
       <c r="AL74" s="19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AM74" s="18" t="s">
         <v>232</v>
@@ -14308,10 +14308,10 @@
         <v>160</v>
       </c>
       <c r="AO74" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AP74" s="18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AQ74" s="18" t="s">
         <v>164</v>
@@ -14323,7 +14323,7 @@
         <v>175</v>
       </c>
       <c r="AU74" s="18" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AV74" s="18" t="s">
         <v>200</v>
@@ -14332,21 +14332,21 @@
         <v>209</v>
       </c>
       <c r="AX74" s="18" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
-    <row r="75" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C75" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="D75" s="18" t="s">
         <v>526</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>527</v>
       </c>
       <c r="E75" s="18">
         <v>2005</v>
@@ -14367,10 +14367,10 @@
         <v>38</v>
       </c>
       <c r="K75" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="M75" s="18" t="s">
         <v>528</v>
-      </c>
-      <c r="M75" s="18" t="s">
-        <v>529</v>
       </c>
       <c r="N75" s="18" t="s">
         <v>249</v>
@@ -14400,7 +14400,7 @@
         <v>215</v>
       </c>
       <c r="Z75" s="18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AA75" s="18">
         <v>2</v>
@@ -14427,7 +14427,7 @@
         <v>113</v>
       </c>
       <c r="AL75" s="19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AM75" s="18" t="s">
         <v>232</v>
@@ -14436,10 +14436,10 @@
         <v>160</v>
       </c>
       <c r="AO75" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AP75" s="18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AQ75" s="18" t="s">
         <v>164</v>
@@ -14451,7 +14451,7 @@
         <v>175</v>
       </c>
       <c r="AU75" s="18" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AV75" s="18" t="s">
         <v>202</v>
@@ -14460,27 +14460,27 @@
         <v>209</v>
       </c>
       <c r="AX75" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
-    <row r="76" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C76" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="D76" s="18" t="s">
         <v>531</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>532</v>
       </c>
       <c r="E76" s="18">
         <v>2005</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G76" s="18">
         <v>135</v>
@@ -14495,7 +14495,7 @@
         <v>197</v>
       </c>
       <c r="M76" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N76" s="18" t="s">
         <v>249</v>
@@ -14525,7 +14525,7 @@
         <v>215</v>
       </c>
       <c r="Z76" s="18" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AA76" s="18">
         <v>2</v>
@@ -14549,13 +14549,13 @@
         <v>144</v>
       </c>
       <c r="AL76" s="18" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AM76" s="18" t="s">
         <v>232</v>
       </c>
       <c r="AO76" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AP76" s="18" t="s">
         <v>398</v>
@@ -14570,7 +14570,7 @@
         <v>175</v>
       </c>
       <c r="AU76" s="18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AV76" s="18" t="s">
         <v>199</v>
@@ -14579,27 +14579,27 @@
         <v>208</v>
       </c>
       <c r="AX76" s="18" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
-    <row r="77" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C77" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="D77" s="18" t="s">
         <v>531</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>532</v>
       </c>
       <c r="E77" s="18">
         <v>2005</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G77" s="18">
         <v>135</v>
@@ -14614,7 +14614,7 @@
         <v>197</v>
       </c>
       <c r="M77" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N77" s="18" t="s">
         <v>249</v>
@@ -14644,7 +14644,7 @@
         <v>215</v>
       </c>
       <c r="Z77" s="18" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AA77" s="18">
         <v>2</v>
@@ -14668,7 +14668,7 @@
         <v>232</v>
       </c>
       <c r="AO77" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AP77" s="18" t="s">
         <v>398</v>
@@ -14683,7 +14683,7 @@
         <v>175</v>
       </c>
       <c r="AU77" s="18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AV77" s="18" t="s">
         <v>199</v>
@@ -14692,27 +14692,27 @@
         <v>208</v>
       </c>
       <c r="AX77" s="18" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
-    <row r="78" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C78" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="D78" s="18" t="s">
         <v>531</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>532</v>
       </c>
       <c r="E78" s="18">
         <v>2005</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G78" s="18">
         <v>135</v>
@@ -14727,7 +14727,7 @@
         <v>197</v>
       </c>
       <c r="M78" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N78" s="18" t="s">
         <v>249</v>
@@ -14757,7 +14757,7 @@
         <v>215</v>
       </c>
       <c r="Z78" s="18" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AA78" s="18">
         <v>2</v>
@@ -14781,13 +14781,13 @@
         <v>144</v>
       </c>
       <c r="AL78" s="18" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AM78" s="18" t="s">
         <v>232</v>
       </c>
       <c r="AO78" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AP78" s="18" t="s">
         <v>398</v>
@@ -14802,7 +14802,7 @@
         <v>175</v>
       </c>
       <c r="AU78" s="18" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AV78" s="18" t="s">
         <v>205</v>
@@ -14811,27 +14811,27 @@
         <v>207</v>
       </c>
       <c r="AX78" s="12" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
-    <row r="79" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C79" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="D79" s="18" t="s">
         <v>531</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>532</v>
       </c>
       <c r="E79" s="18">
         <v>2005</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G79" s="18">
         <v>135</v>
@@ -14846,7 +14846,7 @@
         <v>197</v>
       </c>
       <c r="M79" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N79" s="18" t="s">
         <v>249</v>
@@ -14876,7 +14876,7 @@
         <v>215</v>
       </c>
       <c r="Z79" s="18" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AA79" s="18">
         <v>2</v>
@@ -14900,7 +14900,7 @@
         <v>232</v>
       </c>
       <c r="AO79" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AP79" s="18" t="s">
         <v>398</v>
@@ -14915,7 +14915,7 @@
         <v>175</v>
       </c>
       <c r="AU79" s="18" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AV79" s="18" t="s">
         <v>205</v>
@@ -14924,27 +14924,27 @@
         <v>207</v>
       </c>
       <c r="AX79" s="12" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
-    <row r="80" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B80" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C80" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="D80" s="18" t="s">
         <v>536</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>537</v>
       </c>
       <c r="E80" s="18">
         <v>2002</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G80" s="18">
         <v>141</v>
@@ -14959,10 +14959,10 @@
         <v>1000</v>
       </c>
       <c r="K80" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="M80" s="18" t="s">
         <v>538</v>
-      </c>
-      <c r="M80" s="18" t="s">
-        <v>539</v>
       </c>
       <c r="N80" s="18" t="s">
         <v>249</v>
@@ -14992,7 +14992,7 @@
         <v>215</v>
       </c>
       <c r="Z80" s="18" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AA80" s="18">
         <v>2</v>
@@ -15019,16 +15019,16 @@
         <v>148</v>
       </c>
       <c r="AL80" s="18" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AM80" s="18" t="s">
         <v>233</v>
       </c>
       <c r="AO80" s="18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AP80" s="18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AQ80" s="18" t="s">
         <v>164</v>
@@ -15040,7 +15040,7 @@
         <v>176</v>
       </c>
       <c r="AU80" s="18" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AV80" s="18" t="s">
         <v>205</v>
@@ -15049,27 +15049,27 @@
         <v>208</v>
       </c>
       <c r="AX80" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
-    <row r="81" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C81" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="D81" s="18" t="s">
         <v>536</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>537</v>
       </c>
       <c r="E81" s="18">
         <v>2002</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G81" s="18">
         <v>141</v>
@@ -15084,10 +15084,10 @@
         <v>1000</v>
       </c>
       <c r="K81" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="M81" s="18" t="s">
         <v>538</v>
-      </c>
-      <c r="M81" s="18" t="s">
-        <v>539</v>
       </c>
       <c r="N81" s="18" t="s">
         <v>249</v>
@@ -15117,7 +15117,7 @@
         <v>215</v>
       </c>
       <c r="Z81" s="18" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AA81" s="18">
         <v>2</v>
@@ -15144,16 +15144,16 @@
         <v>148</v>
       </c>
       <c r="AL81" s="18" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AM81" s="18" t="s">
         <v>233</v>
       </c>
       <c r="AO81" s="18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AP81" s="18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AQ81" s="18" t="s">
         <v>164</v>
@@ -15174,21 +15174,21 @@
         <v>210</v>
       </c>
       <c r="AX81" s="18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="82" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B82" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C82" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="D82" s="18" t="s">
         <v>541</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>542</v>
       </c>
       <c r="E82" s="18">
         <v>2001</v>
@@ -15206,10 +15206,10 @@
         <v>301</v>
       </c>
       <c r="K82" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="M82" s="18" t="s">
         <v>543</v>
-      </c>
-      <c r="M82" s="18" t="s">
-        <v>544</v>
       </c>
       <c r="N82" s="18" t="s">
         <v>249</v>
@@ -15218,7 +15218,7 @@
         <v>250</v>
       </c>
       <c r="P82" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q82" s="18" t="s">
         <v>21</v>
@@ -15242,7 +15242,7 @@
         <v>72</v>
       </c>
       <c r="Z82" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AA82" s="18">
         <v>1</v>
@@ -15272,13 +15272,13 @@
         <v>148</v>
       </c>
       <c r="AL82" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AM82" s="18" t="s">
         <v>233</v>
       </c>
       <c r="AO82" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AP82" s="18" t="s">
         <v>374</v>
@@ -15293,10 +15293,10 @@
         <v>178</v>
       </c>
       <c r="AT82" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="AU82" s="18" t="s">
         <v>647</v>
-      </c>
-      <c r="AU82" s="18" t="s">
-        <v>648</v>
       </c>
       <c r="AV82" s="18" t="s">
         <v>213</v>
@@ -15305,21 +15305,21 @@
         <v>209</v>
       </c>
       <c r="AX82" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
-    <row r="83" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B83" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C83" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="D83" s="18" t="s">
         <v>541</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>542</v>
       </c>
       <c r="E83" s="18">
         <v>2001</v>
@@ -15337,10 +15337,10 @@
         <v>301</v>
       </c>
       <c r="K83" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="M83" s="18" t="s">
         <v>543</v>
-      </c>
-      <c r="M83" s="18" t="s">
-        <v>544</v>
       </c>
       <c r="N83" s="18" t="s">
         <v>249</v>
@@ -15349,7 +15349,7 @@
         <v>250</v>
       </c>
       <c r="P83" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q83" s="18" t="s">
         <v>21</v>
@@ -15373,7 +15373,7 @@
         <v>72</v>
       </c>
       <c r="Z83" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AA83" s="18">
         <v>1</v>
@@ -15403,7 +15403,7 @@
         <v>148</v>
       </c>
       <c r="AL83" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AM83" s="18" t="s">
         <v>232</v>
@@ -15412,7 +15412,7 @@
         <v>162</v>
       </c>
       <c r="AO83" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AP83" s="18" t="s">
         <v>374</v>
@@ -15427,10 +15427,10 @@
         <v>178</v>
       </c>
       <c r="AT83" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="AU83" s="18" t="s">
         <v>647</v>
-      </c>
-      <c r="AU83" s="18" t="s">
-        <v>648</v>
       </c>
       <c r="AV83" s="18" t="s">
         <v>213</v>
@@ -15439,21 +15439,21 @@
         <v>209</v>
       </c>
       <c r="AX83" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
-    <row r="84" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C84" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="D84" s="18" t="s">
         <v>547</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>548</v>
       </c>
       <c r="E84" s="18">
         <v>2000</v>
@@ -15474,10 +15474,10 @@
         <v>30</v>
       </c>
       <c r="K84" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="M84" s="18" t="s">
         <v>549</v>
-      </c>
-      <c r="M84" s="18" t="s">
-        <v>550</v>
       </c>
       <c r="N84" s="18" t="s">
         <v>249</v>
@@ -15531,7 +15531,7 @@
         <v>144</v>
       </c>
       <c r="AL84" s="19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AM84" s="18" t="s">
         <v>232</v>
@@ -15540,7 +15540,7 @@
         <v>160</v>
       </c>
       <c r="AO84" s="18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AP84" s="18" t="s">
         <v>374</v>
@@ -15552,7 +15552,7 @@
         <v>239</v>
       </c>
       <c r="AU84" s="18" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AV84" s="18" t="s">
         <v>199</v>
@@ -15561,21 +15561,21 @@
         <v>209</v>
       </c>
       <c r="AX84" s="18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
-    <row r="85" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C85" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="D85" s="18" t="s">
         <v>547</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>548</v>
       </c>
       <c r="E85" s="18">
         <v>2000</v>
@@ -15596,10 +15596,10 @@
         <v>30</v>
       </c>
       <c r="K85" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="M85" s="18" t="s">
         <v>549</v>
-      </c>
-      <c r="M85" s="18" t="s">
-        <v>550</v>
       </c>
       <c r="N85" s="18" t="s">
         <v>249</v>
@@ -15650,7 +15650,7 @@
         <v>118</v>
       </c>
       <c r="AL85" s="19" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AM85" s="18" t="s">
         <v>232</v>
@@ -15659,7 +15659,7 @@
         <v>160</v>
       </c>
       <c r="AO85" s="18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AP85" s="18" t="s">
         <v>374</v>
@@ -15671,7 +15671,7 @@
         <v>239</v>
       </c>
       <c r="AU85" s="18" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AV85" s="18" t="s">
         <v>199</v>
@@ -15680,21 +15680,21 @@
         <v>209</v>
       </c>
       <c r="AX85" s="18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
-    <row r="86" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C86" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="D86" s="18" t="s">
         <v>552</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>553</v>
       </c>
       <c r="E86" s="18">
         <v>1999</v>
@@ -15715,16 +15715,16 @@
         <v>106</v>
       </c>
       <c r="K86" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="M86" s="18" t="s">
         <v>554</v>
-      </c>
-      <c r="M86" s="18" t="s">
-        <v>555</v>
       </c>
       <c r="N86" s="18" t="s">
         <v>249</v>
       </c>
       <c r="O86" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="Q86" s="18" t="s">
         <v>21</v>
@@ -15733,24 +15733,24 @@
         <v>84</v>
       </c>
       <c r="AE86" s="18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AF86" s="18">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B87" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C87" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="D87" s="18" t="s">
         <v>558</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>559</v>
       </c>
       <c r="E87" s="18">
         <v>1998</v>
@@ -15771,19 +15771,19 @@
         <v>352</v>
       </c>
       <c r="K87" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="M87" s="18" t="s">
         <v>560</v>
-      </c>
-      <c r="M87" s="18" t="s">
-        <v>561</v>
       </c>
       <c r="N87" s="18" t="s">
         <v>249</v>
       </c>
       <c r="O87" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P87" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q87" s="18" t="s">
         <v>21</v>
@@ -15807,7 +15807,7 @@
         <v>69</v>
       </c>
       <c r="Z87" s="18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AA87" s="18">
         <v>2</v>
@@ -15828,7 +15828,7 @@
         <v>220</v>
       </c>
       <c r="AL87" s="18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AM87" s="18" t="s">
         <v>232</v>
@@ -15837,7 +15837,7 @@
         <v>162</v>
       </c>
       <c r="AO87" s="18" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AP87" s="18" t="s">
         <v>374</v>
@@ -15852,7 +15852,7 @@
         <v>175</v>
       </c>
       <c r="AU87" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AV87" s="18" t="s">
         <v>199</v>
@@ -15861,21 +15861,21 @@
         <v>208</v>
       </c>
       <c r="AX87" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
-    <row r="88" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B88" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C88" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="D88" s="18" t="s">
         <v>558</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>559</v>
       </c>
       <c r="E88" s="18">
         <v>1998</v>
@@ -15896,19 +15896,19 @@
         <v>352</v>
       </c>
       <c r="K88" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="M88" s="18" t="s">
         <v>560</v>
-      </c>
-      <c r="M88" s="18" t="s">
-        <v>561</v>
       </c>
       <c r="N88" s="18" t="s">
         <v>249</v>
       </c>
       <c r="O88" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P88" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q88" s="18" t="s">
         <v>21</v>
@@ -15932,7 +15932,7 @@
         <v>69</v>
       </c>
       <c r="Z88" s="18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AA88" s="18">
         <v>2</v>
@@ -15953,7 +15953,7 @@
         <v>220</v>
       </c>
       <c r="AL88" s="18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AM88" s="18" t="s">
         <v>232</v>
@@ -15962,7 +15962,7 @@
         <v>162</v>
       </c>
       <c r="AO88" s="18" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AP88" s="18" t="s">
         <v>374</v>
@@ -15977,7 +15977,7 @@
         <v>176</v>
       </c>
       <c r="AU88" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AV88" s="18" t="s">
         <v>199</v>
@@ -15986,21 +15986,21 @@
         <v>208</v>
       </c>
       <c r="AX88" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
-    <row r="89" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B89" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C89" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="D89" s="18" t="s">
         <v>558</v>
-      </c>
-      <c r="D89" s="18" t="s">
-        <v>559</v>
       </c>
       <c r="E89" s="18">
         <v>1998</v>
@@ -16021,19 +16021,19 @@
         <v>352</v>
       </c>
       <c r="K89" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="M89" s="18" t="s">
         <v>560</v>
-      </c>
-      <c r="M89" s="18" t="s">
-        <v>561</v>
       </c>
       <c r="N89" s="18" t="s">
         <v>249</v>
       </c>
       <c r="O89" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P89" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q89" s="18" t="s">
         <v>21</v>
@@ -16057,7 +16057,7 @@
         <v>69</v>
       </c>
       <c r="Z89" s="18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AA89" s="18">
         <v>2</v>
@@ -16078,7 +16078,7 @@
         <v>118</v>
       </c>
       <c r="AL89" s="18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AM89" s="18" t="s">
         <v>232</v>
@@ -16087,7 +16087,7 @@
         <v>162</v>
       </c>
       <c r="AO89" s="18" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AP89" s="18" t="s">
         <v>374</v>
@@ -16102,7 +16102,7 @@
         <v>175</v>
       </c>
       <c r="AU89" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AV89" s="18" t="s">
         <v>199</v>
@@ -16111,21 +16111,21 @@
         <v>208</v>
       </c>
       <c r="AX89" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
-    <row r="90" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C90" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="D90" s="18" t="s">
         <v>558</v>
-      </c>
-      <c r="D90" s="18" t="s">
-        <v>559</v>
       </c>
       <c r="E90" s="18">
         <v>1998</v>
@@ -16146,19 +16146,19 @@
         <v>352</v>
       </c>
       <c r="K90" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="M90" s="18" t="s">
         <v>560</v>
-      </c>
-      <c r="M90" s="18" t="s">
-        <v>561</v>
       </c>
       <c r="N90" s="18" t="s">
         <v>249</v>
       </c>
       <c r="O90" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P90" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q90" s="18" t="s">
         <v>21</v>
@@ -16182,7 +16182,7 @@
         <v>69</v>
       </c>
       <c r="Z90" s="18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AA90" s="18">
         <v>2</v>
@@ -16203,7 +16203,7 @@
         <v>118</v>
       </c>
       <c r="AL90" s="18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AM90" s="18" t="s">
         <v>232</v>
@@ -16212,7 +16212,7 @@
         <v>162</v>
       </c>
       <c r="AO90" s="18" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AP90" s="18" t="s">
         <v>374</v>
@@ -16227,7 +16227,7 @@
         <v>176</v>
       </c>
       <c r="AU90" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AV90" s="18" t="s">
         <v>199</v>
@@ -16236,21 +16236,21 @@
         <v>208</v>
       </c>
       <c r="AX90" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
-    <row r="91" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B91" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C91" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="D91" s="18" t="s">
         <v>558</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>559</v>
       </c>
       <c r="E91" s="18">
         <v>1998</v>
@@ -16271,19 +16271,19 @@
         <v>352</v>
       </c>
       <c r="K91" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="M91" s="18" t="s">
         <v>560</v>
-      </c>
-      <c r="M91" s="18" t="s">
-        <v>561</v>
       </c>
       <c r="N91" s="18" t="s">
         <v>249</v>
       </c>
       <c r="O91" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P91" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q91" s="18" t="s">
         <v>21</v>
@@ -16307,7 +16307,7 @@
         <v>69</v>
       </c>
       <c r="Z91" s="18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AA91" s="18">
         <v>2</v>
@@ -16334,7 +16334,7 @@
         <v>113</v>
       </c>
       <c r="AL91" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AM91" s="18" t="s">
         <v>232</v>
@@ -16343,7 +16343,7 @@
         <v>162</v>
       </c>
       <c r="AO91" s="18" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AP91" s="18" t="s">
         <v>374</v>
@@ -16358,7 +16358,7 @@
         <v>175</v>
       </c>
       <c r="AU91" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AV91" s="18" t="s">
         <v>199</v>
@@ -16367,21 +16367,21 @@
         <v>208</v>
       </c>
       <c r="AX91" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
-    <row r="92" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C92" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="D92" s="18" t="s">
         <v>558</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>559</v>
       </c>
       <c r="E92" s="18">
         <v>1998</v>
@@ -16402,19 +16402,19 @@
         <v>352</v>
       </c>
       <c r="K92" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="M92" s="18" t="s">
         <v>560</v>
-      </c>
-      <c r="M92" s="18" t="s">
-        <v>561</v>
       </c>
       <c r="N92" s="18" t="s">
         <v>249</v>
       </c>
       <c r="O92" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P92" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q92" s="18" t="s">
         <v>21</v>
@@ -16438,7 +16438,7 @@
         <v>69</v>
       </c>
       <c r="Z92" s="18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AA92" s="18">
         <v>2</v>
@@ -16465,7 +16465,7 @@
         <v>113</v>
       </c>
       <c r="AL92" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AM92" s="18" t="s">
         <v>232</v>
@@ -16474,7 +16474,7 @@
         <v>162</v>
       </c>
       <c r="AO92" s="18" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AP92" s="18" t="s">
         <v>374</v>
@@ -16489,7 +16489,7 @@
         <v>176</v>
       </c>
       <c r="AU92" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AV92" s="18" t="s">
         <v>199</v>
@@ -16498,27 +16498,27 @@
         <v>208</v>
       </c>
       <c r="AX92" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
-    <row r="93" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C93" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="D93" s="18" t="s">
         <v>564</v>
-      </c>
-      <c r="D93" s="18" t="s">
-        <v>565</v>
       </c>
       <c r="E93" s="18">
         <v>1997</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G93" s="18">
         <v>22</v>
@@ -16530,10 +16530,10 @@
         <v>123</v>
       </c>
       <c r="K93" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="M93" s="18" t="s">
         <v>567</v>
-      </c>
-      <c r="M93" s="18" t="s">
-        <v>568</v>
       </c>
       <c r="N93" s="18" t="s">
         <v>249</v>
@@ -16542,7 +16542,7 @@
         <v>250</v>
       </c>
       <c r="P93" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q93" s="18" t="s">
         <v>21</v>
@@ -16551,24 +16551,24 @@
         <v>84</v>
       </c>
       <c r="AE93" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AF93" s="18">
         <v>4.2</v>
       </c>
     </row>
-    <row r="94" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C94" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="D94" s="18" t="s">
         <v>570</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>571</v>
       </c>
       <c r="E94" s="18">
         <v>1996</v>
@@ -16589,10 +16589,10 @@
         <v>29</v>
       </c>
       <c r="K94" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="M94" s="18" t="s">
         <v>572</v>
-      </c>
-      <c r="M94" s="18" t="s">
-        <v>573</v>
       </c>
       <c r="N94" s="18" t="s">
         <v>249</v>
@@ -16601,7 +16601,7 @@
         <v>250</v>
       </c>
       <c r="P94" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q94" s="18" t="s">
         <v>21</v>
@@ -16625,7 +16625,7 @@
         <v>74</v>
       </c>
       <c r="Z94" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AA94" s="18">
         <v>2</v>
@@ -16652,7 +16652,7 @@
         <v>159</v>
       </c>
       <c r="AO94" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AP94" s="18" t="s">
         <v>374</v>
@@ -16664,7 +16664,7 @@
         <v>239</v>
       </c>
       <c r="AU94" s="18" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AV94" s="18" t="s">
         <v>202</v>
@@ -16673,21 +16673,21 @@
         <v>210</v>
       </c>
       <c r="AX94" s="18" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
-    <row r="95" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C95" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="D95" s="18" t="s">
         <v>570</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>571</v>
       </c>
       <c r="E95" s="18">
         <v>1996</v>
@@ -16708,10 +16708,10 @@
         <v>29</v>
       </c>
       <c r="K95" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="M95" s="18" t="s">
         <v>572</v>
-      </c>
-      <c r="M95" s="18" t="s">
-        <v>573</v>
       </c>
       <c r="N95" s="18" t="s">
         <v>249</v>
@@ -16720,7 +16720,7 @@
         <v>250</v>
       </c>
       <c r="P95" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q95" s="18" t="s">
         <v>21</v>
@@ -16744,7 +16744,7 @@
         <v>74</v>
       </c>
       <c r="Z95" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AA95" s="18">
         <v>2</v>
@@ -16771,7 +16771,7 @@
         <v>159</v>
       </c>
       <c r="AO95" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AP95" s="18" t="s">
         <v>374</v>
@@ -16783,7 +16783,7 @@
         <v>239</v>
       </c>
       <c r="AU95" s="18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AV95" s="18" t="s">
         <v>237</v>
@@ -16792,27 +16792,27 @@
         <v>209</v>
       </c>
       <c r="AX95" s="18" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
-    <row r="96" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C96" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="D96" s="18" t="s">
         <v>575</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>576</v>
       </c>
       <c r="E96" s="18">
         <v>2018</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G96" s="18">
         <v>59</v>
@@ -16827,10 +16827,10 @@
         <v>577</v>
       </c>
       <c r="K96" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="M96" s="18" t="s">
         <v>578</v>
-      </c>
-      <c r="M96" s="18" t="s">
-        <v>579</v>
       </c>
       <c r="N96" s="18" t="s">
         <v>249</v>
@@ -16839,7 +16839,7 @@
         <v>250</v>
       </c>
       <c r="Q96" s="18" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="S96" s="18" t="s">
         <v>35</v>
@@ -16860,7 +16860,7 @@
         <v>215</v>
       </c>
       <c r="Z96" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA96" s="18">
         <v>2</v>
@@ -16887,7 +16887,7 @@
         <v>155</v>
       </c>
       <c r="AL96" s="18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AM96" s="18" t="s">
         <v>232</v>
@@ -16896,7 +16896,7 @@
         <v>162</v>
       </c>
       <c r="AO96" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AP96" s="18" t="s">
         <v>374</v>
@@ -16911,10 +16911,10 @@
         <v>188</v>
       </c>
       <c r="AT96" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="AU96" s="18" t="s">
         <v>664</v>
-      </c>
-      <c r="AU96" s="18" t="s">
-        <v>665</v>
       </c>
       <c r="AV96" s="18" t="s">
         <v>206</v>
@@ -16923,27 +16923,27 @@
         <v>210</v>
       </c>
       <c r="AX96" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
-    <row r="97" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C97" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="D97" s="18" t="s">
         <v>575</v>
-      </c>
-      <c r="D97" s="18" t="s">
-        <v>576</v>
       </c>
       <c r="E97" s="18">
         <v>2018</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G97" s="18">
         <v>59</v>
@@ -16958,10 +16958,10 @@
         <v>577</v>
       </c>
       <c r="K97" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="M97" s="18" t="s">
         <v>578</v>
-      </c>
-      <c r="M97" s="18" t="s">
-        <v>579</v>
       </c>
       <c r="N97" s="18" t="s">
         <v>249</v>
@@ -16970,7 +16970,7 @@
         <v>250</v>
       </c>
       <c r="Q97" s="18" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="S97" s="18" t="s">
         <v>35</v>
@@ -16991,7 +16991,7 @@
         <v>215</v>
       </c>
       <c r="Z97" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA97" s="18">
         <v>2</v>
@@ -17015,7 +17015,7 @@
         <v>139</v>
       </c>
       <c r="AL97" s="18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AM97" s="18" t="s">
         <v>232</v>
@@ -17024,7 +17024,7 @@
         <v>162</v>
       </c>
       <c r="AO97" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AP97" s="18" t="s">
         <v>374</v>
@@ -17039,10 +17039,10 @@
         <v>188</v>
       </c>
       <c r="AT97" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="AU97" s="18" t="s">
         <v>664</v>
-      </c>
-      <c r="AU97" s="18" t="s">
-        <v>665</v>
       </c>
       <c r="AV97" s="18" t="s">
         <v>206</v>
@@ -17051,27 +17051,27 @@
         <v>210</v>
       </c>
       <c r="AX97" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
-    <row r="98" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B98" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C98" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="D98" s="18" t="s">
         <v>575</v>
-      </c>
-      <c r="D98" s="18" t="s">
-        <v>576</v>
       </c>
       <c r="E98" s="18">
         <v>2018</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G98" s="18">
         <v>59</v>
@@ -17086,10 +17086,10 @@
         <v>577</v>
       </c>
       <c r="K98" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="M98" s="18" t="s">
         <v>578</v>
-      </c>
-      <c r="M98" s="18" t="s">
-        <v>579</v>
       </c>
       <c r="N98" s="18" t="s">
         <v>249</v>
@@ -17098,7 +17098,7 @@
         <v>250</v>
       </c>
       <c r="Q98" s="18" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="S98" s="18" t="s">
         <v>35</v>
@@ -17119,7 +17119,7 @@
         <v>215</v>
       </c>
       <c r="Z98" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA98" s="18">
         <v>2</v>
@@ -17143,7 +17143,7 @@
         <v>145</v>
       </c>
       <c r="AL98" s="18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AM98" s="18" t="s">
         <v>232</v>
@@ -17152,7 +17152,7 @@
         <v>162</v>
       </c>
       <c r="AO98" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AP98" s="18" t="s">
         <v>374</v>
@@ -17167,10 +17167,10 @@
         <v>188</v>
       </c>
       <c r="AT98" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="AU98" s="18" t="s">
         <v>664</v>
-      </c>
-      <c r="AU98" s="18" t="s">
-        <v>665</v>
       </c>
       <c r="AV98" s="18" t="s">
         <v>206</v>
@@ -17179,27 +17179,27 @@
         <v>210</v>
       </c>
       <c r="AX98" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
-    <row r="99" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:50" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C99" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="D99" s="18" t="s">
         <v>575</v>
-      </c>
-      <c r="D99" s="18" t="s">
-        <v>576</v>
       </c>
       <c r="E99" s="18">
         <v>2018</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G99" s="18">
         <v>59</v>
@@ -17214,10 +17214,10 @@
         <v>577</v>
       </c>
       <c r="K99" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="M99" s="18" t="s">
         <v>578</v>
-      </c>
-      <c r="M99" s="18" t="s">
-        <v>579</v>
       </c>
       <c r="N99" s="18" t="s">
         <v>249</v>
@@ -17226,7 +17226,7 @@
         <v>250</v>
       </c>
       <c r="Q99" s="18" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="S99" s="18" t="s">
         <v>35</v>
@@ -17247,7 +17247,7 @@
         <v>215</v>
       </c>
       <c r="Z99" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA99" s="18">
         <v>2</v>
@@ -17271,7 +17271,7 @@
         <v>144</v>
       </c>
       <c r="AL99" s="18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AM99" s="18" t="s">
         <v>232</v>
@@ -17280,7 +17280,7 @@
         <v>160</v>
       </c>
       <c r="AO99" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AP99" s="18" t="s">
         <v>374</v>
@@ -17295,10 +17295,10 @@
         <v>188</v>
       </c>
       <c r="AT99" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="AU99" s="18" t="s">
         <v>664</v>
-      </c>
-      <c r="AU99" s="18" t="s">
-        <v>665</v>
       </c>
       <c r="AV99" s="18" t="s">
         <v>206</v>
@@ -17307,7 +17307,7 @@
         <v>210</v>
       </c>
       <c r="AX99" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -17445,17 +17445,17 @@
       <selection activeCell="AT37" sqref="AT37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="32.1796875" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.54296875" customWidth="1"/>
-    <col min="33" max="33" width="26.453125" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" customWidth="1"/>
+    <col min="33" max="33" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>11</v>
       </c>
@@ -17521,7 +17521,7 @@
       <c r="AW1" s="8"/>
       <c r="AX1" s="8"/>
     </row>
-    <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -17787,7 +17787,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -17843,7 +17843,7 @@
       </c>
       <c r="AX5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -17888,7 +17888,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -17930,7 +17930,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -17968,7 +17968,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -18003,7 +18003,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -18035,7 +18035,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -18070,7 +18070,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -18102,7 +18102,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -18137,7 +18137,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -18223,22 +18223,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -18273,7 +18273,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -18322,7 +18322,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -18352,12 +18352,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -18380,7 +18380,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -18432,7 +18432,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -18452,7 +18452,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -18466,7 +18466,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="35" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -18480,7 +18480,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -18488,10 +18488,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -18519,38 +18519,38 @@
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.54296875" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.81640625" customWidth="1"/>
-    <col min="19" max="19" width="17.81640625" customWidth="1"/>
-    <col min="20" max="20" width="19.453125" customWidth="1"/>
-    <col min="21" max="21" width="17.81640625" customWidth="1"/>
-    <col min="22" max="22" width="18.54296875" customWidth="1"/>
-    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.453125" customWidth="1"/>
-    <col min="30" max="30" width="15.1796875" customWidth="1"/>
-    <col min="31" max="31" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.81640625" customWidth="1"/>
-    <col min="33" max="33" width="12.54296875" customWidth="1"/>
+    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" customWidth="1"/>
+    <col min="31" max="31" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
@@ -18597,7 +18597,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
     </row>
-    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -18815,7 +18815,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -18869,7 +18869,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -18911,7 +18911,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -18994,7 +18994,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -19032,7 +19032,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -19067,7 +19067,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -19099,7 +19099,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -19131,7 +19131,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -19160,7 +19160,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -19183,7 +19183,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -19209,7 +19209,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -19237,7 +19237,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -19251,7 +19251,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -19265,7 +19265,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -19276,7 +19276,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -19290,7 +19290,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -19301,7 +19301,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -19312,7 +19312,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -19320,7 +19320,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -19328,7 +19328,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -19336,7 +19336,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -19350,7 +19350,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -19361,7 +19361,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -19372,7 +19372,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -19383,7 +19383,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -19391,7 +19391,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -19399,12 +19399,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -19555,14 +19555,14 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
